--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -648,18 +648,6 @@
     <t>histone modifications\number</t>
   </si>
   <si>
-    <t>2\iPSC, differentiated</t>
-  </si>
-  <si>
-    <t>12\iPSC, differentiated</t>
-  </si>
-  <si>
-    <t>39\iPSC, differentiated</t>
-  </si>
-  <si>
-    <t>12\iPSC, differentiated;12\mature motor neurons</t>
-  </si>
-  <si>
     <t>Broad-Golub</t>
   </si>
   <si>
@@ -750,33 +738,6 @@
     <t>count\type (OR) count1\type1;count2\type2</t>
   </si>
   <si>
-    <t>3\cell line</t>
-  </si>
-  <si>
-    <t>1\cell line;2\iPSC, differentiated</t>
-  </si>
-  <si>
-    <t>4\cell line</t>
-  </si>
-  <si>
-    <t>2\cell line</t>
-  </si>
-  <si>
-    <t>10\cell line</t>
-  </si>
-  <si>
-    <t>6\cell line</t>
-  </si>
-  <si>
-    <t>7\cell line</t>
-  </si>
-  <si>
-    <t>1\cell line</t>
-  </si>
-  <si>
-    <t>5\cell line</t>
-  </si>
-  <si>
     <t>ISMMS-Iyengar</t>
   </si>
   <si>
@@ -802,6 +763,45 @@
   </si>
   <si>
     <t>c-Jun, p-cJun, Foxo3a, p-Stat3, NFkB, and other target proteins</t>
+  </si>
+  <si>
+    <t>3\cell lines</t>
+  </si>
+  <si>
+    <t>1\cell lines;2\iPSCs, differentiated</t>
+  </si>
+  <si>
+    <t>2\iPSCs, differentiated</t>
+  </si>
+  <si>
+    <t>4\cell lines</t>
+  </si>
+  <si>
+    <t>6\cell lines</t>
+  </si>
+  <si>
+    <t>7\cell lines</t>
+  </si>
+  <si>
+    <t>2\cell lines</t>
+  </si>
+  <si>
+    <t>10\cell lines</t>
+  </si>
+  <si>
+    <t>1\cell lines</t>
+  </si>
+  <si>
+    <t>5\cell lines</t>
+  </si>
+  <si>
+    <t>12\iPSCs, differentiated</t>
+  </si>
+  <si>
+    <t>39\iPSCs, differentiated</t>
+  </si>
+  <si>
+    <t>12\iPSCs, differentiated;12\mature motor neurons</t>
   </si>
 </sst>
 </file>
@@ -938,7 +938,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="637">
+  <cellStyleXfs count="641">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1462,6 +1462,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1628,7 +1632,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="637">
+  <cellStyles count="641">
     <cellStyle name="Bad" xfId="43" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1946,6 +1950,8 @@
     <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2262,6 +2268,8 @@
     <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="377" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="140"/>
@@ -2604,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J33" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -2692,10 +2700,10 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
@@ -2755,7 +2763,7 @@
     </row>
     <row r="4" spans="1:21" ht="17" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>23</v>
@@ -2764,10 +2772,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>29</v>
@@ -2807,7 +2815,7 @@
     </row>
     <row r="5" spans="1:21" ht="17" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>24</v>
@@ -2816,10 +2824,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>29</v>
@@ -2859,7 +2867,7 @@
     </row>
     <row r="6" spans="1:21" ht="17" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>25</v>
@@ -2868,10 +2876,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>29</v>
@@ -2911,7 +2919,7 @@
     </row>
     <row r="7" spans="1:21" ht="17" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -2920,10 +2928,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>29</v>
@@ -2963,7 +2971,7 @@
     </row>
     <row r="8" spans="1:21" ht="17" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -2972,10 +2980,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>29</v>
@@ -3015,7 +3023,7 @@
     </row>
     <row r="9" spans="1:21" ht="17" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -3024,10 +3032,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>29</v>
@@ -3067,7 +3075,7 @@
     </row>
     <row r="10" spans="1:21" ht="17" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -3076,10 +3084,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>29</v>
@@ -3119,7 +3127,7 @@
     </row>
     <row r="11" spans="1:21" ht="17" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -3128,10 +3136,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>29</v>
@@ -3171,7 +3179,7 @@
     </row>
     <row r="12" spans="1:21" ht="17" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -3180,10 +3188,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>29</v>
@@ -3223,7 +3231,7 @@
     </row>
     <row r="13" spans="1:21" ht="17" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -3235,7 +3243,7 @@
         <v>143</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>29</v>
@@ -3275,7 +3283,7 @@
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -3287,7 +3295,7 @@
         <v>143</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>29</v>
@@ -3327,7 +3335,7 @@
     </row>
     <row r="15" spans="1:21" ht="17" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -3339,7 +3347,7 @@
         <v>143</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>29</v>
@@ -3379,7 +3387,7 @@
     </row>
     <row r="16" spans="1:21" ht="17" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -3388,10 +3396,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>29</v>
@@ -3431,7 +3439,7 @@
     </row>
     <row r="17" spans="1:20" ht="17" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -3440,10 +3448,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>29</v>
@@ -3483,7 +3491,7 @@
     </row>
     <row r="18" spans="1:20" ht="17" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -3492,10 +3500,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>29</v>
@@ -3536,7 +3544,7 @@
     <row r="19" spans="1:20" s="14" customFormat="1" ht="17" customHeight="1"/>
     <row r="20" spans="1:20" ht="17" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>20</v>
@@ -3545,10 +3553,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>8</v>
@@ -3588,7 +3596,7 @@
     </row>
     <row r="21" spans="1:20" ht="17" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>19</v>
@@ -3597,10 +3605,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>8</v>
@@ -3640,7 +3648,7 @@
     </row>
     <row r="22" spans="1:20" ht="17" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>6</v>
@@ -3649,10 +3657,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>61</v>
@@ -3692,7 +3700,7 @@
     </row>
     <row r="23" spans="1:20" ht="17" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>7</v>
@@ -3701,10 +3709,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>61</v>
@@ -3745,7 +3753,7 @@
     <row r="24" spans="1:20" s="14" customFormat="1" ht="17" customHeight="1"/>
     <row r="25" spans="1:20" ht="17" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>203</v>
@@ -3754,10 +3762,10 @@
         <v>41</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>60</v>
@@ -3795,7 +3803,7 @@
     </row>
     <row r="26" spans="1:20" ht="17" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>204</v>
@@ -3804,10 +3812,10 @@
         <v>42</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>60</v>
@@ -3828,7 +3836,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M26" s="12">
         <v>1</v>
@@ -3843,7 +3851,7 @@
     </row>
     <row r="27" spans="1:20" ht="17" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>205</v>
@@ -3852,10 +3860,10 @@
         <v>43</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>44</v>
@@ -3897,7 +3905,7 @@
     </row>
     <row r="28" spans="1:20" ht="17" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>206</v>
@@ -3906,10 +3914,10 @@
         <v>144</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>44</v>
@@ -3930,7 +3938,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="M28" s="9">
         <v>21</v>
@@ -3951,7 +3959,7 @@
     </row>
     <row r="29" spans="1:20" ht="17" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>207</v>
@@ -3960,10 +3968,10 @@
         <v>145</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>45</v>
@@ -4005,19 +4013,19 @@
     </row>
     <row r="30" spans="1:20" ht="17" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>60</v>
@@ -4055,7 +4063,7 @@
     </row>
     <row r="31" spans="1:20" ht="17" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>32</v>
@@ -4064,10 +4072,10 @@
         <v>62</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>60</v>
@@ -4105,19 +4113,19 @@
     </row>
     <row r="32" spans="1:20" ht="17" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>70</v>
@@ -4157,19 +4165,19 @@
     </row>
     <row r="33" spans="1:20" ht="17" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>70</v>
@@ -4211,7 +4219,7 @@
     </row>
     <row r="34" spans="1:20" ht="17" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>39</v>
@@ -4262,19 +4270,19 @@
     </row>
     <row r="35" spans="1:20" ht="17" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>79</v>
@@ -4312,7 +4320,7 @@
     </row>
     <row r="36" spans="1:20" ht="17" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>80</v>
@@ -4321,10 +4329,10 @@
         <v>71</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>70</v>
@@ -4348,7 +4356,7 @@
         <v>171</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="N36" s="23">
         <v>42185</v>
@@ -4362,7 +4370,7 @@
     </row>
     <row r="37" spans="1:20" ht="17" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>34</v>
@@ -4371,10 +4379,10 @@
         <v>81</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>70</v>
@@ -4398,7 +4406,7 @@
         <v>171</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="N37" s="23">
         <v>42277</v>
@@ -4412,7 +4420,7 @@
     </row>
     <row r="38" spans="1:20" ht="17" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>31</v>
@@ -4424,7 +4432,7 @@
         <v>56</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>57</v>
@@ -4466,7 +4474,7 @@
     </row>
     <row r="39" spans="1:20" ht="17" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>33</v>
@@ -4478,7 +4486,7 @@
         <v>82</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>97</v>
@@ -4521,7 +4529,7 @@
     </row>
     <row r="40" spans="1:20" ht="17" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>35</v>
@@ -4533,7 +4541,7 @@
         <v>85</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>98</v>
@@ -4576,7 +4584,7 @@
     </row>
     <row r="41" spans="1:20" ht="17" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>36</v>
@@ -4585,10 +4593,10 @@
         <v>102</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>104</v>
@@ -4609,7 +4617,7 @@
         <v>16</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>73</v>
@@ -4626,7 +4634,7 @@
     </row>
     <row r="42" spans="1:20" ht="17" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>37</v>
@@ -4635,10 +4643,10 @@
         <v>147</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>104</v>
@@ -4676,7 +4684,7 @@
     </row>
     <row r="43" spans="1:20" ht="17" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>38</v>
@@ -4685,10 +4693,10 @@
         <v>103</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>105</v>
@@ -4709,7 +4717,7 @@
         <v>16</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M43" s="10" t="s">
         <v>73</v>
@@ -4725,7 +4733,7 @@
     </row>
     <row r="44" spans="1:20" ht="17" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>40</v>
@@ -4734,10 +4742,10 @@
         <v>111</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>22</v>
@@ -4775,7 +4783,7 @@
     <row r="45" spans="1:20" s="14" customFormat="1" ht="17" customHeight="1"/>
     <row r="46" spans="1:20" ht="17" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>113</v>
@@ -4784,10 +4792,10 @@
         <v>115</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>118</v>
@@ -4828,7 +4836,7 @@
     </row>
     <row r="47" spans="1:20" ht="17" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>114</v>
@@ -4837,10 +4845,10 @@
         <v>116</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>118</v>
@@ -4885,7 +4893,7 @@
     <row r="48" spans="1:20" s="14" customFormat="1" ht="17" customHeight="1"/>
     <row r="49" spans="1:17" ht="17" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>121</v>
@@ -4894,10 +4902,10 @@
         <v>127</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>131</v>
@@ -4936,7 +4944,7 @@
     </row>
     <row r="50" spans="1:17" ht="17" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>122</v>
@@ -4945,10 +4953,10 @@
         <v>146</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>149</v>
@@ -4987,7 +4995,7 @@
     </row>
     <row r="51" spans="1:17" ht="17" customHeight="1">
       <c r="A51" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>123</v>
@@ -4996,10 +5004,10 @@
         <v>148</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>150</v>
@@ -5038,7 +5046,7 @@
     </row>
     <row r="52" spans="1:17" ht="17" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>124</v>
@@ -5050,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>131</v>
@@ -5089,7 +5097,7 @@
     </row>
     <row r="53" spans="1:17" ht="17" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>125</v>
@@ -5098,10 +5106,10 @@
         <v>129</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>131</v>
@@ -5140,7 +5148,7 @@
     </row>
     <row r="54" spans="1:17" ht="17" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>126</v>
@@ -5149,7 +5157,7 @@
         <v>130</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>22</v>
@@ -5191,7 +5199,7 @@
     </row>
     <row r="55" spans="1:17" ht="17" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>152</v>
@@ -5200,10 +5208,10 @@
         <v>151</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>131</v>
@@ -5240,7 +5248,7 @@
     </row>
     <row r="56" spans="1:17" ht="17" customHeight="1">
       <c r="A56" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>156</v>
@@ -5249,10 +5257,10 @@
         <v>154</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>131</v>
@@ -5291,7 +5299,7 @@
     </row>
     <row r="57" spans="1:17" ht="17" customHeight="1">
       <c r="A57" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>157</v>
@@ -5300,10 +5308,10 @@
         <v>153</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>131</v>
@@ -5342,7 +5350,7 @@
     </row>
     <row r="58" spans="1:17" ht="17" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>155</v>
@@ -5351,10 +5359,10 @@
         <v>158</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>162</v>
@@ -5393,19 +5401,19 @@
     </row>
     <row r="59" spans="1:17" ht="17" customHeight="1">
       <c r="A59" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>131</v>
@@ -5444,19 +5452,19 @@
     </row>
     <row r="60" spans="1:17" ht="17" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>160</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>131</v>
@@ -5495,19 +5503,19 @@
     </row>
     <row r="61" spans="1:17" ht="17" customHeight="1">
       <c r="A61" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>131</v>
@@ -5547,7 +5555,7 @@
     <row r="62" spans="1:17" s="14" customFormat="1" ht="17" customHeight="1"/>
     <row r="63" spans="1:17" ht="17" customHeight="1">
       <c r="A63" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>141</v>
@@ -5556,10 +5564,10 @@
         <v>140</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>142</v>
@@ -5600,7 +5608,7 @@
     </row>
     <row r="64" spans="1:17" ht="17" customHeight="1">
       <c r="A64" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>141</v>
@@ -5609,10 +5617,10 @@
         <v>140</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>142</v>

--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="265">
   <si>
     <t>center</t>
   </si>
@@ -808,13 +808,19 @@
   </si>
   <si>
     <t>false\small molecules,177</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>PHASE ONE DATA COMING SOON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -872,8 +878,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,8 +927,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -943,8 +968,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="643">
+  <cellStyleXfs count="649">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1588,8 +1639,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1639,8 +1696,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="643">
+  <cellStyles count="649">
     <cellStyle name="Bad" xfId="43" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1961,6 +2028,9 @@
     <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2280,6 +2350,9 @@
     <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="377" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="140"/>
@@ -2622,13 +2695,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="142" style="10" customWidth="1"/>
@@ -2702,6 +2775,9 @@
       <c r="Q1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="T1" s="5"/>
       <c r="U1" s="2"/>
     </row>
@@ -2821,6 +2897,9 @@
       <c r="Q4" s="23">
         <v>42124</v>
       </c>
+      <c r="R4" s="10">
+        <v>2</v>
+      </c>
       <c r="T4" s="9"/>
     </row>
     <row r="5" spans="1:21" ht="17" customHeight="1">
@@ -2873,6 +2952,9 @@
       <c r="Q5" s="23">
         <v>42124</v>
       </c>
+      <c r="R5" s="10">
+        <v>2</v>
+      </c>
       <c r="T5" s="9"/>
     </row>
     <row r="6" spans="1:21" ht="17" customHeight="1">
@@ -2925,6 +3007,9 @@
       <c r="Q6" s="23">
         <v>42124</v>
       </c>
+      <c r="R6" s="10">
+        <v>2</v>
+      </c>
       <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:21" ht="17" customHeight="1">
@@ -2977,6 +3062,9 @@
       <c r="Q7" s="23">
         <v>42216</v>
       </c>
+      <c r="R7" s="10">
+        <v>2</v>
+      </c>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="17" customHeight="1">
@@ -3029,6 +3117,9 @@
       <c r="Q8" s="23">
         <v>42216</v>
       </c>
+      <c r="R8" s="10">
+        <v>2</v>
+      </c>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="17" customHeight="1">
@@ -3081,6 +3172,9 @@
       <c r="Q9" s="23">
         <v>42216</v>
       </c>
+      <c r="R9" s="10">
+        <v>2</v>
+      </c>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="17" customHeight="1">
@@ -3133,6 +3227,9 @@
       <c r="Q10" s="23">
         <v>42292</v>
       </c>
+      <c r="R10" s="10">
+        <v>2</v>
+      </c>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="17" customHeight="1">
@@ -3185,6 +3282,9 @@
       <c r="Q11" s="23">
         <v>42292</v>
       </c>
+      <c r="R11" s="10">
+        <v>2</v>
+      </c>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="17" customHeight="1">
@@ -3237,6 +3337,9 @@
       <c r="Q12" s="23">
         <v>42292</v>
       </c>
+      <c r="R12" s="10">
+        <v>2</v>
+      </c>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="17" customHeight="1">
@@ -3289,6 +3392,9 @@
       <c r="Q13" s="23">
         <v>42292</v>
       </c>
+      <c r="R13" s="10">
+        <v>2</v>
+      </c>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1">
@@ -3341,6 +3447,9 @@
       <c r="Q14" s="23">
         <v>42292</v>
       </c>
+      <c r="R14" s="10">
+        <v>2</v>
+      </c>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="17" customHeight="1">
@@ -3393,6 +3502,9 @@
       <c r="Q15" s="23">
         <v>42292</v>
       </c>
+      <c r="R15" s="10">
+        <v>2</v>
+      </c>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="17" customHeight="1">
@@ -3445,6 +3557,9 @@
       <c r="Q16" s="23">
         <v>42400</v>
       </c>
+      <c r="R16" s="10">
+        <v>2</v>
+      </c>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="17" customHeight="1">
@@ -3497,6 +3612,9 @@
       <c r="Q17" s="23">
         <v>42400</v>
       </c>
+      <c r="R17" s="10">
+        <v>2</v>
+      </c>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" ht="17" customHeight="1">
@@ -3548,6 +3666,9 @@
       </c>
       <c r="Q18" s="23">
         <v>42400</v>
+      </c>
+      <c r="R18" s="10">
+        <v>2</v>
       </c>
       <c r="T18" s="1"/>
     </row>
@@ -3602,6 +3723,9 @@
       <c r="Q20" s="23">
         <v>42185</v>
       </c>
+      <c r="R20" s="4">
+        <v>2</v>
+      </c>
       <c r="T20" s="9"/>
     </row>
     <row r="21" spans="1:20" ht="17" customHeight="1">
@@ -3654,6 +3778,9 @@
       <c r="Q21" s="23">
         <v>42185</v>
       </c>
+      <c r="R21" s="4">
+        <v>2</v>
+      </c>
       <c r="T21" s="9"/>
     </row>
     <row r="22" spans="1:20" ht="17" customHeight="1">
@@ -3706,6 +3833,9 @@
       <c r="Q22" s="23">
         <v>42185</v>
       </c>
+      <c r="R22" s="4">
+        <v>2</v>
+      </c>
       <c r="T22" s="9"/>
     </row>
     <row r="23" spans="1:20" ht="17" customHeight="1">
@@ -3757,6 +3887,9 @@
       </c>
       <c r="Q23" s="23">
         <v>42185</v>
+      </c>
+      <c r="R23" s="4">
+        <v>2</v>
       </c>
       <c r="T23" s="9"/>
     </row>
@@ -3809,6 +3942,9 @@
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
+      <c r="R25" s="4">
+        <v>2</v>
+      </c>
       <c r="T25" s="9"/>
     </row>
     <row r="26" spans="1:20" ht="17" customHeight="1">
@@ -3857,6 +3993,9 @@
         <v>42004</v>
       </c>
       <c r="Q26" s="4"/>
+      <c r="R26" s="4">
+        <v>2</v>
+      </c>
       <c r="T26" s="9"/>
     </row>
     <row r="27" spans="1:20" ht="17" customHeight="1">
@@ -3911,6 +4050,9 @@
       <c r="Q27" s="23">
         <v>42094</v>
       </c>
+      <c r="R27" s="4">
+        <v>2</v>
+      </c>
       <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" ht="17" customHeight="1">
@@ -3965,6 +4107,9 @@
       <c r="Q28" s="23">
         <v>42094</v>
       </c>
+      <c r="R28" s="4">
+        <v>2</v>
+      </c>
       <c r="T28" s="9"/>
     </row>
     <row r="29" spans="1:20" ht="17" customHeight="1">
@@ -4019,6 +4164,9 @@
       <c r="Q29" s="23">
         <v>42094</v>
       </c>
+      <c r="R29" s="4">
+        <v>2</v>
+      </c>
       <c r="T29" s="9"/>
     </row>
     <row r="30" spans="1:20" ht="17" customHeight="1">
@@ -4069,6 +4217,9 @@
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
+      <c r="R30" s="4">
+        <v>2</v>
+      </c>
       <c r="T30" s="9"/>
     </row>
     <row r="31" spans="1:20" ht="17" customHeight="1">
@@ -4119,6 +4270,9 @@
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
+      <c r="R31" s="4">
+        <v>2</v>
+      </c>
       <c r="T31" s="9"/>
     </row>
     <row r="32" spans="1:20" ht="17" customHeight="1">
@@ -4171,6 +4325,9 @@
       <c r="Q32" s="23">
         <v>42369</v>
       </c>
+      <c r="R32" s="4">
+        <v>2</v>
+      </c>
       <c r="T32" s="9"/>
     </row>
     <row r="33" spans="1:20" ht="17" customHeight="1">
@@ -4225,6 +4382,9 @@
       <c r="Q33" s="23">
         <v>42369</v>
       </c>
+      <c r="R33" s="4">
+        <v>2</v>
+      </c>
       <c r="T33" s="9"/>
     </row>
     <row r="34" spans="1:20" ht="17" customHeight="1">
@@ -4277,6 +4437,9 @@
         <v>42369</v>
       </c>
       <c r="Q34" s="4"/>
+      <c r="R34" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="17" customHeight="1">
       <c r="A35" s="9" t="s">
@@ -4326,6 +4489,9 @@
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
+      <c r="R35" s="4">
+        <v>2</v>
+      </c>
       <c r="T35" s="9"/>
     </row>
     <row r="36" spans="1:20" ht="17" customHeight="1">
@@ -4376,6 +4542,9 @@
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
+      <c r="R36" s="4">
+        <v>2</v>
+      </c>
       <c r="T36" s="9"/>
     </row>
     <row r="37" spans="1:20" ht="17" customHeight="1">
@@ -4426,6 +4595,9 @@
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
+      <c r="R37" s="4">
+        <v>2</v>
+      </c>
       <c r="T37" s="9"/>
     </row>
     <row r="38" spans="1:20" ht="17" customHeight="1">
@@ -4480,6 +4652,9 @@
       <c r="Q38" s="23">
         <v>42369</v>
       </c>
+      <c r="R38" s="4">
+        <v>2</v>
+      </c>
       <c r="T38" s="9"/>
     </row>
     <row r="39" spans="1:20" ht="17" customHeight="1">
@@ -4534,7 +4709,9 @@
       <c r="Q39" s="23">
         <v>42460</v>
       </c>
-      <c r="R39" s="20"/>
+      <c r="R39" s="4">
+        <v>2</v>
+      </c>
       <c r="T39" s="9"/>
     </row>
     <row r="40" spans="1:20" ht="17" customHeight="1">
@@ -4589,7 +4766,9 @@
       <c r="Q40" s="23">
         <v>42551</v>
       </c>
-      <c r="R40" s="20"/>
+      <c r="R40" s="4">
+        <v>2</v>
+      </c>
       <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" ht="17" customHeight="1">
@@ -4640,6 +4819,9 @@
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
+      <c r="R41" s="4">
+        <v>2</v>
+      </c>
       <c r="T41" s="9"/>
     </row>
     <row r="42" spans="1:20" ht="17" customHeight="1">
@@ -4690,6 +4872,9 @@
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
+      <c r="R42" s="4">
+        <v>2</v>
+      </c>
       <c r="T42" s="9"/>
     </row>
     <row r="43" spans="1:20" ht="17" customHeight="1">
@@ -4740,6 +4925,9 @@
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
+      <c r="R43" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="17" customHeight="1">
       <c r="A44" s="9" t="s">
@@ -4789,6 +4977,9 @@
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
+      <c r="R44" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:20" s="14" customFormat="1" ht="17" customHeight="1"/>
     <row r="46" spans="1:20" ht="17" customHeight="1">
@@ -4843,6 +5034,9 @@
       <c r="Q46" s="23">
         <v>42185</v>
       </c>
+      <c r="R46" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="17" customHeight="1">
       <c r="A47" s="10" t="s">
@@ -4896,12 +5090,15 @@
       <c r="Q47" s="23">
         <v>42185</v>
       </c>
-      <c r="R47" s="19" t="s">
+      <c r="R47" s="4">
+        <v>2</v>
+      </c>
+      <c r="T47" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="14" customFormat="1" ht="17" customHeight="1"/>
-    <row r="49" spans="1:17" ht="17" customHeight="1">
+    <row r="49" spans="1:18" ht="17" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>211</v>
       </c>
@@ -4951,8 +5148,11 @@
         <v>42369</v>
       </c>
       <c r="Q49" s="4"/>
-    </row>
-    <row r="50" spans="1:17" ht="17" customHeight="1">
+      <c r="R49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="17" customHeight="1">
       <c r="A50" s="10" t="s">
         <v>211</v>
       </c>
@@ -5002,8 +5202,11 @@
         <v>42369</v>
       </c>
       <c r="Q50" s="4"/>
-    </row>
-    <row r="51" spans="1:17" ht="17" customHeight="1">
+      <c r="R50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="17" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>211</v>
       </c>
@@ -5053,8 +5256,11 @@
         <v>42369</v>
       </c>
       <c r="Q51" s="4"/>
-    </row>
-    <row r="52" spans="1:17" ht="17" customHeight="1">
+      <c r="R51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="17" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>211</v>
       </c>
@@ -5104,8 +5310,11 @@
         <v>42369</v>
       </c>
       <c r="Q52" s="4"/>
-    </row>
-    <row r="53" spans="1:17" ht="17" customHeight="1">
+      <c r="R52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="17" customHeight="1">
       <c r="A53" s="10" t="s">
         <v>211</v>
       </c>
@@ -5155,8 +5364,11 @@
         <v>42369</v>
       </c>
       <c r="Q53" s="4"/>
-    </row>
-    <row r="54" spans="1:17" ht="17" customHeight="1">
+      <c r="R53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="17" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>211</v>
       </c>
@@ -5206,8 +5418,11 @@
         <v>42369</v>
       </c>
       <c r="Q54" s="4"/>
-    </row>
-    <row r="55" spans="1:17" ht="17" customHeight="1">
+      <c r="R54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="17" customHeight="1">
       <c r="A55" s="10" t="s">
         <v>211</v>
       </c>
@@ -5255,8 +5470,11 @@
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
-    </row>
-    <row r="56" spans="1:17" ht="17" customHeight="1">
+      <c r="R55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="17" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>211</v>
       </c>
@@ -5306,8 +5524,11 @@
         <v>42369</v>
       </c>
       <c r="Q56" s="4"/>
-    </row>
-    <row r="57" spans="1:17" ht="17" customHeight="1">
+      <c r="R56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="17" customHeight="1">
       <c r="A57" s="10" t="s">
         <v>211</v>
       </c>
@@ -5357,8 +5578,11 @@
         <v>42369</v>
       </c>
       <c r="Q57" s="4"/>
-    </row>
-    <row r="58" spans="1:17" ht="17" customHeight="1">
+      <c r="R57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="17" customHeight="1">
       <c r="A58" s="10" t="s">
         <v>211</v>
       </c>
@@ -5408,8 +5632,11 @@
         <v>42369</v>
       </c>
       <c r="Q58" s="4"/>
-    </row>
-    <row r="59" spans="1:17" ht="17" customHeight="1">
+      <c r="R58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="17" customHeight="1">
       <c r="A59" s="10" t="s">
         <v>211</v>
       </c>
@@ -5459,8 +5686,11 @@
         <v>42369</v>
       </c>
       <c r="Q59" s="4"/>
-    </row>
-    <row r="60" spans="1:17" ht="17" customHeight="1">
+      <c r="R59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="17" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>211</v>
       </c>
@@ -5510,8 +5740,11 @@
         <v>42369</v>
       </c>
       <c r="Q60" s="4"/>
-    </row>
-    <row r="61" spans="1:17" ht="17" customHeight="1">
+      <c r="R60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="17" customHeight="1">
       <c r="A61" s="10" t="s">
         <v>211</v>
       </c>
@@ -5561,9 +5794,12 @@
         <v>42369</v>
       </c>
       <c r="Q61" s="4"/>
-    </row>
-    <row r="62" spans="1:17" s="14" customFormat="1" ht="17" customHeight="1"/>
-    <row r="63" spans="1:17" ht="17" customHeight="1">
+      <c r="R61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1"/>
+    <row r="63" spans="1:18" ht="17" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>215</v>
       </c>
@@ -5615,8 +5851,11 @@
       <c r="Q63" s="23">
         <v>42277</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="17" customHeight="1">
+      <c r="R63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="17" customHeight="1">
       <c r="A64" s="10" t="s">
         <v>215</v>
       </c>
@@ -5668,44 +5907,69 @@
       <c r="Q64" s="23">
         <v>42459</v>
       </c>
-    </row>
-    <row r="65" spans="14:17" ht="17" customHeight="1">
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-    </row>
-    <row r="66" spans="14:17" ht="17" customHeight="1">
+      <c r="R64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" s="25" customFormat="1" ht="17" customHeight="1">
+      <c r="A65" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="28"/>
+    </row>
+    <row r="66" spans="1:21" ht="17" customHeight="1">
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-    </row>
-    <row r="67" spans="14:17" ht="17" customHeight="1">
+    </row>
+    <row r="67" spans="1:21" ht="17" customHeight="1">
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-    </row>
-    <row r="68" spans="14:17" ht="17" customHeight="1">
+    </row>
+    <row r="68" spans="1:21" ht="17" customHeight="1">
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-    </row>
-    <row r="69" spans="14:17" ht="17" customHeight="1">
+    </row>
+    <row r="69" spans="1:21" ht="17" customHeight="1">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-    </row>
-    <row r="70" spans="14:17" ht="17" customHeight="1">
+    </row>
+    <row r="70" spans="1:21" ht="17" customHeight="1">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A65:U65"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="271">
   <si>
     <t>center</t>
   </si>
@@ -814,6 +814,24 @@
   </si>
   <si>
     <t>PHASE ONE DATA COMING SOON</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20215/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20216/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20217/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20218/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20219/</t>
+  </si>
+  <si>
+    <t>release-link</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1013,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="649">
+  <cellStyleXfs count="651">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1645,8 +1663,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1706,8 +1726,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="649"/>
   </cellXfs>
-  <cellStyles count="649">
+  <cellStyles count="651">
     <cellStyle name="Bad" xfId="43" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2031,6 +2052,7 @@
     <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2353,6 +2375,7 @@
     <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8"/>
     <cellStyle name="Neutral" xfId="377" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="140"/>
@@ -2693,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -2716,14 +2739,15 @@
     <col min="13" max="13" width="10.6640625" style="10" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="10" customWidth="1"/>
-    <col min="20" max="20" width="104.83203125" style="10" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" style="10" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="10"/>
+    <col min="18" max="18" width="15.33203125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="50" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="104.83203125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="30">
+    <row r="1" spans="1:22" s="6" customFormat="1" ht="30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2775,13 +2799,16 @@
       <c r="Q1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="17" customHeight="1">
+      <c r="U1" s="5"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="17" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2825,10 +2852,11 @@
       <c r="Q2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" ht="17" customHeight="1">
+      <c r="R2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2844,10 +2872,10 @@
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" ht="17" customHeight="1">
+      <c r="U3" s="7"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" ht="17" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>237</v>
       </c>
@@ -2897,12 +2925,13 @@
       <c r="Q4" s="23">
         <v>42124</v>
       </c>
-      <c r="R4" s="10">
-        <v>2</v>
-      </c>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" ht="17" customHeight="1">
+      <c r="R4" s="23"/>
+      <c r="S4" s="10">
+        <v>2</v>
+      </c>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:22" ht="17" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>237</v>
       </c>
@@ -2952,12 +2981,13 @@
       <c r="Q5" s="23">
         <v>42124</v>
       </c>
-      <c r="R5" s="10">
-        <v>2</v>
-      </c>
-      <c r="T5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" ht="17" customHeight="1">
+      <c r="R5" s="23"/>
+      <c r="S5" s="10">
+        <v>2</v>
+      </c>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:22" ht="17" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>237</v>
       </c>
@@ -3007,12 +3037,13 @@
       <c r="Q6" s="23">
         <v>42124</v>
       </c>
-      <c r="R6" s="10">
-        <v>2</v>
-      </c>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="7" spans="1:21" ht="17" customHeight="1">
+      <c r="R6" s="23"/>
+      <c r="S6" s="10">
+        <v>2</v>
+      </c>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" ht="17" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>237</v>
       </c>
@@ -3062,12 +3093,13 @@
       <c r="Q7" s="23">
         <v>42216</v>
       </c>
-      <c r="R7" s="10">
-        <v>2</v>
-      </c>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="17" customHeight="1">
+      <c r="R7" s="23"/>
+      <c r="S7" s="10">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="17" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>237</v>
       </c>
@@ -3117,12 +3149,13 @@
       <c r="Q8" s="23">
         <v>42216</v>
       </c>
-      <c r="R8" s="10">
-        <v>2</v>
-      </c>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="17" customHeight="1">
+      <c r="R8" s="23"/>
+      <c r="S8" s="10">
+        <v>2</v>
+      </c>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="17" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>237</v>
       </c>
@@ -3172,12 +3205,13 @@
       <c r="Q9" s="23">
         <v>42216</v>
       </c>
-      <c r="R9" s="10">
-        <v>2</v>
-      </c>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="17" customHeight="1">
+      <c r="R9" s="23"/>
+      <c r="S9" s="10">
+        <v>2</v>
+      </c>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="17" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>237</v>
       </c>
@@ -3227,12 +3261,13 @@
       <c r="Q10" s="23">
         <v>42292</v>
       </c>
-      <c r="R10" s="10">
-        <v>2</v>
-      </c>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="17" customHeight="1">
+      <c r="R10" s="23"/>
+      <c r="S10" s="10">
+        <v>2</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="17" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>237</v>
       </c>
@@ -3282,12 +3317,13 @@
       <c r="Q11" s="23">
         <v>42292</v>
       </c>
-      <c r="R11" s="10">
-        <v>2</v>
-      </c>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="17" customHeight="1">
+      <c r="R11" s="23"/>
+      <c r="S11" s="10">
+        <v>2</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="17" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>237</v>
       </c>
@@ -3337,12 +3373,13 @@
       <c r="Q12" s="23">
         <v>42292</v>
       </c>
-      <c r="R12" s="10">
-        <v>2</v>
-      </c>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="17" customHeight="1">
+      <c r="R12" s="23"/>
+      <c r="S12" s="10">
+        <v>2</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="17" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>237</v>
       </c>
@@ -3392,12 +3429,13 @@
       <c r="Q13" s="23">
         <v>42292</v>
       </c>
-      <c r="R13" s="10">
-        <v>2</v>
-      </c>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" ht="17" customHeight="1">
+      <c r="R13" s="23"/>
+      <c r="S13" s="10">
+        <v>2</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="17" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>237</v>
       </c>
@@ -3447,12 +3485,13 @@
       <c r="Q14" s="23">
         <v>42292</v>
       </c>
-      <c r="R14" s="10">
-        <v>2</v>
-      </c>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" ht="17" customHeight="1">
+      <c r="R14" s="23"/>
+      <c r="S14" s="10">
+        <v>2</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" ht="17" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>237</v>
       </c>
@@ -3502,12 +3541,13 @@
       <c r="Q15" s="23">
         <v>42292</v>
       </c>
-      <c r="R15" s="10">
-        <v>2</v>
-      </c>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" ht="17" customHeight="1">
+      <c r="R15" s="23"/>
+      <c r="S15" s="10">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" ht="17" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>237</v>
       </c>
@@ -3557,12 +3597,13 @@
       <c r="Q16" s="23">
         <v>42400</v>
       </c>
-      <c r="R16" s="10">
-        <v>2</v>
-      </c>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" ht="17" customHeight="1">
+      <c r="R16" s="23"/>
+      <c r="S16" s="10">
+        <v>2</v>
+      </c>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" ht="17" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>237</v>
       </c>
@@ -3612,12 +3653,13 @@
       <c r="Q17" s="23">
         <v>42400</v>
       </c>
-      <c r="R17" s="10">
-        <v>2</v>
-      </c>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" ht="17" customHeight="1">
+      <c r="R17" s="23"/>
+      <c r="S17" s="10">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="17" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>237</v>
       </c>
@@ -3667,13 +3709,14 @@
       <c r="Q18" s="23">
         <v>42400</v>
       </c>
-      <c r="R18" s="10">
-        <v>2</v>
-      </c>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" s="14" customFormat="1" ht="17" customHeight="1"/>
-    <row r="20" spans="1:20" ht="17" customHeight="1">
+      <c r="R18" s="23"/>
+      <c r="S18" s="10">
+        <v>2</v>
+      </c>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" s="14" customFormat="1" ht="17" customHeight="1"/>
+    <row r="20" spans="1:21" ht="17" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>207</v>
       </c>
@@ -3723,12 +3766,13 @@
       <c r="Q20" s="23">
         <v>42185</v>
       </c>
-      <c r="R20" s="4">
-        <v>2</v>
-      </c>
-      <c r="T20" s="9"/>
-    </row>
-    <row r="21" spans="1:20" ht="17" customHeight="1">
+      <c r="R20" s="23"/>
+      <c r="S20" s="4">
+        <v>2</v>
+      </c>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" ht="17" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>207</v>
       </c>
@@ -3778,12 +3822,13 @@
       <c r="Q21" s="23">
         <v>42185</v>
       </c>
-      <c r="R21" s="4">
-        <v>2</v>
-      </c>
-      <c r="T21" s="9"/>
-    </row>
-    <row r="22" spans="1:20" ht="17" customHeight="1">
+      <c r="R21" s="23"/>
+      <c r="S21" s="4">
+        <v>2</v>
+      </c>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:21" ht="17" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>207</v>
       </c>
@@ -3833,12 +3878,13 @@
       <c r="Q22" s="23">
         <v>42185</v>
       </c>
-      <c r="R22" s="4">
-        <v>2</v>
-      </c>
-      <c r="T22" s="9"/>
-    </row>
-    <row r="23" spans="1:20" ht="17" customHeight="1">
+      <c r="R22" s="23"/>
+      <c r="S22" s="4">
+        <v>2</v>
+      </c>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="17" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>207</v>
       </c>
@@ -3888,13 +3934,14 @@
       <c r="Q23" s="23">
         <v>42185</v>
       </c>
-      <c r="R23" s="4">
-        <v>2</v>
-      </c>
-      <c r="T23" s="9"/>
-    </row>
-    <row r="24" spans="1:20" s="14" customFormat="1" ht="17" customHeight="1"/>
-    <row r="25" spans="1:20" ht="17" customHeight="1">
+      <c r="R23" s="23"/>
+      <c r="S23" s="4">
+        <v>2</v>
+      </c>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="1:21" s="14" customFormat="1" ht="17" customHeight="1"/>
+    <row r="25" spans="1:21" ht="17" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>208</v>
       </c>
@@ -3942,12 +3989,15 @@
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4">
-        <v>2</v>
-      </c>
-      <c r="T25" s="9"/>
-    </row>
-    <row r="26" spans="1:20" ht="17" customHeight="1">
+      <c r="R25" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="S25" s="4">
+        <v>2</v>
+      </c>
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:21" ht="17" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>208</v>
       </c>
@@ -3993,12 +4043,15 @@
         <v>42004</v>
       </c>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4">
-        <v>2</v>
-      </c>
-      <c r="T26" s="9"/>
-    </row>
-    <row r="27" spans="1:20" ht="17" customHeight="1">
+      <c r="R26" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="S26" s="4">
+        <v>2</v>
+      </c>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="1:21" ht="17" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>208</v>
       </c>
@@ -4050,12 +4103,15 @@
       <c r="Q27" s="23">
         <v>42094</v>
       </c>
-      <c r="R27" s="4">
-        <v>2</v>
-      </c>
-      <c r="T27" s="9"/>
-    </row>
-    <row r="28" spans="1:20" ht="17" customHeight="1">
+      <c r="R27" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="S27" s="4">
+        <v>2</v>
+      </c>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="1:21" ht="17" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>208</v>
       </c>
@@ -4107,12 +4163,15 @@
       <c r="Q28" s="23">
         <v>42094</v>
       </c>
-      <c r="R28" s="4">
-        <v>2</v>
-      </c>
-      <c r="T28" s="9"/>
-    </row>
-    <row r="29" spans="1:20" ht="17" customHeight="1">
+      <c r="R28" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="S28" s="4">
+        <v>2</v>
+      </c>
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="1:21" ht="17" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>208</v>
       </c>
@@ -4164,12 +4223,15 @@
       <c r="Q29" s="23">
         <v>42094</v>
       </c>
-      <c r="R29" s="4">
-        <v>2</v>
-      </c>
-      <c r="T29" s="9"/>
-    </row>
-    <row r="30" spans="1:20" ht="17" customHeight="1">
+      <c r="R29" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="S29" s="4">
+        <v>2</v>
+      </c>
+      <c r="U29" s="9"/>
+    </row>
+    <row r="30" spans="1:21" ht="17" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>208</v>
       </c>
@@ -4217,12 +4279,13 @@
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4">
-        <v>2</v>
-      </c>
-      <c r="T30" s="9"/>
-    </row>
-    <row r="31" spans="1:20" ht="17" customHeight="1">
+      <c r="R30" s="4"/>
+      <c r="S30" s="4">
+        <v>2</v>
+      </c>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="1:21" ht="17" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>208</v>
       </c>
@@ -4270,12 +4333,13 @@
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="4">
-        <v>2</v>
-      </c>
-      <c r="T31" s="9"/>
-    </row>
-    <row r="32" spans="1:20" ht="17" customHeight="1">
+      <c r="R31" s="4"/>
+      <c r="S31" s="4">
+        <v>2</v>
+      </c>
+      <c r="U31" s="9"/>
+    </row>
+    <row r="32" spans="1:21" ht="17" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>208</v>
       </c>
@@ -4325,12 +4389,13 @@
       <c r="Q32" s="23">
         <v>42369</v>
       </c>
-      <c r="R32" s="4">
-        <v>2</v>
-      </c>
-      <c r="T32" s="9"/>
-    </row>
-    <row r="33" spans="1:20" ht="17" customHeight="1">
+      <c r="R32" s="23"/>
+      <c r="S32" s="4">
+        <v>2</v>
+      </c>
+      <c r="U32" s="9"/>
+    </row>
+    <row r="33" spans="1:21" ht="17" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>208</v>
       </c>
@@ -4382,12 +4447,13 @@
       <c r="Q33" s="23">
         <v>42369</v>
       </c>
-      <c r="R33" s="4">
-        <v>2</v>
-      </c>
-      <c r="T33" s="9"/>
-    </row>
-    <row r="34" spans="1:20" ht="17" customHeight="1">
+      <c r="R33" s="23"/>
+      <c r="S33" s="4">
+        <v>2</v>
+      </c>
+      <c r="U33" s="9"/>
+    </row>
+    <row r="34" spans="1:21" ht="17" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>208</v>
       </c>
@@ -4437,11 +4503,12 @@
         <v>42369</v>
       </c>
       <c r="Q34" s="4"/>
-      <c r="R34" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="17" customHeight="1">
+      <c r="R34" s="4"/>
+      <c r="S34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="17" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>208</v>
       </c>
@@ -4489,12 +4556,13 @@
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="4">
-        <v>2</v>
-      </c>
-      <c r="T35" s="9"/>
-    </row>
-    <row r="36" spans="1:20" ht="17" customHeight="1">
+      <c r="R35" s="4"/>
+      <c r="S35" s="4">
+        <v>2</v>
+      </c>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="1:21" ht="17" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>208</v>
       </c>
@@ -4542,12 +4610,13 @@
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="4">
-        <v>2</v>
-      </c>
-      <c r="T36" s="9"/>
-    </row>
-    <row r="37" spans="1:20" ht="17" customHeight="1">
+      <c r="R36" s="4"/>
+      <c r="S36" s="4">
+        <v>2</v>
+      </c>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="1:21" ht="17" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
@@ -4595,12 +4664,13 @@
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="4">
-        <v>2</v>
-      </c>
-      <c r="T37" s="9"/>
-    </row>
-    <row r="38" spans="1:20" ht="17" customHeight="1">
+      <c r="R37" s="4"/>
+      <c r="S37" s="4">
+        <v>2</v>
+      </c>
+      <c r="U37" s="9"/>
+    </row>
+    <row r="38" spans="1:21" ht="17" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>208</v>
       </c>
@@ -4652,12 +4722,13 @@
       <c r="Q38" s="23">
         <v>42369</v>
       </c>
-      <c r="R38" s="4">
-        <v>2</v>
-      </c>
-      <c r="T38" s="9"/>
-    </row>
-    <row r="39" spans="1:20" ht="17" customHeight="1">
+      <c r="R38" s="23"/>
+      <c r="S38" s="4">
+        <v>2</v>
+      </c>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" spans="1:21" ht="17" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>208</v>
       </c>
@@ -4709,12 +4780,13 @@
       <c r="Q39" s="23">
         <v>42460</v>
       </c>
-      <c r="R39" s="4">
-        <v>2</v>
-      </c>
-      <c r="T39" s="9"/>
-    </row>
-    <row r="40" spans="1:20" ht="17" customHeight="1">
+      <c r="R39" s="23"/>
+      <c r="S39" s="4">
+        <v>2</v>
+      </c>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" spans="1:21" ht="17" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>208</v>
       </c>
@@ -4766,12 +4838,13 @@
       <c r="Q40" s="23">
         <v>42551</v>
       </c>
-      <c r="R40" s="4">
-        <v>2</v>
-      </c>
-      <c r="T40" s="9"/>
-    </row>
-    <row r="41" spans="1:20" ht="17" customHeight="1">
+      <c r="R40" s="23"/>
+      <c r="S40" s="4">
+        <v>2</v>
+      </c>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="1:21" ht="17" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>208</v>
       </c>
@@ -4819,12 +4892,13 @@
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="4">
-        <v>2</v>
-      </c>
-      <c r="T41" s="9"/>
-    </row>
-    <row r="42" spans="1:20" ht="17" customHeight="1">
+      <c r="R41" s="4"/>
+      <c r="S41" s="4">
+        <v>2</v>
+      </c>
+      <c r="U41" s="9"/>
+    </row>
+    <row r="42" spans="1:21" ht="17" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>208</v>
       </c>
@@ -4872,12 +4946,13 @@
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
-      <c r="R42" s="4">
-        <v>2</v>
-      </c>
-      <c r="T42" s="9"/>
-    </row>
-    <row r="43" spans="1:20" ht="17" customHeight="1">
+      <c r="R42" s="4"/>
+      <c r="S42" s="4">
+        <v>2</v>
+      </c>
+      <c r="U42" s="9"/>
+    </row>
+    <row r="43" spans="1:21" ht="17" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>208</v>
       </c>
@@ -4925,11 +5000,12 @@
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="17" customHeight="1">
+      <c r="R43" s="4"/>
+      <c r="S43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="17" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>208</v>
       </c>
@@ -4977,12 +5053,13 @@
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" s="14" customFormat="1" ht="17" customHeight="1"/>
-    <row r="46" spans="1:20" ht="17" customHeight="1">
+      <c r="R44" s="4"/>
+      <c r="S44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="14" customFormat="1" ht="17" customHeight="1"/>
+    <row r="46" spans="1:21" ht="17" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>210</v>
       </c>
@@ -5034,11 +5111,12 @@
       <c r="Q46" s="23">
         <v>42185</v>
       </c>
-      <c r="R46" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="17" customHeight="1">
+      <c r="R46" s="23"/>
+      <c r="S46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="17" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>210</v>
       </c>
@@ -5090,15 +5168,16 @@
       <c r="Q47" s="23">
         <v>42185</v>
       </c>
-      <c r="R47" s="4">
-        <v>2</v>
-      </c>
-      <c r="T47" s="19" t="s">
+      <c r="R47" s="23"/>
+      <c r="S47" s="4">
+        <v>2</v>
+      </c>
+      <c r="U47" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="14" customFormat="1" ht="17" customHeight="1"/>
-    <row r="49" spans="1:18" ht="17" customHeight="1">
+    <row r="48" spans="1:21" s="14" customFormat="1" ht="17" customHeight="1"/>
+    <row r="49" spans="1:19" ht="17" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>211</v>
       </c>
@@ -5148,11 +5227,12 @@
         <v>42369</v>
       </c>
       <c r="Q49" s="4"/>
-      <c r="R49" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="17" customHeight="1">
+      <c r="R49" s="4"/>
+      <c r="S49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="17" customHeight="1">
       <c r="A50" s="10" t="s">
         <v>211</v>
       </c>
@@ -5202,11 +5282,12 @@
         <v>42369</v>
       </c>
       <c r="Q50" s="4"/>
-      <c r="R50" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="17" customHeight="1">
+      <c r="R50" s="4"/>
+      <c r="S50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="17" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>211</v>
       </c>
@@ -5256,11 +5337,12 @@
         <v>42369</v>
       </c>
       <c r="Q51" s="4"/>
-      <c r="R51" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="17" customHeight="1">
+      <c r="R51" s="4"/>
+      <c r="S51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="17" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>211</v>
       </c>
@@ -5310,11 +5392,12 @@
         <v>42369</v>
       </c>
       <c r="Q52" s="4"/>
-      <c r="R52" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="17" customHeight="1">
+      <c r="R52" s="4"/>
+      <c r="S52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="17" customHeight="1">
       <c r="A53" s="10" t="s">
         <v>211</v>
       </c>
@@ -5364,11 +5447,12 @@
         <v>42369</v>
       </c>
       <c r="Q53" s="4"/>
-      <c r="R53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="17" customHeight="1">
+      <c r="R53" s="4"/>
+      <c r="S53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="17" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>211</v>
       </c>
@@ -5418,11 +5502,12 @@
         <v>42369</v>
       </c>
       <c r="Q54" s="4"/>
-      <c r="R54" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="17" customHeight="1">
+      <c r="R54" s="4"/>
+      <c r="S54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="17" customHeight="1">
       <c r="A55" s="10" t="s">
         <v>211</v>
       </c>
@@ -5470,11 +5555,12 @@
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
-      <c r="R55" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="17" customHeight="1">
+      <c r="R55" s="4"/>
+      <c r="S55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="17" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>211</v>
       </c>
@@ -5524,11 +5610,12 @@
         <v>42369</v>
       </c>
       <c r="Q56" s="4"/>
-      <c r="R56" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="17" customHeight="1">
+      <c r="R56" s="4"/>
+      <c r="S56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="17" customHeight="1">
       <c r="A57" s="10" t="s">
         <v>211</v>
       </c>
@@ -5578,11 +5665,12 @@
         <v>42369</v>
       </c>
       <c r="Q57" s="4"/>
-      <c r="R57" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="17" customHeight="1">
+      <c r="R57" s="4"/>
+      <c r="S57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="17" customHeight="1">
       <c r="A58" s="10" t="s">
         <v>211</v>
       </c>
@@ -5632,11 +5720,12 @@
         <v>42369</v>
       </c>
       <c r="Q58" s="4"/>
-      <c r="R58" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="17" customHeight="1">
+      <c r="R58" s="4"/>
+      <c r="S58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="17" customHeight="1">
       <c r="A59" s="10" t="s">
         <v>211</v>
       </c>
@@ -5686,11 +5775,12 @@
         <v>42369</v>
       </c>
       <c r="Q59" s="4"/>
-      <c r="R59" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="17" customHeight="1">
+      <c r="R59" s="4"/>
+      <c r="S59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="17" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>211</v>
       </c>
@@ -5740,11 +5830,12 @@
         <v>42369</v>
       </c>
       <c r="Q60" s="4"/>
-      <c r="R60" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="17" customHeight="1">
+      <c r="R60" s="4"/>
+      <c r="S60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="17" customHeight="1">
       <c r="A61" s="10" t="s">
         <v>211</v>
       </c>
@@ -5794,12 +5885,13 @@
         <v>42369</v>
       </c>
       <c r="Q61" s="4"/>
-      <c r="R61" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="14" customFormat="1" ht="17" customHeight="1"/>
-    <row r="63" spans="1:18" ht="17" customHeight="1">
+      <c r="R61" s="4"/>
+      <c r="S61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="14" customFormat="1" ht="17" customHeight="1"/>
+    <row r="63" spans="1:19" ht="17" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>215</v>
       </c>
@@ -5851,11 +5943,12 @@
       <c r="Q63" s="23">
         <v>42277</v>
       </c>
-      <c r="R63" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="17" customHeight="1">
+      <c r="R63" s="23"/>
+      <c r="S63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="17" customHeight="1">
       <c r="A64" s="10" t="s">
         <v>215</v>
       </c>
@@ -5907,11 +6000,12 @@
       <c r="Q64" s="23">
         <v>42459</v>
       </c>
-      <c r="R64" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" s="25" customFormat="1" ht="17" customHeight="1">
+      <c r="R64" s="23"/>
+      <c r="S64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" s="25" customFormat="1" ht="17" customHeight="1">
       <c r="A65" s="26" t="s">
         <v>264</v>
       </c>
@@ -5934,33 +6028,34 @@
       <c r="R65" s="27"/>
       <c r="S65" s="27"/>
       <c r="T65" s="27"/>
-      <c r="U65" s="28"/>
-    </row>
-    <row r="66" spans="1:21" ht="17" customHeight="1">
+      <c r="U65" s="27"/>
+      <c r="V65" s="28"/>
+    </row>
+    <row r="66" spans="1:22" ht="17" customHeight="1">
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="17" customHeight="1">
+    <row r="67" spans="1:22" ht="17" customHeight="1">
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="17" customHeight="1">
+    <row r="68" spans="1:22" ht="17" customHeight="1">
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="17" customHeight="1">
+    <row r="69" spans="1:22" ht="17" customHeight="1">
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="17" customHeight="1">
+    <row r="70" spans="1:22" ht="17" customHeight="1">
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -5968,8 +6063,15 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A65:U65"/>
+    <mergeCell ref="A65:V65"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="R28" r:id="rId1"/>
+    <hyperlink ref="R29" r:id="rId2"/>
+    <hyperlink ref="R27" r:id="rId3"/>
+    <hyperlink ref="R25" r:id="rId4"/>
+    <hyperlink ref="R26" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1340" yWindow="60" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="689">
   <si>
     <t>center</t>
   </si>
@@ -654,9 +654,6 @@
     <t>Broad-Jaffe</t>
   </si>
   <si>
-    <t>UCIrvine-Thompson</t>
-  </si>
-  <si>
     <t>Epigenomics-Baseline ATAC-Seq for control and disease iPSC lines</t>
   </si>
   <si>
@@ -832,13 +829,1270 @@
   </si>
   <si>
     <t>release-link</t>
+  </si>
+  <si>
+    <t>NeuroLINCS-Thompson</t>
+  </si>
+  <si>
+    <t>Moerke 2 Color Apoptosis</t>
+  </si>
+  <si>
+    <t>Moerke 3 Color Apoptosis</t>
+  </si>
+  <si>
+    <t>Tang Apoptosis mitosis Cell Cycle State Assay</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (3 compound doses) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (3 compound doses) -- DNA Staining (2nd)</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 8 uM to 0.03125 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 5.12 uM to 0.02 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 2.56 uM to 0.01 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 1.024 uM to 0.004 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 0.512 uM to 0.002 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 8 nM to 0.03125 nM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 64 nM to 0.25 nM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 10.24 uM to 0.04 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 16 uM to 0.0625 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 32 uM to 0.125 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>Sorafenib KINOMEscan</t>
+  </si>
+  <si>
+    <t>HG-6-64-1 KINOMEscan</t>
+  </si>
+  <si>
+    <t>GW-5074 KINOMEscan</t>
+  </si>
+  <si>
+    <t>SB590885 KINOMEscan</t>
+  </si>
+  <si>
+    <t>PLX-4720 KINOMEscan</t>
+  </si>
+  <si>
+    <t>AZ-628 KINOMEscan</t>
+  </si>
+  <si>
+    <t>PLX-4032 KINOMEscan</t>
+  </si>
+  <si>
+    <t>AZD7762 KINOMEscan</t>
+  </si>
+  <si>
+    <t>CP466722 KINOMEscan</t>
+  </si>
+  <si>
+    <t>CP724714 KINOMEscan</t>
+  </si>
+  <si>
+    <t>GSK429286A KINOMEscan</t>
+  </si>
+  <si>
+    <t>GSK461364 KINOMEscan</t>
+  </si>
+  <si>
+    <t>GW843682 KINOMEscan</t>
+  </si>
+  <si>
+    <t>PF02341066 KINOMEscan</t>
+  </si>
+  <si>
+    <t>BMS345541 KINOMEscan</t>
+  </si>
+  <si>
+    <t>AS601245 KINOMEscan</t>
+  </si>
+  <si>
+    <t>WH-4-023 KINOMEscan</t>
+  </si>
+  <si>
+    <t>BX-912 KINOMEscan</t>
+  </si>
+  <si>
+    <t>AZD-6482 KINOMEscan</t>
+  </si>
+  <si>
+    <t>TAK-715 KINOMEscan</t>
+  </si>
+  <si>
+    <t>NU7441 KINOMEscan</t>
+  </si>
+  <si>
+    <t>KIN001-220 KINOMEscan</t>
+  </si>
+  <si>
+    <t>MLN8054 KINOMEscan</t>
+  </si>
+  <si>
+    <t>AZD1152-HQPA KINOMEscan</t>
+  </si>
+  <si>
+    <t>PD0332991 KINOMEscan</t>
+  </si>
+  <si>
+    <t>THZ-2-98-01 KINOMEscan</t>
+  </si>
+  <si>
+    <t>JWE-035 KINOMEscan</t>
+  </si>
+  <si>
+    <t>ZM-447439 KINOMEscan</t>
+  </si>
+  <si>
+    <t>JNK-9L KINOMEscan</t>
+  </si>
+  <si>
+    <t>ALW-II-38-3 KINOMEscan</t>
+  </si>
+  <si>
+    <t>ALW-II-49-7 KINOMEscan</t>
+  </si>
+  <si>
+    <t>HG-5-113-01 KINOMEscan</t>
+  </si>
+  <si>
+    <t>HG-5-88-01 KINOMEscan</t>
+  </si>
+  <si>
+    <t>HKI-272 KINOMEscan</t>
+  </si>
+  <si>
+    <t>CGP60474 KINOMEscan</t>
+  </si>
+  <si>
+    <t>PD173074 KINOMEscan</t>
+  </si>
+  <si>
+    <t>WH-4-025 KINOMEscan</t>
+  </si>
+  <si>
+    <t>BI-2536 KINOMEscan</t>
+  </si>
+  <si>
+    <t>KIN001-127 KINOMEscan</t>
+  </si>
+  <si>
+    <t>A443654 KINOMEscan</t>
+  </si>
+  <si>
+    <t>GDC-0941 KINOMEscan</t>
+  </si>
+  <si>
+    <t>NPK76-II-72-1 KINOMEscan</t>
+  </si>
+  <si>
+    <t>QL-X-138 KINOMEscan</t>
+  </si>
+  <si>
+    <t>QL-XI-92 KINOMEscan</t>
+  </si>
+  <si>
+    <t>Torin1 KINOMEscan</t>
+  </si>
+  <si>
+    <t>Torin2 KINOMEscan</t>
+  </si>
+  <si>
+    <t>WZ-4-145 KINOMEscan</t>
+  </si>
+  <si>
+    <t>WZ-7043 KINOMEscan</t>
+  </si>
+  <si>
+    <t>WZ3105 KINOMEscan</t>
+  </si>
+  <si>
+    <t>WZ4002 KINOMEscan</t>
+  </si>
+  <si>
+    <t>XMD11-50 KINOMEscan</t>
+  </si>
+  <si>
+    <t>XMD11-85h KINOMEscan</t>
+  </si>
+  <si>
+    <t>XMD13-2 KINOMEscan</t>
+  </si>
+  <si>
+    <t>XMD14-99 KINOMEscan</t>
+  </si>
+  <si>
+    <t>XMD15-27 KINOMEscan</t>
+  </si>
+  <si>
+    <t>XMD16-144 KINOMEscan</t>
+  </si>
+  <si>
+    <t>XMD8-85 KINOMEscan</t>
+  </si>
+  <si>
+    <t>XMD8-92 KINOMEscan</t>
+  </si>
+  <si>
+    <t>ZG-10 KINOMEscan</t>
+  </si>
+  <si>
+    <t>WYE-125132 KINOMEscan</t>
+  </si>
+  <si>
+    <t>PD0325901 KINOMEscan</t>
+  </si>
+  <si>
+    <t>JNK-IN-5A KINOMEscan</t>
+  </si>
+  <si>
+    <t>CYT387 KINOMEscan</t>
+  </si>
+  <si>
+    <t>Sigma A6730 KINOMEscan</t>
+  </si>
+  <si>
+    <t>GSK2126458 KINOMEscan</t>
+  </si>
+  <si>
+    <t>GSK1059615 KINOMEscan</t>
+  </si>
+  <si>
+    <t>AG1478 KINOMEscan</t>
+  </si>
+  <si>
+    <t>Sorafenib KiNativ -- dose response experiment</t>
+  </si>
+  <si>
+    <t>GW-5074 KiNativ -- dose response experiment</t>
+  </si>
+  <si>
+    <t>SB590885 KiNativ -- dose response experiment</t>
+  </si>
+  <si>
+    <t>PLX-4720 KiNativ -- dose response experiment</t>
+  </si>
+  <si>
+    <t>AZ-628 KiNativ -- dose response experiment</t>
+  </si>
+  <si>
+    <t>PLX4032 KiNativ -- dose response experiment</t>
+  </si>
+  <si>
+    <t>HG-6-64-01 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>Torin1 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>Torin2 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>BEZ235 KINOMEscan</t>
+  </si>
+  <si>
+    <t>XMD11-50 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>XMD11-85h KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>XMD16-144 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>JWE-035 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>XMD8-85 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>XMD8-92 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>XMD-12 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>NVP-BHG712 KiNativ -- multiple dose experiment</t>
+  </si>
+  <si>
+    <t>CH5424802 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>NPK76-II-72-1 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>Lapatinib KINOMEscan</t>
+  </si>
+  <si>
+    <t>JW-7-24-1 KINOMEscan</t>
+  </si>
+  <si>
+    <t>NVP-TAE684 KINOMEscan</t>
+  </si>
+  <si>
+    <t>R406 KINOMEscan</t>
+  </si>
+  <si>
+    <t>SP600125 KINOMEscan</t>
+  </si>
+  <si>
+    <t>BMS-536924 KINOMEscan</t>
+  </si>
+  <si>
+    <t>A770041 KINOMEscan</t>
+  </si>
+  <si>
+    <t>CG-930 KINOMEscan</t>
+  </si>
+  <si>
+    <t>XMD-12 KINOMEscan</t>
+  </si>
+  <si>
+    <t>Bosutinib KINOMEscan</t>
+  </si>
+  <si>
+    <t>KU63794 KINOMEscan</t>
+  </si>
+  <si>
+    <t>CI-1033 KINOMEscan</t>
+  </si>
+  <si>
+    <t>WZ-1-84 KINOMEscan</t>
+  </si>
+  <si>
+    <t>High-throughput Secretomic Analysis of Single Cells</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>Roscovitine KINOMEscan</t>
+  </si>
+  <si>
+    <t>PHA-793887 KINOMEscan</t>
+  </si>
+  <si>
+    <t>PHA-767491 KINOMEscan</t>
+  </si>
+  <si>
+    <t>BS-181 KINOMEscan</t>
+  </si>
+  <si>
+    <t>Dinaciclib KINOMEscan</t>
+  </si>
+  <si>
+    <t>AZD4547 KINOMEscan</t>
+  </si>
+  <si>
+    <t>OTSSP167 KINOMEscan</t>
+  </si>
+  <si>
+    <t>Dabrafenib KINOMEscan</t>
+  </si>
+  <si>
+    <t>HG-9-91-01 KINOMEscan</t>
+  </si>
+  <si>
+    <t>HG-14-8-02 KINOMEscan</t>
+  </si>
+  <si>
+    <t>HG-14-10-04 KINOMEscan</t>
+  </si>
+  <si>
+    <t>AZD 5438 KINOMEscan</t>
+  </si>
+  <si>
+    <t>Cell viability assay</t>
+  </si>
+  <si>
+    <t>Cell signaling response assay</t>
+  </si>
+  <si>
+    <t>BMS-345541 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>AC220 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>R406 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>BI-2536 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>AMG-706 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>BIRB-796 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>GDC-0941 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>CI-1040 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>PLX-4720 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Lapatinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>AZD-6244 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>MLN-8054 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>AZD-1152HQPA KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>LY-317615 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Erlotinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Gefitinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Nilotinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Pazopanib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>CI-1033 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>SGX-523 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>PHA-665752 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>PI-103 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>TKI-258 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>GSK-690693 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Masitinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>BMS-387032 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>BIBW-2992 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>INCB018424 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>TG-101348 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>BIBF-1120 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>XL880 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>SB-203580 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>VX-745 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Sunitinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Brivanib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>GDC-0879 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>ABT-869 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Ki-20227 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Bosutinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>KW-2449 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Vandetanib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>PKC-412 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>CP-690550 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Lestaurtinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>GSK-1838705A KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>AT-7519 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Sorafenib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Flavopiridol KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>GSK461364 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>HKI-272 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Dasatinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>VX-680 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Imatinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>NVP-TAE684 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>Crizotinib KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>RAF 265 KINOMEscan: Data published in Davis, et al. (2011) Nat. Biotechnol. PMID: 22037378</t>
+  </si>
+  <si>
+    <t>RO-3306 KINOMEscan</t>
+  </si>
+  <si>
+    <t>CGP74514A KINOMEscan</t>
+  </si>
+  <si>
+    <t>QL-X-138 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>PCI-32765 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>BX795 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>OTSSP167 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>DCC-2036 KiNativ -- single dose experiment</t>
+  </si>
+  <si>
+    <t>5z-7-oxozeaenol KINOMEscan</t>
+  </si>
+  <si>
+    <t>L1000 gene expression profiling assay -Golub -Small Molecules</t>
+  </si>
+  <si>
+    <t>Broad-Schreiber</t>
+  </si>
+  <si>
+    <t>L1000 gene expression profiling assay -Schreiber -Small Molecules</t>
+  </si>
+  <si>
+    <t>L1000 gene expression profiling assay -Golub -cDNA</t>
+  </si>
+  <si>
+    <t>L1000 gene expression profiling assay -Golub -shRNA</t>
+  </si>
+  <si>
+    <t>Multiplex cytological profiling assay -Schreiber -Small Molecules</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>P100 Phosphosite Profiling Assay</t>
+  </si>
+  <si>
+    <t>Live-cell imaging: Single cell ERK response to ErbB  inhibitors</t>
+  </si>
+  <si>
+    <t>Deep Proteomics Dataset 1</t>
+  </si>
+  <si>
+    <t>Liver CSR Dataset 1</t>
+  </si>
+  <si>
+    <t>HMS-Sorger-Yale</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20001/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20002/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20003/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20004/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20006/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20007/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20008/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20009/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20010/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20011/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20012/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20013/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20014/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20015/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20016/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20017/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20020/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20021/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20022/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20023/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20024/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20025/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20026/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20027/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20028/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20029/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20030/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20031/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20032/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20033/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20034/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20035/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20036/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20037/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20038/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20039/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20040/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20041/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20042/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20043/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20044/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20045/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20046/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20047/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20048/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20049/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20050/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20051/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20052/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20053/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20054/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20055/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20056/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20057/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20058/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20059/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20060/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20061/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20062/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20063/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20064/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20065/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20066/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20067/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20068/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20069/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20070/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20071/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20072/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20073/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20074/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20075/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20076/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20077/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20078/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20079/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20080/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20081/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20082/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20083/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20084/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20085/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20086/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20087/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20088/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20089/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20090/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20091/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20092/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20093/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20094/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20095/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20096/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20097/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20098/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20099/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20100/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20101/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20102/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20103/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20104/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20105/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20106/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20107/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20108/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20109/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20110/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20111/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20112/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20113/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20114/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20115/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20116/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20117/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20118/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20119/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20121/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20122/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20123/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20124/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20125/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20126/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20127/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20128/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20129/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20130/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20131/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20132/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20133/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20134/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20135/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20136/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20120/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20137/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20138/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20139/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20140/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20146/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20147/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20148/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20149/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20150/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20151/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20152/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20153/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20154/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20155/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20156/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20157/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20158/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20159/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20160/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20161/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20162/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20163/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20164/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20165/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20166/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20167/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20168/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20169/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20170/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20171/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20172/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20173/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20174/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20175/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20176/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20177/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20178/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20179/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20180/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20181/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20182/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20183/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20184/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20185/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20186/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20187/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20188/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20189/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20190/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20191/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20192/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20193/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20194/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20195/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20196/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20197/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20198/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20199/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20200/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20201/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20202/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20203/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20204/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20206/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20207/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20209/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20210/</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20211/</t>
+  </si>
+  <si>
+    <t>Apoptosis Assay</t>
+  </si>
+  <si>
+    <t>Cell Cycle State Assay</t>
+  </si>
+  <si>
+    <t>Cell Growth Inhibition Assay</t>
+  </si>
+  <si>
+    <t>KINOMEscan assay</t>
+  </si>
+  <si>
+    <t>KiNativ assay</t>
+  </si>
+  <si>
+    <t>Single cell protein secretion profiling assay</t>
+  </si>
+  <si>
+    <t>L1000 gene expression profiling assay</t>
+  </si>
+  <si>
+    <t>Multiplex cytological profiling assay</t>
+  </si>
+  <si>
+    <t>Dynamic ERK signaling single cell imaging assay</t>
+  </si>
+  <si>
+    <t>Proteomics cell state profiling assay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -908,6 +2162,11 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1013,7 +2272,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="651">
+  <cellStyleXfs count="653">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1665,8 +2924,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1717,6 +2978,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="649"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1726,9 +2988,11 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="649"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="651">
+  <cellStyles count="653">
     <cellStyle name="Bad" xfId="43" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2053,6 +3317,8 @@
     <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2716,10 +3982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:V65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -2739,7 +4005,7 @@
     <col min="13" max="13" width="10.6640625" style="10" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="43.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="50" style="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.6640625" style="10" customWidth="1"/>
     <col min="21" max="21" width="104.83203125" style="10" customWidth="1"/>
@@ -2800,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U1" s="5"/>
       <c r="V1" s="2"/>
@@ -2813,10 +4079,10 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
@@ -2877,7 +4143,7 @@
     </row>
     <row r="4" spans="1:22" ht="17" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>23</v>
@@ -2886,10 +4152,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>29</v>
@@ -2933,7 +4199,7 @@
     </row>
     <row r="5" spans="1:22" ht="17" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>24</v>
@@ -2942,10 +4208,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>29</v>
@@ -2989,7 +4255,7 @@
     </row>
     <row r="6" spans="1:22" ht="17" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>25</v>
@@ -2998,10 +4264,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>29</v>
@@ -3045,7 +4311,7 @@
     </row>
     <row r="7" spans="1:22" ht="17" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -3054,10 +4320,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>29</v>
@@ -3101,7 +4367,7 @@
     </row>
     <row r="8" spans="1:22" ht="17" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -3110,10 +4376,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>29</v>
@@ -3157,7 +4423,7 @@
     </row>
     <row r="9" spans="1:22" ht="17" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -3166,10 +4432,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>29</v>
@@ -3213,7 +4479,7 @@
     </row>
     <row r="10" spans="1:22" ht="17" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -3222,10 +4488,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>29</v>
@@ -3269,7 +4535,7 @@
     </row>
     <row r="11" spans="1:22" ht="17" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -3278,10 +4544,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>29</v>
@@ -3325,7 +4591,7 @@
     </row>
     <row r="12" spans="1:22" ht="17" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -3334,10 +4600,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>29</v>
@@ -3381,7 +4647,7 @@
     </row>
     <row r="13" spans="1:22" ht="17" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -3393,7 +4659,7 @@
         <v>142</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>29</v>
@@ -3437,7 +4703,7 @@
     </row>
     <row r="14" spans="1:22" ht="17" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -3449,7 +4715,7 @@
         <v>142</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>29</v>
@@ -3493,7 +4759,7 @@
     </row>
     <row r="15" spans="1:22" ht="17" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -3505,7 +4771,7 @@
         <v>142</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>29</v>
@@ -3549,7 +4815,7 @@
     </row>
     <row r="16" spans="1:22" ht="17" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -3558,10 +4824,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>29</v>
@@ -3605,7 +4871,7 @@
     </row>
     <row r="17" spans="1:21" ht="17" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -3614,10 +4880,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>29</v>
@@ -3661,7 +4927,7 @@
     </row>
     <row r="18" spans="1:21" ht="17" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -3670,10 +4936,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>29</v>
@@ -3727,10 +4993,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>8</v>
@@ -3751,7 +5017,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M20" s="16"/>
       <c r="N20" s="23">
@@ -3783,10 +5049,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>8</v>
@@ -3807,7 +5073,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="23">
@@ -3839,10 +5105,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>60</v>
@@ -3863,7 +5129,7 @@
         <v>3</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="23">
@@ -3895,10 +5161,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>60</v>
@@ -3919,7 +5185,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="23">
@@ -3952,10 +5218,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>59</v>
@@ -3989,8 +5255,8 @@
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="29" t="s">
-        <v>265</v>
+      <c r="R25" s="26" t="s">
+        <v>264</v>
       </c>
       <c r="S25" s="4">
         <v>2</v>
@@ -4008,10 +5274,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>59</v>
@@ -4032,7 +5298,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M26" s="12">
         <v>1</v>
@@ -4043,8 +5309,8 @@
         <v>42004</v>
       </c>
       <c r="Q26" s="4"/>
-      <c r="R26" s="29" t="s">
-        <v>266</v>
+      <c r="R26" s="26" t="s">
+        <v>265</v>
       </c>
       <c r="S26" s="4">
         <v>2</v>
@@ -4062,10 +5328,10 @@
         <v>42</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>43</v>
@@ -4103,8 +5369,8 @@
       <c r="Q27" s="23">
         <v>42094</v>
       </c>
-      <c r="R27" s="29" t="s">
-        <v>267</v>
+      <c r="R27" s="26" t="s">
+        <v>266</v>
       </c>
       <c r="S27" s="4">
         <v>2</v>
@@ -4122,10 +5388,10 @@
         <v>143</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>43</v>
@@ -4146,7 +5412,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M28" s="9">
         <v>21</v>
@@ -4163,8 +5429,8 @@
       <c r="Q28" s="23">
         <v>42094</v>
       </c>
-      <c r="R28" s="29" t="s">
-        <v>268</v>
+      <c r="R28" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="S28" s="4">
         <v>2</v>
@@ -4182,10 +5448,10 @@
         <v>144</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>44</v>
@@ -4223,8 +5489,8 @@
       <c r="Q29" s="23">
         <v>42094</v>
       </c>
-      <c r="R29" s="29" t="s">
-        <v>269</v>
+      <c r="R29" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="S29" s="4">
         <v>2</v>
@@ -4242,10 +5508,10 @@
         <v>58</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>59</v>
@@ -4296,10 +5562,10 @@
         <v>61</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>59</v>
@@ -4320,7 +5586,7 @@
         <v>16</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M31" s="9">
         <v>1</v>
@@ -4344,16 +5610,16 @@
         <v>208</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>69</v>
@@ -4374,7 +5640,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M32" s="9">
         <v>1</v>
@@ -4400,16 +5666,16 @@
         <v>208</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>69</v>
@@ -4513,22 +5779,22 @@
         <v>208</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>78</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>92</v>
@@ -4543,7 +5809,7 @@
         <v>16</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M35" s="10">
         <v>1</v>
@@ -4573,10 +5839,10 @@
         <v>70</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>69</v>
@@ -4600,7 +5866,7 @@
         <v>169</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N36" s="23">
         <v>42185</v>
@@ -4621,16 +5887,16 @@
         <v>208</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>69</v>
@@ -4654,7 +5920,7 @@
         <v>169</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N37" s="23">
         <v>42277</v>
@@ -4684,7 +5950,7 @@
         <v>55</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>56</v>
@@ -4742,7 +6008,7 @@
         <v>81</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>96</v>
@@ -4800,7 +6066,7 @@
         <v>84</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>97</v>
@@ -4855,10 +6121,10 @@
         <v>101</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>103</v>
@@ -4879,7 +6145,7 @@
         <v>16</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>72</v>
@@ -4909,10 +6175,10 @@
         <v>146</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>103</v>
@@ -4963,10 +6229,10 @@
         <v>102</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>104</v>
@@ -4987,7 +6253,7 @@
         <v>16</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M43" s="10" t="s">
         <v>72</v>
@@ -5016,16 +6282,16 @@
         <v>110</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>22</v>
@@ -5070,10 +6336,10 @@
         <v>114</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>117</v>
@@ -5127,10 +6393,10 @@
         <v>115</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>117</v>
@@ -5179,7 +6445,7 @@
     <row r="48" spans="1:21" s="14" customFormat="1" ht="17" customHeight="1"/>
     <row r="49" spans="1:19" ht="17" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>120</v>
@@ -5188,10 +6454,10 @@
         <v>126</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>130</v>
@@ -5234,7 +6500,7 @@
     </row>
     <row r="50" spans="1:19" ht="17" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>121</v>
@@ -5243,10 +6509,10 @@
         <v>145</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>148</v>
@@ -5289,7 +6555,7 @@
     </row>
     <row r="51" spans="1:19" ht="17" customHeight="1">
       <c r="A51" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>122</v>
@@ -5298,10 +6564,10 @@
         <v>147</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>149</v>
@@ -5344,7 +6610,7 @@
     </row>
     <row r="52" spans="1:19" ht="17" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>123</v>
@@ -5356,7 +6622,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>130</v>
@@ -5399,7 +6665,7 @@
     </row>
     <row r="53" spans="1:19" ht="17" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>124</v>
@@ -5408,10 +6674,10 @@
         <v>128</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>130</v>
@@ -5454,7 +6720,7 @@
     </row>
     <row r="54" spans="1:19" ht="17" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>125</v>
@@ -5463,7 +6729,7 @@
         <v>129</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>22</v>
@@ -5509,7 +6775,7 @@
     </row>
     <row r="55" spans="1:19" ht="17" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>151</v>
@@ -5518,10 +6784,10 @@
         <v>150</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>130</v>
@@ -5562,7 +6828,7 @@
     </row>
     <row r="56" spans="1:19" ht="17" customHeight="1">
       <c r="A56" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>155</v>
@@ -5571,10 +6837,10 @@
         <v>153</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>130</v>
@@ -5617,7 +6883,7 @@
     </row>
     <row r="57" spans="1:19" ht="17" customHeight="1">
       <c r="A57" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>156</v>
@@ -5626,10 +6892,10 @@
         <v>152</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>130</v>
@@ -5672,7 +6938,7 @@
     </row>
     <row r="58" spans="1:19" ht="17" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>154</v>
@@ -5681,10 +6947,10 @@
         <v>157</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>161</v>
@@ -5727,19 +6993,19 @@
     </row>
     <row r="59" spans="1:19" ht="17" customHeight="1">
       <c r="A59" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>158</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>130</v>
@@ -5782,19 +7048,19 @@
     </row>
     <row r="60" spans="1:19" ht="17" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>130</v>
@@ -5837,19 +7103,19 @@
     </row>
     <row r="61" spans="1:19" ht="17" customHeight="1">
       <c r="A61" s="10" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>160</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>130</v>
@@ -5893,7 +7159,7 @@
     <row r="62" spans="1:19" s="14" customFormat="1" ht="17" customHeight="1"/>
     <row r="63" spans="1:19" ht="17" customHeight="1">
       <c r="A63" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>140</v>
@@ -5902,10 +7168,10 @@
         <v>139</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>141</v>
@@ -5950,7 +7216,7 @@
     </row>
     <row r="64" spans="1:19" ht="17" customHeight="1">
       <c r="A64" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>140</v>
@@ -5959,10 +7225,10 @@
         <v>139</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>141</v>
@@ -6006,60 +7272,3015 @@
       </c>
     </row>
     <row r="65" spans="1:22" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A65" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="28"/>
+      <c r="A65" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="29"/>
     </row>
     <row r="66" spans="1:22" ht="17" customHeight="1">
+      <c r="A66" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
+      <c r="Q66" s="32" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="67" spans="1:22" ht="17" customHeight="1">
+      <c r="A67" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
+      <c r="Q67" s="32" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="68" spans="1:22" ht="17" customHeight="1">
+      <c r="A68" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
+      <c r="Q68" s="32" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="69" spans="1:22" ht="17" customHeight="1">
+      <c r="A69" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
+      <c r="Q69" s="32" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="70" spans="1:22" ht="17" customHeight="1">
+      <c r="A70" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
+      <c r="Q70" s="32" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="17" customHeight="1">
+      <c r="A71" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q71" s="32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="17" customHeight="1">
+      <c r="A72" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q72" s="32" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="17" customHeight="1">
+      <c r="A73" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q73" s="32" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="17" customHeight="1">
+      <c r="A74" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q74" s="32" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="17" customHeight="1">
+      <c r="A75" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q75" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="17" customHeight="1">
+      <c r="A76" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q76" s="32" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="17" customHeight="1">
+      <c r="A77" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q77" s="32" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="17" customHeight="1">
+      <c r="A78" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q78" s="32" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="17" customHeight="1">
+      <c r="A79" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q79" s="32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="17" customHeight="1">
+      <c r="A80" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q80" s="32" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="17" customHeight="1">
+      <c r="A81" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q81" s="32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="17" customHeight="1">
+      <c r="A82" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q82" s="32" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="17" customHeight="1">
+      <c r="A83" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q83" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="17" customHeight="1">
+      <c r="A84" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q84" s="32" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="17" customHeight="1">
+      <c r="A85" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q85" s="32" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="17" customHeight="1">
+      <c r="A86" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q86" s="32" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="17" customHeight="1">
+      <c r="A87" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q87" s="32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="17" customHeight="1">
+      <c r="A88" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q88" s="32" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="17" customHeight="1">
+      <c r="A89" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q89" s="32" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="17" customHeight="1">
+      <c r="A90" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q90" s="32" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="17" customHeight="1">
+      <c r="A91" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q91" s="32" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="17" customHeight="1">
+      <c r="A92" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q92" s="32" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="17" customHeight="1">
+      <c r="A93" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q93" s="32" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="17" customHeight="1">
+      <c r="A94" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q94" s="32" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="17" customHeight="1">
+      <c r="A95" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q95" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="17" customHeight="1">
+      <c r="A96" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q96" s="32" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="17" customHeight="1">
+      <c r="A97" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q97" s="32" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="17" customHeight="1">
+      <c r="A98" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q98" s="32" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="17" customHeight="1">
+      <c r="A99" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q99" s="32" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="17" customHeight="1">
+      <c r="A100" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q100" s="32" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="17" customHeight="1">
+      <c r="A101" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q101" s="32" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="17" customHeight="1">
+      <c r="A102" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q102" s="32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="17" customHeight="1">
+      <c r="A103" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q103" s="32" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="17" customHeight="1">
+      <c r="A104" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q104" s="32" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="17" customHeight="1">
+      <c r="A105" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q105" s="32" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="17" customHeight="1">
+      <c r="A106" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q106" s="32" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="17" customHeight="1">
+      <c r="A107" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q107" s="32" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="17" customHeight="1">
+      <c r="A108" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q108" s="32" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="17" customHeight="1">
+      <c r="A109" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q109" s="32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="17" customHeight="1">
+      <c r="A110" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q110" s="32" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="17" customHeight="1">
+      <c r="A111" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q111" s="32" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="17" customHeight="1">
+      <c r="A112" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q112" s="32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="17" customHeight="1">
+      <c r="A113" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q113" s="32" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="17" customHeight="1">
+      <c r="A114" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q114" s="32" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="17" customHeight="1">
+      <c r="A115" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q115" s="32" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="17" customHeight="1">
+      <c r="A116" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q116" s="32" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="17" customHeight="1">
+      <c r="A117" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q117" s="32" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="17" customHeight="1">
+      <c r="A118" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q118" s="32" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="17" customHeight="1">
+      <c r="A119" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q119" s="32" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="17" customHeight="1">
+      <c r="A120" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q120" s="32" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="17" customHeight="1">
+      <c r="A121" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q121" s="32" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="17" customHeight="1">
+      <c r="A122" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q122" s="32" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="17" customHeight="1">
+      <c r="A123" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q123" s="32" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="17" customHeight="1">
+      <c r="A124" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q124" s="32" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="17" customHeight="1">
+      <c r="A125" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q125" s="32" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="17" customHeight="1">
+      <c r="A126" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q126" s="32" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="17" customHeight="1">
+      <c r="A127" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q127" s="32" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="17" customHeight="1">
+      <c r="A128" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q128" s="32" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="17" customHeight="1">
+      <c r="A129" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q129" s="32" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="17" customHeight="1">
+      <c r="A130" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q130" s="32" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="17" customHeight="1">
+      <c r="A131" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q131" s="32" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="17" customHeight="1">
+      <c r="A132" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B132" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q132" s="32" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="17" customHeight="1">
+      <c r="A133" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q133" s="32" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="17" customHeight="1">
+      <c r="A134" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B134" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q134" s="32" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="17" customHeight="1">
+      <c r="A135" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q135" s="32" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="17" customHeight="1">
+      <c r="A136" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q136" s="32" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="17" customHeight="1">
+      <c r="A137" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q137" s="32" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="17" customHeight="1">
+      <c r="A138" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q138" s="32" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="17" customHeight="1">
+      <c r="A139" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q139" s="32" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="17" customHeight="1">
+      <c r="A140" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q140" s="32" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" ht="17" customHeight="1">
+      <c r="A141" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q141" s="32" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="17" customHeight="1">
+      <c r="A142" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q142" s="32" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="17" customHeight="1">
+      <c r="A143" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q143" s="32" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="17" customHeight="1">
+      <c r="A144" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q144" s="32" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="17" customHeight="1">
+      <c r="A145" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q145" s="32" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" ht="17" customHeight="1">
+      <c r="A146" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q146" s="32" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" ht="17" customHeight="1">
+      <c r="A147" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q147" s="32" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" ht="17" customHeight="1">
+      <c r="A148" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q148" s="32" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" ht="17" customHeight="1">
+      <c r="A149" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q149" s="32" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="17" customHeight="1">
+      <c r="A150" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B150" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q150" s="32" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="17" customHeight="1">
+      <c r="A151" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q151" s="32" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" ht="17" customHeight="1">
+      <c r="A152" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q152" s="32" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" ht="17" customHeight="1">
+      <c r="A153" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B153" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q153" s="32" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="17" customHeight="1">
+      <c r="A154" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q154" s="32" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="17" customHeight="1">
+      <c r="A155" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B155" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q155" s="32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" ht="17" customHeight="1">
+      <c r="A156" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q156" s="32" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" ht="17" customHeight="1">
+      <c r="A157" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q157" s="32" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="17" customHeight="1">
+      <c r="A158" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q158" s="32" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" ht="17" customHeight="1">
+      <c r="A159" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B159" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C159" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q159" s="32" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="17" customHeight="1">
+      <c r="A160" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B160" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q160" s="32" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" ht="17" customHeight="1">
+      <c r="A161" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B161" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C161" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q161" s="32" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" ht="17" customHeight="1">
+      <c r="A162" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B162" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C162" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q162" s="32" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" ht="17" customHeight="1">
+      <c r="A163" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B163" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C163" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q163" s="32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" ht="17" customHeight="1">
+      <c r="A164" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B164" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q164" s="32" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" ht="17" customHeight="1">
+      <c r="A165" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B165" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C165" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q165" s="32" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" ht="17" customHeight="1">
+      <c r="A166" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B166" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q166" s="32" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" ht="17" customHeight="1">
+      <c r="A167" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B167" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C167" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q167" s="32" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="17" customHeight="1">
+      <c r="A168" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B168" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q168" s="32" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" ht="17" customHeight="1">
+      <c r="A169" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B169" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q169" s="32" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="17" customHeight="1">
+      <c r="A170" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B170" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q170" s="32" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" ht="17" customHeight="1">
+      <c r="A171" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B171" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q171" s="32" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" ht="17" customHeight="1">
+      <c r="A172" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B172" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="C172" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q172" s="32" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" ht="17" customHeight="1">
+      <c r="A173" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B173" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q173" s="32" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" ht="17" customHeight="1">
+      <c r="A174" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="C174" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q174" s="32" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" ht="17" customHeight="1">
+      <c r="A175" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B175" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C175" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q175" s="32" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" ht="17" customHeight="1">
+      <c r="A176" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B176" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C176" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q176" s="32" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" ht="17" customHeight="1">
+      <c r="A177" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B177" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="C177" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q177" s="32" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" ht="17" customHeight="1">
+      <c r="A178" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B178" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C178" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q178" s="32" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" ht="17" customHeight="1">
+      <c r="A179" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B179" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C179" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q179" s="32" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="17" customHeight="1">
+      <c r="A180" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B180" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C180" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q180" s="32" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" ht="17" customHeight="1">
+      <c r="A181" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B181" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C181" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q181" s="32" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="17" customHeight="1">
+      <c r="A182" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B182" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q182" s="32" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" ht="17" customHeight="1">
+      <c r="A183" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B183" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C183" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q183" s="32" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="17" customHeight="1">
+      <c r="A184" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B184" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C184" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q184" s="32" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" ht="17" customHeight="1">
+      <c r="A185" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B185" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C185" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q185" s="32"/>
+    </row>
+    <row r="186" spans="1:17" ht="17" customHeight="1">
+      <c r="A186" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B186" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q186" s="32" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" ht="17" customHeight="1">
+      <c r="A187" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B187" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C187" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q187" s="32" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="17" customHeight="1">
+      <c r="A188" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B188" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q188" s="32" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="17" customHeight="1">
+      <c r="A189" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B189" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="C189" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q189" s="32" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" ht="17" customHeight="1">
+      <c r="A190" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B190" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C190" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q190" s="32" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" ht="17" customHeight="1">
+      <c r="A191" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B191" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C191" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q191" s="32" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" ht="17" customHeight="1">
+      <c r="A192" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B192" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="C192" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q192" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="17" customHeight="1">
+      <c r="A193" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B193" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C193" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q193" s="32" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" ht="17" customHeight="1">
+      <c r="A194" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B194" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="C194" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q194" s="32" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" ht="17" customHeight="1">
+      <c r="A195" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B195" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="C195" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q195" s="32" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" ht="17" customHeight="1">
+      <c r="A196" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C196" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q196" s="32" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="17" customHeight="1">
+      <c r="A197" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B197" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C197" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q197" s="32" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" ht="17" customHeight="1">
+      <c r="A198" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B198" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="C198" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q198" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" ht="17" customHeight="1">
+      <c r="A199" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B199" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="C199" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q199" s="32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" ht="17" customHeight="1">
+      <c r="A200" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B200" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C200" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q200" s="32" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" ht="17" customHeight="1">
+      <c r="A201" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B201" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C201" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q201" s="32" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="17" customHeight="1">
+      <c r="A202" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B202" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C202" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q202" s="32" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" ht="17" customHeight="1">
+      <c r="A203" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C203" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q203" s="32" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" ht="17" customHeight="1">
+      <c r="A204" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C204" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q204" s="32" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" ht="17" customHeight="1">
+      <c r="A205" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="C205" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q205" s="32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" ht="17" customHeight="1">
+      <c r="A206" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="C206" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q206" s="32" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" ht="17" customHeight="1">
+      <c r="A207" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C207" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q207" s="32" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" ht="17" customHeight="1">
+      <c r="A208" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C208" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q208" s="32" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" ht="17" customHeight="1">
+      <c r="A209" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C209" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q209" s="32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" ht="17" customHeight="1">
+      <c r="A210" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="C210" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q210" s="32" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" ht="17" customHeight="1">
+      <c r="A211" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="C211" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q211" s="32" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" ht="17" customHeight="1">
+      <c r="A212" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B212" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="C212" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q212" s="32" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" ht="17" customHeight="1">
+      <c r="A213" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B213" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="C213" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q213" s="32" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" ht="17" customHeight="1">
+      <c r="A214" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B214" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="C214" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q214" s="32" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" ht="17" customHeight="1">
+      <c r="A215" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B215" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="C215" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q215" s="32" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" ht="17" customHeight="1">
+      <c r="A216" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B216" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="C216" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q216" s="32" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" ht="17" customHeight="1">
+      <c r="A217" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B217" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="C217" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q217" s="32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" ht="17" customHeight="1">
+      <c r="A218" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B218" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="C218" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q218" s="32" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" ht="17" customHeight="1">
+      <c r="A219" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B219" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="C219" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q219" s="32" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" ht="17" customHeight="1">
+      <c r="A220" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B220" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C220" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q220" s="32" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" ht="17" customHeight="1">
+      <c r="A221" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B221" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="C221" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q221" s="32" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" ht="17" customHeight="1">
+      <c r="A222" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B222" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C222" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q222" s="32" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" ht="17" customHeight="1">
+      <c r="A223" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B223" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C223" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q223" s="32" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" ht="17" customHeight="1">
+      <c r="A224" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B224" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C224" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q224" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" ht="17" customHeight="1">
+      <c r="A225" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B225" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="C225" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q225" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" ht="17" customHeight="1">
+      <c r="A226" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B226" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="C226" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q226" s="32" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" ht="17" customHeight="1">
+      <c r="A227" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B227" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C227" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q227" s="32" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" ht="17" customHeight="1">
+      <c r="A228" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B228" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="C228" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q228" s="32" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" ht="17" customHeight="1">
+      <c r="A229" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B229" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="C229" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q229" s="32" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" ht="17" customHeight="1">
+      <c r="A230" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B230" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="C230" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q230" s="32" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" ht="17" customHeight="1">
+      <c r="A231" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B231" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="C231" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q231" s="32" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" ht="17" customHeight="1">
+      <c r="A232" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B232" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="C232" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q232" s="32" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" ht="17" customHeight="1">
+      <c r="A233" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B233" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="C233" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q233" s="32" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" ht="17" customHeight="1">
+      <c r="A234" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B234" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q234" s="32" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" ht="17" customHeight="1">
+      <c r="A235" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B235" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="C235" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q235" s="32" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" ht="17" customHeight="1">
+      <c r="A236" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B236" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="C236" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q236" s="32" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" ht="17" customHeight="1">
+      <c r="A237" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B237" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="C237" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q237" s="32" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" ht="17" customHeight="1">
+      <c r="A238" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B238" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="C238" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q238" s="32" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" ht="17" customHeight="1">
+      <c r="A239" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B239" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="C239" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q239" s="32" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" ht="17" customHeight="1">
+      <c r="A240" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B240" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="C240" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q240" s="32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" ht="17" customHeight="1">
+      <c r="A241" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B241" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="C241" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q241" s="32" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" ht="17" customHeight="1">
+      <c r="A242" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B242" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="C242" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q242" s="32" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" ht="17" customHeight="1">
+      <c r="A243" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B243" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="C243" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q243" s="32" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" ht="17" customHeight="1">
+      <c r="A244" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B244" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="C244" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q244" s="32" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" ht="17" customHeight="1">
+      <c r="A245" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B245" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="C245" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q245" s="32" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" ht="17" customHeight="1">
+      <c r="A246" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B246" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="C246" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q246" s="32" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" ht="17" customHeight="1">
+      <c r="A247" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B247" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="C247" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q247" s="32" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" ht="17" customHeight="1">
+      <c r="A248" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B248" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="C248" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q248" s="32" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" ht="17" customHeight="1">
+      <c r="A249" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B249" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C249" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q249" s="32" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" ht="17" customHeight="1">
+      <c r="A250" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B250" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="C250" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q250" s="32" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" ht="17" customHeight="1">
+      <c r="A251" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B251" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="C251" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q251" s="32" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" ht="17" customHeight="1">
+      <c r="A252" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B252" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="C252" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q252" s="32" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" ht="17" customHeight="1">
+      <c r="A253" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B253" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="C253" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q253" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" ht="17" customHeight="1">
+      <c r="A254" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B254" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="C254" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q254" s="32" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" ht="17" customHeight="1">
+      <c r="A255" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B255" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="C255" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q255" s="32" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" ht="17" customHeight="1">
+      <c r="A256" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B256" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C256" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q256" s="32" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" ht="17" customHeight="1">
+      <c r="A257" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B257" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="C257" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q257" s="32" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" ht="17" customHeight="1">
+      <c r="A258" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B258" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="C258" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q258" s="32" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" ht="17" customHeight="1">
+      <c r="A259" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B259" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="C259" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q259" s="32" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" ht="17" customHeight="1">
+      <c r="A260" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B260" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="C260" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q260" s="32" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" ht="17" customHeight="1">
+      <c r="A261" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B261" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="C261" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q261" s="32" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" ht="17" customHeight="1">
+      <c r="A262" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B262" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="C262" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q262" s="32" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" ht="17" customHeight="1">
+      <c r="A263" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B263" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C263" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q263" s="32" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" ht="17" customHeight="1">
+      <c r="A264" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B264" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="C264" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q264" s="32" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" ht="17" customHeight="1">
+      <c r="A265" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B265" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="C265" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q265" s="32" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" ht="17" customHeight="1">
+      <c r="A266" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B266" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C266" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q266" s="32" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" ht="17" customHeight="1">
+      <c r="A267" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B267" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C267" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q267" s="32" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" ht="17" customHeight="1">
+      <c r="A268" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B268" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="C268" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q268" s="32"/>
+    </row>
+    <row r="269" spans="1:17" ht="17" customHeight="1">
+      <c r="A269" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="B269" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C269" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q269" s="32"/>
+    </row>
+    <row r="270" spans="1:17" ht="17" customHeight="1">
+      <c r="A270" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B270" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C270" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q270" s="32"/>
+    </row>
+    <row r="271" spans="1:17" ht="17" customHeight="1">
+      <c r="A271" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B271" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C271" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q271" s="32"/>
+    </row>
+    <row r="272" spans="1:17" ht="17" customHeight="1">
+      <c r="A272" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="B272" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="C272" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q272" s="32"/>
+    </row>
+    <row r="273" spans="1:17" ht="17" customHeight="1">
+      <c r="A273" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="B273" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="C273" s="32" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q273" s="32"/>
+    </row>
+    <row r="274" spans="1:17" ht="17" customHeight="1">
+      <c r="A274" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B274" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C274" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q274" s="32"/>
+    </row>
+    <row r="275" spans="1:17" ht="17" customHeight="1">
+      <c r="A275" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B275" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C275" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q275" s="32"/>
+    </row>
+    <row r="276" spans="1:17" ht="17" customHeight="1">
+      <c r="A276" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B276" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C276" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q276" s="32"/>
+    </row>
+    <row r="338" spans="1:1" ht="17" customHeight="1">
+      <c r="A338" s="31"/>
+    </row>
+    <row r="339" spans="1:1" ht="17" customHeight="1">
+      <c r="A339" s="31"/>
+    </row>
+    <row r="340" spans="1:1" ht="17" customHeight="1">
+      <c r="A340" s="31"/>
+    </row>
+    <row r="341" spans="1:1" ht="17" customHeight="1">
+      <c r="A341" s="31"/>
+    </row>
+    <row r="342" spans="1:1" ht="17" customHeight="1">
+      <c r="A342" s="31"/>
+    </row>
+    <row r="343" spans="1:1" ht="17" customHeight="1">
+      <c r="A343" s="31"/>
+    </row>
+    <row r="344" spans="1:1" ht="17" customHeight="1">
+      <c r="A344" s="31"/>
+    </row>
+    <row r="345" spans="1:1" ht="17" customHeight="1">
+      <c r="A345" s="31"/>
+    </row>
+    <row r="346" spans="1:1" ht="17" customHeight="1">
+      <c r="A346" s="31"/>
+    </row>
+    <row r="347" spans="1:1" ht="17" customHeight="1">
+      <c r="A347" s="31"/>
+    </row>
+    <row r="348" spans="1:1" ht="17" customHeight="1">
+      <c r="A348" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="-15980" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-1860" yWindow="-16000" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="271">
   <si>
     <t>center</t>
   </si>
@@ -636,18 +636,9 @@
     <t>histone modifications\number</t>
   </si>
   <si>
-    <t>Broad-Golub</t>
-  </si>
-  <si>
-    <t>HMS-Sorger</t>
-  </si>
-  <si>
     <t>TransCenter3: Sensitivity measures of MDA-MB-231 and HME-1 cell lines to LINCS Phase I TransCenter Project kinase inhibitors-drug combinations</t>
   </si>
   <si>
-    <t>Broad-Jaffe</t>
-  </si>
-  <si>
     <t>Epigenomics-Baseline ATAC-Seq for control and disease iPSC lines</t>
   </si>
   <si>
@@ -657,9 +648,6 @@
     <t>Epigenomics-ATAC-Seq for control and disease iMNs plus perturbations</t>
   </si>
   <si>
-    <t>OHSU-Gray</t>
-  </si>
-  <si>
     <t>Promocell myocytes line 1,cell line,normal,heart;Promocell myocytes line 2,cell line,normal,heart;Promocell myocytes line 3,cell line,normal,heart</t>
   </si>
   <si>
@@ -717,9 +705,6 @@
     <t>count\type (OR) count1\type1;count2\type2</t>
   </si>
   <si>
-    <t>ISMMS-Iyengar</t>
-  </si>
-  <si>
     <t>&gt;300</t>
   </si>
   <si>
@@ -813,234 +798,47 @@
     <t>release-link</t>
   </si>
   <si>
-    <t>NeuroLINCS-Thompson</t>
-  </si>
-  <si>
-    <t>Moerke 2 Color Apoptosis</t>
-  </si>
-  <si>
-    <t>Moerke 3 Color Apoptosis</t>
-  </si>
-  <si>
-    <t>Tang Apoptosis mitosis Cell Cycle State Assay</t>
-  </si>
-  <si>
-    <t>High-throughput Secretomic Analysis of Single Cells</t>
-  </si>
-  <si>
-    <t>Yale</t>
-  </si>
-  <si>
-    <t>Cell viability assay</t>
-  </si>
-  <si>
-    <t>Cell signaling response assay</t>
-  </si>
-  <si>
-    <t>L1000 gene expression profiling assay -Golub -Small Molecules</t>
-  </si>
-  <si>
-    <t>Broad-Schreiber</t>
-  </si>
-  <si>
-    <t>L1000 gene expression profiling assay -Schreiber -Small Molecules</t>
-  </si>
-  <si>
-    <t>L1000 gene expression profiling assay -Golub -cDNA</t>
-  </si>
-  <si>
-    <t>L1000 gene expression profiling assay -Golub -shRNA</t>
-  </si>
-  <si>
-    <t>Multiplex cytological profiling assay -Schreiber -Small Molecules</t>
-  </si>
-  <si>
-    <t>Broad</t>
-  </si>
-  <si>
-    <t>P100 Phosphosite Profiling Assay</t>
-  </si>
-  <si>
-    <t>Live-cell imaging: Single cell ERK response to ErbB  inhibitors</t>
-  </si>
-  <si>
-    <t>Deep Proteomics Dataset 1</t>
-  </si>
-  <si>
-    <t>Liver CSR Dataset 1</t>
-  </si>
-  <si>
-    <t>HMS-Sorger-Yale</t>
-  </si>
-  <si>
-    <t>http://lincs.hms.harvard.edu/db/datasets/20001/</t>
-  </si>
-  <si>
-    <t>http://lincs.hms.harvard.edu/db/datasets/20002/</t>
-  </si>
-  <si>
-    <t>http://lincs.hms.harvard.edu/db/datasets/20003/</t>
-  </si>
-  <si>
-    <t>http://lincs.hms.harvard.edu/db/datasets/20004/</t>
-  </si>
-  <si>
-    <t>Single cell protein secretion profiling assay</t>
-  </si>
-  <si>
-    <t>L1000 gene expression profiling assay</t>
-  </si>
-  <si>
-    <t>Multiplex cytological profiling assay</t>
-  </si>
-  <si>
-    <t>Dynamic ERK signaling single cell imaging assay</t>
-  </si>
-  <si>
-    <t>Proteomics cell state profiling assay</t>
-  </si>
-  <si>
-    <t>http://lincs.hms.harvard.edu/data/kinomescan/</t>
-  </si>
-  <si>
     <t>proteins</t>
   </si>
   <si>
     <t>name1,type1,length1,source1;name2…</t>
   </si>
   <si>
-    <t>AAK1,Wild Type,Partial,Bacterial expression system;ABL1(E255K)-phosphorylated,Mutation (E255K),Partial,Mammalian expression system;ABL1(F317I)-nonphosphorylated,Mutation (F317I),Partial,Mammalian expression system;ABL1(F317I)-phosphorylated,Mutation (F317I),Partial,Mammalian expression system;ABL1(F317L)-nonphosphorylated,Mutation (F317L),Partial,Mammalian expression system;ABL1(F317L)-phosphorylated,Mutation (F317L),Partial,Mammalian expression system;ABL1(H396P)-nonphosphorylated,Mutation (H396P),Partial,Mammalian expression system;ABL1(H396P)-phosphorylated,Mutation (H396P),Partial,Mammalian expression system;ABL1(M351T)-phosphorylated,Mutation (M351T),Partial,Mammalian expression system;ABL1-nonphosphorylated,Wild Type,Partial,Mammalian expression system;ABL1-phosphorylated,Wild Type,Partial,Mammalian expression system;ABL1(Q252H)-nonphosphorylated,Mutation (Q252H),Partial,Mammalian expression system;ABL1(Q252H)-phosphorylated,Mutation (Q252H),Partial,Mammalian expression system;ABL1(T315I)-nonphosphorylated,Mutation (T315I),Partial,Mammalian expression system;ABL1(T315I)-phosphorylated,Mutation (T315I),Partial,Mammalian expression system;ABL1(Y253F)-phosphorylated,Mutation (Y253F),Partial,Mammalian expression system;ABL2,Wild Type,Partial,Bacterial expression system;ACVR1,Wild Type,Partial,Bacterial expression system;ACVR1B,Wild Type,Partial,Bacterial expression system;ACVR2A,Wild Type,Partial,Bacterial expression system;ACVR2B,Wild Type,Partial,Bacterial expression system;ACVRL1,Wild Type,Partial,Bacterial expression system;ADCK3,Wild Type,Full,Bacterial expression system;ADCK4,Wild Type,Full,Bacterial expression system;AKT1,Wild Type,Partial,Bacterial expression system;AKT2,Wild Type,Partial,Bacterial expression system;AKT3,Wild Type,Partial,Bacterial expression system;ALK,Wild Type,Partial,Bacterial expression system;AMPK-alpha1,Wild Type,Partial,Bacterial expression system;AMPK-alpha2,Wild Type,Partial,Bacterial expression system;ANKK1,Wild Type,Partial,Mammalian expression system;ASK1,Wild Type,Partial,Bacterial expression system;ASK2,Wild Type,Partial,Mammalian expression system;AURKA,Wild Type,Partial,Mammalian expression system;AURKB,Wild Type,Partial,Mammalian expression system;AURKC,Wild Type,Full,Bacterial expression system;AXL,Wild Type,Partial,Bacterial expression system;BIKE,Wild Type,Partial,Bacterial expression system;BLK,Wild Type,Partial,Bacterial expression system;BMPR1A,Wild Type,Partial,Bacterial expression system;BMPR1B,Wild Type,Partial,Mammalian expression system;BMPR2,Wild Type,Partial,Mammalian expression system;BMX,Wild Type,Full,Bacterial expression system;BRAF,Wild Type,Partial,Mammalian expression system;BRAF(V600E),Mutation (V600E),Partial,Mammalian expression system;BRK,Wild Type,Partial,Bacterial expression system;BRSK1,Wild Type,Partial,Bacterial expression system;BRSK2,Wild Type,Full,Bacterial expression system;BTK,Wild Type,Full,Mammalian expression system;CAMK1,Wild Type,Full,Bacterial expression system;CAMK1D,Wild Type,Partial,Bacterial expression system;CAMK1G,Wild Type,Partial,Bacterial expression system;CAMK2A,Wild Type,Partial,Bacterial expression system;CAMK2B,Wild Type,Partial,Bacterial expression system;CAMK2G,Wild Type,Partial,Bacterial expression system;CAMKK2,Wild Type,Partial,Bacterial expression system;CASK,Wild Type,Partial,Mammalian expression system;CDC2L1,Wild Type,Partial,Bacterial expression system;CDC2L2,Wild Type,Partial,Bacterial expression system;CDC2L5,Wild Type,Partial,Mammalian expression system;CDK11,Wild Type,Partial,Bacterial expression system;CDK14,Wild Type,Full,Bacterial expression system;CDK15,Wild Type,Full,Bacterial expression system;CDK16,Wild Type,Partial,Mammalian expression system;CDK2,Wild Type,Full,Bacterial expression system;CDK3,Wild Type,Full,Bacterial expression system;CDK4-cyclinD1,Wild Type,Full,Mammalian expression system;CDK4-cyclinD3,Wild Type,Full,Mammalian expression system;CDK5,Wild Type,Full,Bacterial expression system;CDK7,Wild Type,Full,Mammalian expression system;CDK8,Wild Type,Partial,Bacterial expression system;CDK9,Wild Type,Full,Bacterial expression system;CDKL1,Wild Type,Full,Mammalian expression system;CDKL2,Wild Type,Partial,Bacterial expression system;CDKL3,Wild Type,Partial,Bacterial expression system;CDKL5,Wild Type,Partial,Mammalian expression system;CHEK1,Wild Type,Partial,Bacterial expression system;CHK2,Wild Type,Partial,Bacterial expression system;CIT,Wild Type,Partial,Bacterial expression system;CLK1,Wild Type,Full,Bacterial expression system;CLK2,Wild Type,Partial,Bacterial expression system;CLK3,Wild Type,Full,Bacterial expression system;CLK4,Wild Type,Partial,Bacterial expression system;CSF1R,Wild Type,Partial,Bacterial expression system;CSK,Wild Type,Full,Bacterial expression system;CSNK1A1,Wild Type,Partial,Mammalian expression system;CSNK1A1L,Wild Type,Full,Bacterial expression system;CSNK1D,Wild Type,Full,Bacterial expression system;CSNK1E,Wild Type,Full,Bacterial expression system;CSNK1G3,Wild Type,Full,Bacterial expression system;CSNK2A1,Wild Type,Full,Mammalian expression system;CSNK2A2,Wild Type,Full,Mammalian expression system;CTK,Wild Type,Full,Mammalian expression system;DAPK1,Wild Type,Partial,Bacterial expression system;DAPK2,Wild Type,Full,Bacterial expression system;DAPK3,Wild Type,Partial,Bacterial expression system;DCAMKL2,Wild Type,Partial,Bacterial expression system;DCAMKL3,Wild Type,Partial,Bacterial expression system;DCLK1,Wild Type,Partial,Mammalian expression system;DDR1,Wild Type,Partial,Bacterial expression system;DDR2,Wild Type,Partial,Mammalian expression system;DMPK,Wild Type,Partial,Bacterial expression system;DMPK2,Wild Type,Partial,Bacterial expression system;DRAK1,Wild Type,Partial,Bacterial expression system;DRAK2,Wild Type,Full,Bacterial expression system;DYRK1A,Wild Type,Partial,Mammalian expression system;DYRK1B,Wild Type,Full,Bacterial expression system;DYRK2,Wild Type,Full,Mammalian expression system;EGFR,Wild Type,Partial,Bacterial expression system;EGFR(E746-A750del),Mutation (E746-A750del),Partial,Bacterial expression system;EGFR(G719C),Mutation (G719C),Partial,Bacterial expression system;EGFR(G719S),Mutation (G719S),Partial,Bacterial expression system;EGFR(L747-E749del, A750P),Mutation (L747-E749del, A750P),Partial,Bacterial expression system;EGFR(L747-S752del, P753S),Mutation (L747-S752del, P753S),Partial,Bacterial expression system;EGFR(L747-T751del,Sins),Mutation (L747-T751del,Sins),Partial,Bacterial expression system;EGFR(L858R),Mutation (L858R),Partial,Bacterial expression system;EGFR(L858R,T790M),Mutation (L858R,T790M),Partial,Mammalian expression system;EGFR(L861Q),Mutation (L861Q),Partial,Bacterial expression system;EGFR(S752-I759del),Mutation (S752-I759del),Partial,Bacterial expression system;EGFR(T790M),Mutation (T790M),Partial,Mammalian expression system;EIF2AK1,Wild Type,Partial,Mammalian expression system;EPHA1,Wild Type,Partial,Bacterial expression system;EPHA2,Wild Type,Partial,Bacterial expression system;EPHA3,Wild Type,Partial,Bacterial expression system;EPHA4,Wild Type,Partial,Bacterial expression system;EPHA5,Wild Type,Partial,Bacterial expression system;EPHA6,Wild Type,Partial,Bacterial expression system;EPHA7,Wild Type,Partial,Bacterial expression system;EPHA8,Wild Type,Partial,Bacterial expression system;EPHB1,Wild Type,Partial,Bacterial expression system;EPHB2,Wild Type,Partial,Bacterial expression system;EPHB3,Wild Type,Partial,Bacterial expression system;EPHB4,Wild Type,Partial,Bacterial expression system;EPHB6,Wild Type,Partial,Mammalian expression system;ERBB2,Wild Type,Partial,Mammalian expression system;ERBB3,Wild Type,Partial,Mammalian expression system;ERBB4,Wild Type,Partial,Bacterial expression system;ERK1,Wild Type,Full,Bacterial expression system;ERK2,Wild Type,Full,Bacterial expression system;ERK3,Wild Type,Partial,Bacterial expression system;ERK4,Wild Type,Partial,Bacterial expression system;ERK5,Wild Type,Partial,Bacterial expression system;ERK8,Wild Type,Partial,Bacterial expression system;ERN1,Wild Type,Partial,Mammalian expression system;FAK,Wild Type,Partial,Bacterial expression system;FAK2,Wild Type,Full,Bacterial expression system;FER,Wild Type,Partial,Bacterial expression system;FES,Wild Type,Partial,Bacterial expression system;FGFR1,Wild Type,Partial,Bacterial expression system;FGFR2,Wild Type,Partial,Bacterial expression system;FGFR3,Wild Type,Partial,Bacterial expression system;FGFR3(G697C),Mutation (G697C),Partial,Bacterial expression system;FGFR4,Wild Type,Partial,Bacterial expression system;FGR,Wild Type,Partial,Bacterial expression system;FLT3,Wild Type,Partial,Bacterial expression system;FLT3(D835H),Mutation (D835H),Partial,Bacterial expression system;FLT3(D835Y),Mutation (D835Y),Partial,Bacterial expression system;FLT3(ITD),Mutation (ITD),Partial,Bacterial expression system;FLT3(K663Q),Mutation (K663Q),Partial,Bacterial expression system;FLT3(N841I),Mutation (N841I),Partial,Bacterial expression system;FLT3(R834Q),Mutation (R834Q),Partial,Mammalian expression system;FLT4,Wild Type,Partial,Bacterial expression system;FRK,Wild Type,Partial,Bacterial expression system;FYN,Wild Type,Partial,Bacterial expression system;GAK,Wild Type,Partial,Bacterial expression system;GCN2(Kin.Dom.2,S808G),Wild Type,Partial,Bacterial expression system;GRK1,Wild Type,Full,Mammalian expression system;GRK4,Wild Type,Full,Bacterial expression system;GRK7,Wild Type,Full,Mammalian expression system;GSK3A,Wild Type,Full,Bacterial expression system;GSK3B,Wild Type,Full,Mammalian expression system;HCK,Wild Type,Full,Bacterial expression system;HIPK1,Wild Type,Partial,Mammalian expression system;HIPK2,Wild Type,Partial,Mammalian expression system;HIPK3,Wild Type,Partial,Mammalian expression system;HIPK4,Wild Type,Partial,Bacterial expression system;HPK1,Wild Type,Full,Bacterial expression system;HUNK,Wild Type,Partial,Bacterial expression system;ICK,Wild Type,Partial,Mammalian expression system;IGF1R,Wild Type,Partial,Bacterial expression system;IKKA,Wild Type,Full,Mammalian expression system;IKKB,Wild Type,Full,Mammalian expression system;IKKE,Wild Type,Full,Mammalian expression system;INSR,Wild Type,Partial,Mammalian expression system;INSRR,Wild Type,Partial,Bacterial expression system;IRAK1,Wild Type,Partial,Mammalian expression system;IRAK3,Wild Type,Partial,Bacterial expression system;IRAK4,Wild Type,Partial,Mammalian expression system;ITK,Wild Type,Partial,Bacterial expression system;JAK1(JH1domain-catalytic),Wild Type,Partial,Bacterial expression system;JAK1(JH2domain-pseudokinase),Wild Type,Partial,Mammalian expression system;JAK2(JH1domain-catalytic),Wild Type,Partial,Mammalian expression system;JAK3(JH1domain-catalytic),Wild Type,Partial,Mammalian expression system;JNK1,Wild Type,Full,Mammalian expression system;JNK3,Wild Type,Partial,Mammalian expression system;KC1G1,Wild Type,Partial,Bacterial expression system;KC1G2,Wild Type,Full,Bacterial expression system;KCC2D,Wild Type,Partial,Bacterial expression system;KCC4,Wild Type,Partial,Bacterial expression system;KGP1,Wild Type,Partial,Bacterial expression system;KGP2,Wild Type,Partial,Mammalian expression system;KIT,Wild Type,Partial,Bacterial expression system;KIT(A829P),Mutation (A829P),Partial,Mammalian expression system;KIT(D816H),Mutation (D816H),Partial,Mammalian expression system;KIT(D816V),Mutation (D816V),Partial,Bacterial expression system;KIT(L576P),Mutation (L576P),Partial,Bacterial expression system;KIT(V559D),Mutation (V559D),Partial,Bacterial expression system;KIT(V559D,T670I),Mutation (V559D,T670I),Partial,Bacterial expression system;KIT(V559D,V654A),Mutation (V559D,V654A),Partial,Bacterial expression system;KKCC1,Wild Type,Partial,Bacterial expression system;KPCD,Wild Type,Partial,Bacterial expression system;KPCD1,Wild Type,Partial,Bacterial expression system;KPCD2,Wild Type,Partial,Bacterial expression system;KPCD3,Wild Type,Partial,Bacterial expression system;KPCE,Wild Type,Partial,Mammalian expression system;KPCI,Wild Type,Partial,Mammalian expression system;KPCL,Wild Type,Partial,Bacterial expression system;KPCT,Wild Type,Partial,Bacterial expression system;LATS1,Wild Type,Partial,Bacterial expression system;LATS2,Wild Type,Partial,Mammalian expression system;LCK,Wild Type,Partial,Bacterial expression system;LIMK1,Wild Type,Full,Bacterial expression system;LIMK2,Wild Type,Full,Bacterial expression system;LKB1,Wild Type,Full,Bacterial expression system;LOK,Wild Type,Partial,Bacterial expression system;LRRK2,Wild Type,Partial,Mammalian expression system;LRRK2(G2019S),Mutation (G2019S),Partial,Mammalian expression system;LTK,Wild Type,Partial,Bacterial expression system;LYN,Wild Type,Partial,Bacterial expression system;LZK,Wild Type,Full,Mammalian expression system;M3K12,Wild Type,Full,Mammalian expression system;M3K2,Wild Type,Partial,Mammalian expression system;M4K3,Wild Type,Partial,Bacterial expression system;MAK,Wild Type,Partial,Bacterial expression system;MAP3K1,Wild Type,Partial,Mammalian expression system;MAP3K15,Wild Type,Partial,Mammalian expression system;MAP3K3,Wild Type,Partial,Mammalian expression system;MAP3K4,Wild Type,Partial,Bacterial expression system;MAP4K2,Wild Type,Partial,Mammalian expression system;MAP4K4,Wild Type,Partial,Bacterial expression system;MAP4K5,Wild Type,Partial,Bacterial expression system;MAPKAPK2,Wild Type,Partial,Bacterial expression system;MAPKAPK5,Wild Type,Partial,Mammalian expression system;MARK1,Wild Type,Partial,Bacterial expression system;MARK2,Wild Type,Partial,Bacterial expression system;MARK3,Wild Type,Full,Bacterial expression system;MARK4,Wild Type,Partial,Bacterial expression system;MAST1,Wild Type,Partial,Mammalian expression system;MELK,Wild Type,Full,Bacterial expression system;MERTK,Wild Type,Partial,Bacterial expression system;MET,Wild Type,Partial,Bacterial expression system;MET(M1250T),Mutation (M1250T),Partial,Bacterial expression system;MET(Y1235D),Mutation (Y1235D),Partial,Bacterial expression system;MINK,Wild Type,Partial,Mammalian expression system;MK09,Wild Type,Full,Mammalian expression system;MK11,Wild Type,Full,Bacterial expression system;MK12,Wild Type,Full,Mammalian expression system;MK13,Wild Type,Full,Bacterial expression system;MK14,Wild Type,Full,Bacterial expression system;MKNK1,Wild Type,Full,Mammalian expression system;MKNK2,Wild Type,Partial,Mammalian expression system;MLCK,Wild Type,Partial,Bacterial expression system;MLK1,Wild Type,Partial,Bacterial expression system;MLK2,Wild Type,Partial,Bacterial expression system;MLK3,Wild Type,Partial,Bacterial expression system;MLTK,Wild Type,Partial,Bacterial expression system;MP2K1,Wild Type,Full,Mammalian expression system;MP2K2,Wild Type,Full,Mammalian expression system;MP2K3,Wild Type,Full,Mammalian expression system;MP2K4,Wild Type,Partial,Mammalian expression system;MP2K5,Wild Type,Partial,Mammalian expression system;MP2K6,Wild Type,Partial,Bacterial expression system;MP2K7,Wild Type,Full,Mammalian expression system;MRCKA,Wild Type,Partial,Bacterial expression system;MRCKB,Wild Type,Partial,Bacterial expression system;MST1,Wild Type,Full,Bacterial expression system;MST1R,Wild Type,Partial,Bacterial expression system;MST2,Wild Type,Partial,Bacterial expression system;MST3,Wild Type,Partial,Bacterial expression system;MST4,Wild Type,Full,Mammalian expression system;MTOR,Wild Type,Partial,Mammalian expression system;MUSK,Wild Type,Partial,Bacterial expression system;MYLK,Wild Type,Full,Mammalian expression system;MYLK2,Wild Type,Partial,Bacterial expression system;MYLK4,Wild Type,Partial,Bacterial expression system;MYO3A,Wild Type,Partial,Bacterial expression system;MYO3B,Wild Type,Partial,Bacterial expression system;NDR1,Wild Type,Partial,Mammalian expression system;NDR2,Wild Type,Partial,Bacterial expression system;NEK1,Wild Type,Partial,Bacterial expression system;NEK11,Wild Type,Partial,Mammalian expression system;NEK2,Wild Type,Partial,Bacterial expression system;NEK3,Wild Type,Full,Mammalian expression system;NEK4,Wild Type,Full,Mammalian expression system;NEK5,Wild Type,Partial,Bacterial expression system;NEK6,Wild Type,Full,Bacterial expression system;NEK7,Wild Type,Full,Bacterial expression system;NEK9,Wild Type,Partial,Bacterial expression system;NIM1,Wild Type,Partial,Mammalian expression system;NLK,Wild Type,Full,Bacterial expression system;NUAK1,Wild Type,Partial,Bacterial expression system;OSR1,Wild Type,Full,Mammalian expression system;PAK1,Wild Type,Partial,Bacterial expression system;PAK2,Wild Type,Partial,Bacterial expression system;PAK3,Wild Type,Full,Bacterial expression system;PAK4,Wild Type,Partial,Bacterial expression system;PAK6,Wild Type,Partial,Bacterial expression system;PAK7,Wild Type,Partial,Bacterial expression system;PCTK2,Wild Type,Full,Bacterial expression system;PCTK3,Wild Type,Full,Bacterial expression system;PDPK1,Wild Type,Full,Bacterial expression system;PFCDPK1(P.falciparum),Wild Type,Full,Mammalian expression system;PFPK5(P.falciparum),Wild Type,Full,Mammalian expression system;PGFRA,Wild Type,Partial,Mammalian expression system;PGFRB,Wild Type,Partial,Bacterial expression system;PHKG1,Wild Type,Full,Bacterial expression system;PHKG2,Wild Type,Partial,Bacterial expression system;PI42C,Wild Type,Partial,Mammalian expression system;PIK3C2B,Wild Type,Partial,Mammalian expression system;PIK3C2G,Wild Type,Partial,Mammalian expression system;PIK3CA,Wild Type,Partial,Mammalian expression system;PIK3CA(C420R),Mutation (C420R),Partial,Mammalian expression system;PIK3CA(E542K),Mutation (E542K),Partial,Mammalian expression system;PIK3CA(E545A),Mutation (E545A),Partial,Mammalian expression system;PIK3CA(E545K),Mutation (E545K),Partial,Mammalian expression system;PIK3CA(H1047L),Mutation (H1047L),Partial,Mammalian expression system;PIK3CA(H1047Y),Mutation (H1047Y),Partial,Mammalian expression system;PIK3CA(I800L),Mutation (I800L),Partial,Mammalian expression system;PIK3CA(M1043I),Mutation (M1043I),Partial,Mammalian expression system;PIK3CA(Q546K),Mutation (Q546K),Partial,Mammalian expression system;PIK3CB,Wild Type,Partial,Mammalian expression system;PIK3CD,Wild Type,Partial,Mammalian expression system;PIK3CG,Wild Type,Partial,Mammalian expression system;PIK4CB,Wild Type,Full,Mammalian expression system;PIM1,Wild Type,Partial,Bacterial expression system;PIM2,Wild Type,Partial,Bacterial expression system;PIM3,Wild Type,Partial,Bacterial expression system;PIP5K1A,Wild Type,Full,Bacterial expression system;PIP5K1C,Wild Type,Partial,Mammalian expression system;PIP5K2B,Wild Type,Full,Bacterial expression system;PKAC-alpha,Wild Type,Partial,Bacterial expression system;PKAC-beta,Wild Type,Full,Bacterial expression system;PKMYT1,Wild Type,Partial,Bacterial expression system;PKN1,Wild Type,Partial,Bacterial expression system;PKN2,Wild Type,Partial,Bacterial expression system;PKNB(M.tuberculosis),Wild Type,Partial,Mammalian expression system;PLK1,Wild Type,Partial,Mammalian expression system;PLK2,Wild Type,Partial,Mammalian expression system;PLK3,Wild Type,Partial,Mammalian expression system;PLK4,Wild Type,Partial,Mammalian expression system;PRKR,Wild Type,Partial,Bacterial expression system;PRKX,Wild Type,Partial,Bacterial expression system;PRP4,Wild Type,Partial,Bacterial expression system;RAF1,Wild Type,Partial,Bacterial expression system;RET,Wild Type,Partial,Bacterial expression system;RET(M918T),Mutation (M918T),Partial,Bacterial expression system;RET(V804L),Mutation (V804L),Partial,Bacterial expression system;RET(V804M),Mutation (V804M),Partial,Bacterial expression system;RIOK1,Wild Type,Full,Bacterial expression system;RIOK2,Wild Type,Partial,Mammalian expression system;RIOK3,Wild Type,Full,Bacterial expression system;RIPK1,Wild Type,Partial,Bacterial expression system;RIPK2,Wild Type,Partial,Bacterial expression system;RIPK4,Wild Type,Partial,Mammalian expression system;RIPK5,Wild Type,Full,Mammalian expression system;ROCK1,Wild Type,Partial,Mammalian expression system;ROCK2,Wild Type,Partial,Mammalian expression system;ROS1,Wild Type,Partial,Bacterial expression system;RPS6KA4(Kin.Dom.1-N-terminal),Wild Type,Partial,Bacterial expression system;RPS6KA4(Kin.Dom.2-C-terminal),Wild Type,Partial,Mammalian expression system;RPS6KA5(Kin.Dom.1-N-terminal),Wild Type,Partial,Bacterial expression system;RPS6KA5(Kin.Dom.2-C-terminal),Wild Type,Partial,Bacterial expression system;RSK1(Kin.Dom.1-N-terminal),Wild Type,Partial,Bacterial expression system;RSK1(Kin.Dom.2-C-terminal),Wild Type,Partial,Bacterial expression system;RSK2(Kin.Dom.1-N-terminal),Wild Type,Partial,Mammalian expression system;RSK3(Kin.Dom.1-N-terminal),Wild Type,Partial,Bacterial expression system;RSK3(Kin.Dom.2-C-terminal),Wild Type,Partial,Bacterial expression system;RSK4(Kin.Dom.1-N-terminal),Wild Type,Partial,Mammalian expression system;RSK4(Kin.Dom.2-C-terminal),Wild Type,Partial,Bacterial expression system;S6K1,Wild Type,Partial,Mammalian expression system;SBK1,Wild Type,Partial,Mammalian expression system;SgK110,Wild Type,Partial,Bacterial expression system;SGK3,Wild Type,Partial,Mammalian expression system;SIK1,Wild Type,Partial,Bacterial expression system;SIK2,Wild Type,Full,Bacterial expression system;SIK3,Wild Type,Partial,Mammalian expression system;SLK,Wild Type,Partial,Bacterial expression system;SNARK,Wild Type,Partial,Mammalian expression system;SNRK,Wild Type,Partial,Mammalian expression system;SRC,Wild Type,Partial,Bacterial expression system;SRMS,Wild Type,Partial,Mammalian expression system;SRPK1,Wild Type,Full,Bacterial expression system;SRPK2,Wild Type,Full,Bacterial expression system;SRPK3,Wild Type,Partial,Bacterial expression system;STK16,Wild Type,Partial,Bacterial expression system;STK33,Wild Type,Full,Bacterial expression system;STK35,Wild Type,Partial,Bacterial expression system;STK36,Wild Type,Partial,Bacterial expression system;STK39,Wild Type,Partial,Mammalian expression system;SYK,Wild Type,Partial,Bacterial expression system;TAK1,Wild Type,Partial,Mammalian expression system;TAOK1,Wild Type,Partial,Mammalian expression system;TAOK2,Wild Type,Partial,Mammalian expression system;TAOK3,Wild Type,Partial,Mammalian expression system;TBK1,Wild Type,Full,Mammalian expression system;TEC,Wild Type,Partial,Bacterial expression system;TESK1,Wild Type,Full,Bacterial expression system;TGFBR1,Wild Type,Partial,Bacterial expression system;TGFBR2,Wild Type,Partial,Bacterial expression system;TIE1,Wild Type,Partial,Bacterial expression system;TIE2,Wild Type,Partial,Bacterial expression system;TLK1,Wild Type,Partial,Bacterial expression system;TLK2,Wild Type,Partial,Bacterial expression system;TNIK,Wild Type,Partial,Bacterial expression system;TNK1,Wild Type,Full,Bacterial expression system;TNK2,Wild Type,Partial,Bacterial expression system;TNNI3K,Wild Type,Full,Bacterial expression system;TRKA,Wild Type,Partial,Mammalian expression system;TRKB,Wild Type,Partial,Mammalian expression system;TRKC,Wild Type,Partial,Mammalian expression system;TRPM6,Wild Type,Partial,Mammalian expression system;TSSK1B,Wild Type,Full,Bacterial expression system;TTK,Wild Type,Partial,Bacterial expression system;TXK,Wild Type,Partial,Bacterial expression system;TYK2(JH1domain-catalytic),Wild Type,Partial,Mammalian expression system;TYK2(JH2domain-pseudokinase),Wild Type,Partial,Mammalian expression system;TYRO3,Wild Type,Partial,Bacterial expression system;ULK1,Wild Type,Partial,Mammalian expression system;ULK2,Wild Type,Partial,Mammalian expression system;ULK3,Wild Type,Partial,Mammalian expression system;VGFR1,Wild Type,Partial,Bacterial expression system;VGFR2,Wild Type,Partial,Mammalian expression system;VRK2,Wild Type,Partial,Mammalian expression system;WEE1,Wild Type,Partial,Bacterial expression system;WEE2,Wild Type,Partial,Bacterial expression system;YANK1,Wild Type,Full,Mammalian expression system;YANK2,Wild Type,Full,Bacterial expression system;YANK3,Wild Type,Partial,Bacterial expression system;YES,Wild Type,Partial,Bacterial expression system;YSK1,Wild Type,Partial,Bacterial expression system;YSK4,Wild Type,Partial,Mammalian expression system;ZAP70,Wild Type,Partial,Mammalian expression system</t>
-  </si>
-  <si>
-    <t>KINOMEscan</t>
-  </si>
-  <si>
-    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses) -- DNA Staining</t>
-  </si>
-  <si>
-    <t>PHASE ONE DATA</t>
-  </si>
-  <si>
-    <t>317-456\proteins</t>
-  </si>
-  <si>
-    <t>A443654,small molecule;AC220,small molecule;Afatinib,small molecule;AG1478,small molecule;ALW-II-38-3,small molecule;ALW-II-49-7,small molecule;AS601245,small molecule;AT-7519,small molecule;AZ-628,small molecule;AZD 5438,small molecule;AZD4547,small molecule;AZD-6482,small molecule;AZD7762,small molecule;Barasertib,small molecule;Barasertib,small molecule;BEZ235,small molecule;BI-2536,small molecule;BI-2536,small molecule;BIBF-1120,small molecule;BMS345541,small molecule;BMS345541,small molecule;BMS-387032,small molecule;BMS-536924, KIN001-126,small molecule;Bosutinib,small molecule;Bosutinib,small molecule;Brivanib,small molecule;BS-181,small molecule;BX-912,small molecule;Canertinib,small molecule;Canertinib,small molecule;CG-930,small molecule;CGP60474,small molecule;CGP74514A,small molecule;CP466722,small molecule;CP724714,small molecule;Crizotinib,small molecule;Crizotinib,small molecule;CYT387,small molecule;Dabrafenib,small molecule;Dasatinib,small molecule;Dinaciclib,small molecule;Dovitinib,small molecule;Enzastaurin,small molecule;Erlotinib,small molecule;Flavopiridol,small molecule;Foretinib,small molecule;GDC-0879,small molecule;GDC-0941,small molecule;GDC-0941,small molecule;Gefitinib,small molecule;GSK 690693,small molecule;GSK1059615,small molecule;GSK1838705,small molecule;GSK2126458,small molecule;GSK429286A,small molecule;GSK461364,small molecule;GSK461364,small molecule;GW-5074,small molecule;GW843682,small molecule;HG-14-10-04,small molecule;HG-14-8-02,small molecule;HG-5-113-01,small molecule;HG-5-88-01,small molecule;HG-6-64-01,small molecule;HG-9-91-01,small molecule;Imatinib,small molecule;JNK-9L,small molecule;JNK-IN-5A,small molecule;JW-7-24-1,small molecule;JWE-035,small molecule;Ki20227,small molecule;KIN001-111/A770041,small molecule;KIN001-123/WZ-1-84,small molecule;KIN001-127,small molecule;KIN001-220,small molecule;KIN001-242,small molecule;KU63794,small molecule;KW2449,small molecule;Lapatinib,small molecule;Lapatinib,small molecule;Lestaurtinib,small molecule;Linifanib,small molecule;Masitinib,small molecule;MLN8054,small molecule;MLN8054,small molecule;Motesanib,small molecule;Neratinib,small molecule;Neratinib,small molecule;Nilotinib,small molecule;NPK76-II-72-1,small molecule;NU7441,small molecule;NVP-TAE684,small molecule;NVP-TAE684,small molecule;OTSSP167,small molecule;Pazopanib,small molecule;PD0325901,small molecule;PD0332991,small molecule;PD173074,small molecule;PD184352,small molecule;PHA-665752,small molecule;PHA-767491,small molecule;PHA-793887,small molecule;PI103,small molecule;PKC412,small molecule;PLX4032,small molecule;PLX-4720,small molecule;PLX-4720,small molecule;QL-X-138,small molecule;QL-XI-92,small molecule;R406,small molecule;R406,small molecule;RAF 265,small molecule;RO-3306,small molecule;(R)- Roscovitine,small molecule;Ruxolitinib,small molecule;SB 203580,small molecule;SB590885,small molecule;Selumetinib,small molecule;SGX523,small molecule;Sigma A6730,small molecule;Sorafenib,small molecule;Sorafenib,small molecule;SP600125,small molecule;Sunitinib,small molecule;TAK-715,small molecule;TG 101348,small molecule;THZ-2-98-01,small molecule;Tofacitinib,small molecule;Torin1,small molecule;Torin2,small molecule;Tozasertib,small molecule;Vandetanib,small molecule;VX-745,small molecule;WH-4-023,small molecule;WH-4-025,small molecule;WYE-125132,small molecule;WZ3105,small molecule;WZ4002,small molecule;WZ-4-145,small molecule;WZ-7043,small molecule;XMD11-50,small molecule;XMD11-85h,small molecule;XMD-12,small molecule;XMD13-2,small molecule;XMD14-99,small molecule;XMD15-27,small molecule;XMD16-144,small molecule;XMD8-85,small molecule;XMD8-92,small molecule;ZG-10,small molecule;ZM-447439, small molecule;</t>
-  </si>
-  <si>
-    <t>false\small molecules,151</t>
-  </si>
-  <si>
     <t>dose</t>
   </si>
   <si>
     <t>dose1,dose2,...;dose-count</t>
   </si>
   <si>
-    <t>TODO?</t>
-  </si>
-  <si>
-    <t>% kinase bound by ligand in presence of 10 uM compound compared to DMSO only control reaction\number</t>
-  </si>
-  <si>
-    <t>The CMT platform uses a DNA stain or Resazurin based assay to determine cell viability following compound treatment, as indicated in the formatted assay data. A single cell line is seeded in each 384 well plate and assayed against a panel of compounds. In each 384 well plate, 4 to 8 test compounds are assayed at nine different doses. In each plate, 42 Control wells are treated with DMSO only (no test compound), and 32 wells contain no cells. After a 72 hour incubation, the relative cell number in each well is determined using bulk fluorescence measurement (either resazurin or Syto 60). For the Syto 60 assay, cells are fixed before staining. We report an average FI : Control Ratio for each cell line and compound concentration. This ratio is calculated by dividing the average FI for each condition by the averaged signal in Control (DMSO treated) wells. Conditions where more cells are viable have a high ratio; conditions where fewer cells are viable have a lower ratio.</t>
-  </si>
-  <si>
-    <t>The CMT platform uses a DNA stain based assay to determine cell viability following compound treatment. A single cell line is seeded in each 96 well plate and assayed against a panel of compounds. In each 96 well plate, 8 test compounds are assayed at three different doses in triplicate (72 wells total). In each plate, 18 Control wells are treated with DMSO only (no test compound), and 6 wells contain no cells. After a 72 hour incubation, the relative cell number in each well is determined using bulk fluorescence measurement. For this assay cells are fixed before staining. Cell viability corresponds to the signal in each compound-treated well relative to the averaged signal for the Control (DMSO treated) wells for each cell line.</t>
-  </si>
-  <si>
-    <t>Tang Mitosis/Apoptosis ver.II -- Data from PMID: 23788527: Differential Determinants of Cancer Cell Insensitivity to Antimitotic Drugs Discriminated by a One-Step Cell Imaging Assay</t>
-  </si>
-  <si>
-    <t>Dose response of anti-mitotic compounds in human cancer cell lines at 24, 48 and 72 hours to determine effect on cell proliferation and mitosis.</t>
-  </si>
-  <si>
-    <t>Dose response of anti-mitotic compounds in human cancer cell lines at 24, 48 and 72 hours to determine effect on apoptosis, mitosis and cell death. </t>
-  </si>
-  <si>
-    <t>Tozasertib,small molecule;BI-2536,small molecule;GSK1070916,small molecule;KIN001-220,small molecule;MLN8054,small molecule;Barasertib,small molecule;Taxol,small molecule;MPS-1-IN-1,small molecule</t>
-  </si>
-  <si>
-    <t>5637,epithelial,cancer line,urinary bladder;647-V,epithelial-like,cancer line,urinary bladder;A375.S2,epithelial,cancer line,skin;AGS,epithelial,cancer line,stomach;Ca9-22,epithelial-like,cancer line,head &amp; neck;CAL-51,epithelial-like,cancer line,breast;Calu-1,epithelial,cancer line,lung;Calu-3,epithelial,cancer line,lung;Ca Ski,epithelial,cancer line,cervix;COLO-679,fibroblastic,cancer line,skin;FU97,epithelial-like,cancer line,stomach;HEC-1,,cancer line,uterus;HLF,,cancer line,liver;Ishikawa,epithelial-like,cancer line,uterus;Ishikawa (Heraklio) 02 ER-,epithelial,cancer line,uterus;JHH-6,epithelial-like,cancer line,liver;KMRC-20,epithelial-like,cancer line,kidney;KYSE-140,,cancer line,esophagus;KYSE-150,epitheloid,cancer line,esophagus;KYSE-450,epitheloid,cancer line,esophagus;LNZTA3WT4,,cancer line,brain;MDA-MB-435S,melanocyte,cancer line,skin;MT-3,epithelial,cancer line,breast;NCI-H1651,epithelial,cancer line,lung;NCI-H1915,large cell,cancer line,lung;NCI-H2023,,cancer line,lung;PE/CA-PJ15,epithelial-like,cancer line,head &amp; neck;PL4,,cancer line,pancreas;SK-OV-3,epithelial,cancer line,ovary;SW527,epithelial,cancer line,breast;SW620,epithelial,cancer line,intestine;T24,epithelial,cancer line,urinary bladder;WiDr,epithelial,cancer line,intestine</t>
-  </si>
-  <si>
-    <t>GW843682,small molecule;Tozasertib,small molecule;BI-2536,small molecule;Taxol,small molecule;Staurosporine,small molecule;RO-3306,small molecule;MPS-1-IN-1,small molecule;XMD-12,small molecule</t>
-  </si>
-  <si>
-    <t>http://lincs.hms.harvard.edu/db/datasets/?search=&amp;extra_form_shown=True&amp;dataset_type_shown=on&amp;dataset_type=MGH%2FCMT+Growth+Inhibition</t>
-  </si>
-  <si>
-    <t>http://lincs.hms.harvard.edu/db/datasets/?search=&amp;extra_form_shown=true&amp;dataset_type_shown=on&amp;dataset_type=KiNativ</t>
-  </si>
-  <si>
-    <t>5637,epithelial,cancer line,urinary bladder;BPH-1,epitheloid,cancer line,prostate;COLO-800,epithelial-like,cancer line,skin;HUTU-80,epithelial,cancer line,intestine;IA-LM,,cancer line,lung;IST-MEL1,epithelial-like,cancer line,skin;KATO III,spherical,cancer line,stomach;KYSE-140,,cancer line,esophagus;KYSE-180,epitheloid,cancer line,esophagus;NCI-H1648,,cancer line,lung;NCI-H1703,epithelial,cancer line,lung;NCI-H810,epithelial,cancer line,lung;PC-9,,cancer line,lung;SJCRH30,fibroblast,cancer line,muscle;SK-LMS-1,,cancer line,uterus;SK-MES,epithelial,cancer line,lung;SNB75,,cancer line,brain</t>
-  </si>
-  <si>
-    <t>17\cell lines</t>
-  </si>
-  <si>
-    <t>33\cell lines</t>
-  </si>
-  <si>
-    <t>false\small molecules,8</t>
-  </si>
-  <si>
-    <t>Moerke 3 Color Apoptosis: Dose response of anti-mitotic compounds in human cancer cell lines at 24 and 48 hours to determine their effects on apoptosis and cell death. In this assay, the cell-permeable DNA dye Hoechst 33342 is used to stain the nuclei of all cells. The fluorescent caspase 3 reporter NucView488 stains the nuclei of cells undergoing apoptosis (in which caspase 3 is active), and the cell-impermeable DNA dye TO-PRO3 stains only the nuclei of dead or dying cells in which membrane integrity is compromised.</t>
-  </si>
-  <si>
-    <t>Moerke 2 Color Apoptosis: IA-LM, IST-MEL1, NCI-H1648, PC-9 and SK-LMS-1 cells. Dose response of anti-mitotic compounds in human cancer cell lines at 24, 48, and 72 hours to determine their effects on apoptosis. In this assay, the cell-permeable DNA dye Hoechst 33342 is used to stain the nuclei of all cells. The fluorescent caspase 3 reporter NucView488 stains the nuclei of cells undergoing apoptosis (in which caspase 3 is active).</t>
-  </si>
-  <si>
     <t>name1,type1(cell line or iPSC differentiated),class1(cell line,cancer line,…)\control-or-disease,tissue1;name2,type2,class2,tissue2</t>
   </si>
   <si>
-    <t>COLO-800,epithelial-like,cancer line,skin;IA-LM,,cancer line,lung;IST-MEL1,epithelial-like,cancer line,skin;NCI-H1648,,cancer line,lung;PC-9,,cancer line,lung</t>
-  </si>
-  <si>
-    <t>24,48;hrs;2</t>
-  </si>
-  <si>
-    <t>5637,epithelial,cancer line,urinary bladder;BPH-1,epitheloid,cancer line,prostate;HUTU-80,epithelial,cancer line,intestine;KYSE-140,,cancer line,esophagus;KYSE-180,epitheloid,cancer line,esophagus;NCI-H810,epithelial,cancer line,lung;SK-LMS-1,,cancer line,uterus</t>
-  </si>
-  <si>
-    <t>false\small molecules,25</t>
-  </si>
-  <si>
-    <t>564\cell lines</t>
-  </si>
-  <si>
-    <t>1205Lu,,cancer line,skin;1321N1,,cancer line,brain;143B,,cancer line,bone;143B PML BK TK,,cancer line,bone;1A6,,cancer line,urinary bladder;22RV1,,cancer line,prostate;23132/87,,cancer line,stomach;42-MG-BA,,cancer line,brain;5637,epithelial,cancer line,urinary bladder;621-101,,cancer line,kidney;639-V,,cancer line,ureter;647-V,epithelial-like,cancer line,urinary bladder;769-P,,cancer line,kidney;786-O,,cancer line,kidney;8305C,,cancer line,thyroid;8505C,,cancer line,thyroid;A172,,cancer line,brain;A-204,,cancer line,muscle;A2058,,cancer line,skin;A2780,,cancer line,ovary;A2780ADR,,cancer line,ovary;A373-C6,,cancer line,skin;A-375,epithelial,cancer line,skin;A375.S2,epithelial,cancer line,skin;A-427,,cancer line,lung;A431,,cancer line,skin;A549,,cancer line,lung;A673,,cancer line,muscle;ABC-1,,cancer line,lung;ACHN,,cancer line,kidney;AGS,epithelial,cancer line,stomach;AN3CA,,cancer line,uterus;ASH-3,,cancer line,thyroid;AsPC-1,,cancer line,pancreas;AU565,,cancer line,breast;AZ-521,,cancer line,stomach;B-CPAP,,cancer line,thyroid;BE(2)-C,,cancer line,nervous system;BEN,,cancer line,lung;BeWo,,cancer line,miscellaneous;BFTC-905,,cancer line,urinary bladder;BFTC-909,,cancer line,kidney;BHT-101,,cancer line,thyroid;BHY,,cancer line,head &amp; neck;BICR 10,,cancer line,head &amp; neck;BICR 22,,cancer line,head &amp; neck;BICR 31,,cancer line,head &amp; neck;BICR 78,,cancer line,head &amp; neck;BPH-1,epitheloid,cancer line,prostate;BT-20,,cancer line,breast;BT-474,,cancer line,breast;BT-483,,cancer line,breast;BT-549,,cancer line,breast;BxPC-3,,cancer line,pancreas;C170,,cancer line,intestine;C2BBe1,,cancer line,intestine;C32,,cancer line,skin;C-33 A,,cancer line,cervix;C3A,,cancer line,liver;C-4 I,,cancer line,cervix;C-4 II,,cancer line,cervix;Ca9-22,epithelial-like,cancer line,head &amp; neck;Caco-2,,cancer line,intestine;Caki-1,,cancer line,kidney;CAL-120,,cancer line,breast;CAL-12T,,cancer line,lung;CAL-148,,cancer line,breast;CAL 27,,cancer line,head &amp; neck;CAL-29,,cancer line,urinary bladder;CAL-33,,cancer line,head &amp; neck;CAL-39,,cancer line,vulva;CAL-51,epithelial-like,cancer line,breast;CAL-54,,cancer line,kidney;CAL-62,,cancer line,thyroid;CAL-72,,cancer line,bone;CAL-78,,cancer line,bone;CAL-85-1,,cancer line,breast;Calu-1,epithelial,cancer line,lung;Calu-3,epithelial,cancer line,lung;CAMA-1,,cancer line,breast;Caov-3,,cancer line,ovary;Caov-4,,cancer line,ovary;Capan-1,,cancer line,pancreas;Capan-2,,cancer line,pancreas;CaR-1,,cancer line,intestine;Ca Ski,epithelial,cancer line,cervix;CCF-STTG1,,cancer line,brain;CCK-81,,cancer line,intestine;CHP-212,,cancer line,nervous system;CL-40,,cancer line,intestine;CoCM-1,,cancer line,intestine;COLO 201,,cancer line,intestine;COLO 205,,cancer line,intestine;COLO-206F,,cancer line,intestine;COLO-320,,cancer line,intestine;COLO 320DM,,cancer line,intestine;COLO-678,,cancer line,intestine;COLO-679,fibroblastic,cancer line,skin;COLO-680N,,cancer line,esophagus;COLO 741,,cancer line,intestine;COLO-783,,cancer line,skin;COLO 792,,cancer line,skin;COLO-818,,cancer line,skin;COLO-824,,cancer line,breast;COLO-849,,cancer line,skin;COLO 853,,cancer line,skin;COLO 857,,cancer line,skin;COLO 858,,cancer line,skin;COR-L 105,,cancer line,lung;COR-L23,,cancer line,lung;COR-L 23/CPR,,cancer line,lung;DAN-G,,cancer line,pancreas;Daoy,,cancer line,brain;DBTRG-05MG,,cancer line,brain;Detroit 562,,cancer line,head &amp; neck;DK-MG,,cancer line,brain;DLD-1,,cancer line,intestine;DMS 273,,cancer line,lung;DMS 53,,cancer line,lung;DOK,,cancer line,head &amp; neck;DoTc2 4510,,cancer line,cervix;DU 145,,cancer line,prostate;DV-90,,cancer line,lung;EBC-1,,cancer line,lung;EFE-184,,cancer line,uterus;EFM-19,,cancer line,breast;EFM-192A,,cancer line,breast;EFM-192B,,cancer line,breast;EFM-192C,,cancer line,breast;EFO-21,,cancer line,ovary;EFO-27,,cancer line,ovary;EGI-1,,cancer line,biliary tract;EJ138,,cancer line,urinary bladder;EN,,cancer line,uterus;EPLC-272H,,cancer line,lung;ES-2,,cancer line,ovary;ESS-1,,cancer line,uterus;EVSA-T,,cancer line,breast;FaDu,,cancer line,head &amp; neck;FLYA13,,cancer line,miscellaneous;FTC-133,,cancer line,thyroid;FTC-238,,cancer line,thyroid;FU97,epithelial-like,cancer line,stomach;FU-OV-1,,cancer line,ovary;G-292 Clone A141B1,,cancer line,bone;G-361,,cancer line,skin;G-401,,cancer line,kidney;G-402,,cancer line,kidney;GAMG,,cancer line,brain;GCT,,cancer line,miscellaneous;GMS-10,,cancer line,brain;GOS-3,,cancer line,brain;GP5d,,cancer line,intestine;H4,,cancer line,brain;H69V,,cancer line,lung;HARA,,cancer line,lung;HCC1143,,cancer line,breast;HCC1395,,cancer line,breast;HCC1419,,cancer line,breast;HCC1428,,cancer line,breast;HCC-15,,cancer line,lung;HCC1569,,cancer line,breast;HCC1806,,cancer line,breast;HCC1937,,cancer line,breast;HCC1954,,cancer line,breast;HCC202,,cancer line,breast;HCC-366,,cancer line,lung;HCC38,,cancer line,breast;HCC-44,,cancer line,lung;HCC-56,,cancer line,intestine;HCC70,,cancer line,breast;HCC-78,,cancer line,lung;HCC-827,,cancer line,lung;HCT 116,,cancer line,intestine;HCT-15,,cancer line,intestine;HCT-8,,cancer line,intestine;HDQ-P1,,cancer line,breast;HEC-1,,cancer line,uterus;HeLa,epithelial,cancer line,cervix;H-EMC-SS,,cancer line,bone;Hep 3B2.1-7,epithelial,cancer line,liver;Hep G2,epithelial,cancer line,liver;HGC-27,,cancer line,stomach;HLE,,cancer line,liver;HLF,,cancer line,liver;HMVII,,cancer line,skin;HN,,cancer line,head &amp; neck;HO-1-N-1,,cancer line,head &amp; neck;HO-1-u-1,,cancer line,head &amp; neck;HOS,,cancer line,bone;HPAC,,cancer line,pancreas;HPAF-II,,cancer line,pancreas;HRT-18,,cancer line,intestine;Hs 257.T,,cancer line,intestine;Hs 578T,,cancer line,breast;Hs 588.T,,cancer line,cervix;Hs 633T,,cancer line,miscellaneous;Hs 683,,cancer line,brain;Hs 746T,,cancer line,stomach;Hs 766T,,cancer line,pancreas;HSC-2,,cancer line,head &amp; neck;HSC-3,,cancer line,head &amp; neck;HSC-4,,cancer line,head &amp; neck;HT 1080,,cancer line,miscellaneous;HT115,,cancer line,intestine;HT-1197,,cancer line,urinary bladder;HT 1376,,cancer line,urinary bladder;HT-29,,cancer line,intestine;HT-3,,cancer line,cervix;HT55,,cancer line,intestine;HTC-C3,,cancer line,thyroid;HuCCT1,,cancer line,biliary tract;huH-1,,cancer line,liver;Huh7,,cancer line,liver;HuO-3N1,,cancer line,bone;HuO9,,cancer line,bone;HuO9N2,,cancer line,bone;HUP-T3,,cancer line,pancreas;HUP-T4,,cancer line,pancreas;IGR-1,,cancer line,skin;IGR-37,,cancer line,skin;IGR-39,,cancer line,skin;IHH-4,,cancer line,thyroid;IM-95,,cancer line,stomach;IM-95m,,cancer line,stomach;IMR-32,,cancer line,nervous system;IPC-298,,cancer line,skin;Ishikawa,epithelial-like,cancer line,uterus;Ishikawa (Heraklio) 02 ER-,epithelial,cancer line,uterus;J82,,cancer line,urinary bladder;JAR,,cancer line,miscellaneous;JHH-1,,cancer line,liver;JHH-2,,cancer line,liver;JHH-4,,cancer line,liver;JHH-6,epithelial-like,cancer line,liver;JHH-7,,cancer line,liver;JIMT-1,,cancer line,breast;KATO III,spherical,cancer line,stomach;KELLY,,cancer line,nervous system;KG-1-C,,cancer line,brain;KHM-3S,,cancer line,lung;KHOS-240S,,cancer line,bone;KHOS-312H,,cancer line,bone;KHOS/NP,,cancer line,bone;KMH-2,,cancer line,thyroid;KMRC-1,,cancer line,kidney;KMRC-20,epithelial-like,cancer line,kidney;KON,,cancer line,head &amp; neck;KOSC-2 cl3-43,,cancer line,head &amp; neck;KP-2,,cancer line,pancreas;KP-3,,cancer line,pancreas;KP-3L,,cancer line,pancreas;KP-4,,cancer line,pancreas;KPL-1,,cancer line,breast;KU-19-19,,cancer line,urinary bladder;KYSE-140,,cancer line,esophagus;KYSE-150,epitheloid,cancer line,esophagus;KYSE-180,epitheloid,cancer line,esophagus;KYSE-220,,cancer line,esophagus;KYSE-270,,cancer line,esophagus;KYSE-30,,cancer line,esophagus;KYSE-410,,cancer line,esophagus;KYSE-450,epitheloid,cancer line,esophagus;KYSE-50,,cancer line,esophagus;KYSE-510,,cancer line,esophagus;KYSE-520,,cancer line,esophagus;KYSE-70,,cancer line,esophagus;LC-1 sq,,cancer line,lung;LCLC-103H,,cancer line,lung;LCLC-97TM1,,cancer line,lung;LK-2,,cancer line,lung;LN-18,,cancer line,brain;LN-229,,cancer line,brain;LN-405,,cancer line,brain;LNZTA3WT11,,cancer line,brain;LNZTA3WT4,,cancer line,brain;LOU-NH91,,cancer line,lung;LoVo,,cancer line,intestine;LS174T,,cancer line,intestine;LS180,,cancer line,intestine;Lu-134-A-H,,cancer line,lung;Lu-135,,cancer line,lung;LU65,,cancer line,lung;LU65A,,cancer line,lung;LU65B,,cancer line,lung;LU65C,,cancer line,lung;LU99A,,cancer line,lung;LU99B,,cancer line,lung;LU99C,,cancer line,lung;LUDLU-1,,cancer line,lung;M059J,,cancer line,brain;MB 157,,cancer line,breast;MCAS,,cancer line,ovary;MCF7,epithelial,cancer line,breast;MC-IXC,,cancer line,nervous system;MDA-MB-134-VI,,cancer line,breast;MDA-MB-157,,cancer line,breast;MDA-MB-175-VII,,cancer line,breast;MDA-MB-231,epithelial,cancer line,breast;MDA-MB-330,,cancer line,breast;MDA-MB-361,,cancer line,breast;MDA-MB-415,,cancer line,breast;MDA-MB-435S,melanocyte,cancer line,skin;MDA-MB-436,,cancer line,breast;MDA-MB-453,,cancer line,breast;MDA-MB-468,,cancer line,breast;MDST8,,cancer line,intestine;ME-180,,cancer line,cervix;MEL-HO,,cancer line,skin;MEL-JUSO,,cancer line,skin;MES-SA,,cancer line,uterus;MES-SA/Dx-5,,cancer line,uterus;MEWO,,cancer line,skin;MFE-280,,cancer line,uterus;MFE-296,,cancer line,uterus;MFE-319,,cancer line,uterus;MFM-223,,cancer line,breast;MG-63,,cancer line,bone;MHH-ES-1,,cancer line,nervous system;MIA PaCa-2,,cancer line,pancreas;MKN1,,cancer line,stomach;MKN28,,cancer line,stomach;MKN45,,cancer line,stomach;MKN7,,cancer line,stomach;MKN74,,cancer line,stomach;ML-1,,cancer line,thyroid;MOG-G-CCM,,cancer line,brain;MOG-G-UVW,,cancer line,brain;MS751,,cancer line,cervix;MSTO-211H,,cancer line,pleura;MT-3,epithelial,cancer line,breast;NB69,,cancer line,nervous system;NCC-IT-A3,,cancer line,testes;NCI-H1048,,cancer line,lung;NCI-H1299,,cancer line,lung;NCI-H1435,,cancer line,lung;NCI-H1437,,cancer line,lung;NCI-H1568,,cancer line,lung;NCI-H1573,,cancer line,lung;NCI-H1581,,cancer line,lung;NCI-H1623,,cancer line,lung;NCI-H1648,,cancer line,lung;NCI-H1650,,cancer line,lung;NCI-H1651,epithelial,cancer line,lung;NCI-H1688,,cancer line,lung;NCI-H1693,,cancer line,lung;NCI-H1703,epithelial,cancer line,lung;NCI-H1734,,cancer line,lung;NCI-H1755,,cancer line,lung;NCI-H1781,,cancer line,lung;NCI-H1792,,cancer line,lung;NCI-H1793,,cancer line,lung;NCI-H1869,,cancer line,lung;NCI-H1876,,cancer line,lung;NCI-H1915,large cell,cancer line,lung;NCI-H1944,,cancer line,lung;NCI-H196,,cancer line,lung;NCI-H1993,,cancer line,lung;NCI-H2009,,cancer line,lung;NCI-H2023,,cancer line,lung;NCI-H2029,,cancer line,lung;NCI-H2030,,cancer line,lung;NCI-H2073,,cancer line,lung;NCI-H2085,,cancer line,lung;NCI-H2087,,cancer line,lung;NCI-H2110,,cancer line,lung;NCI-H2122,,cancer line,lung;NCI-H2135,,cancer line,lung;NCI-H2170,,cancer line,lung;NCI-H2172,,cancer line,lung;NCI-H2195,,cancer line,lung;NCI-H2196,,cancer line,lung;NCI-H2198,,cancer line,lung;NCI-H2228,,cancer line,lung;NCI-H2286,,cancer line,lung;NCI-H2291,,cancer line,lung;NCI-H23,,cancer line,lung;NCI-H2342,,cancer line,lung;NCI-H2347,,cancer line,lung;NCI-H2405,,cancer line,lung;NCI-H2444,,cancer line,lung;NCI-H2452,,cancer line,lung;NCI-H3122,,cancer line,lung;NCI-H322,,cancer line,lung;NCI-H358,,cancer line,lung;NCI-H441,,cancer line,lung;NCI-H460,,cancer line,lung;NCI-H520,,cancer line,lung;NCI-H522,,cancer line,lung;NCI-H596,,cancer line,lung;NCI-H630,,cancer line,intestine;NCI-H647,,cancer line,lung;NCI-H650,,cancer line,lung;NCI-H661,,cancer line,lung;NCI-H727,,cancer line,lung;NCI-H810,epithelial,cancer line,lung;NCI-H838,,cancer line,lung;NCI-H841,,cancer line,lung;NCI-N87,,cancer line,stomach;NIH:OVCAR-3,,cancer line,ovary;NUGC-2,,cancer line,stomach;NUGC-3,,cancer line,stomach;NUGC-4,,cancer line,stomach;NY,,cancer line,bone;OAW28,,cancer line,ovary;OAW42,,cancer line,ovary;OCUG-1,,cancer line,gall bladder;OCUM-1,,cancer line,stomach;OE19,,cancer line,esophagus;OE21,,cancer line,esophagus;OE33,,cancer line,esophagus;OSC-19,,cancer line,head &amp; neck;OSC-20,,cancer line,head &amp; neck;OUMS-23,,cancer line,intestine;OV-90,,cancer line,ovary;OVISE,,cancer line,ovary;OVKATE,,cancer line,ovary;OVMIU,,cancer line,ovary;OVSAYO,,cancer line,ovary;OVTOKO,,cancer line,ovary;PA-1,,cancer line,ovary;Panc 02.03,,cancer line,pancreas;Panc 03.27,,cancer line,pancreas;Panc 04.03,,cancer line,pancreas;Panc 08.13,,cancer line,pancreas;PANC-1,,cancer line,pancreas;Panc 10.05,,cancer line,pancreas;PA-TU-8902,,cancer line,pancreas;PA-TU-8988S,,cancer line,pancreas;PA-TU-8988T,,cancer line,pancreas;PC-14,,cancer line,lung;PC-3,,cancer line,prostate;PC-9,,cancer line,lung;PE/CA-PJ15,epithelial-like,cancer line,head &amp; neck;PFSK-1,,cancer line,brain;PL4,,cancer line,pancreas;PL45,,cancer line,pancreas;PLC/PRF/5,,cancer line,liver;QGP-1,,cancer line,pancreas;RCM-1,,cancer line,intestine;RD,,cancer line,muscle;RD-ES,,cancer line,nervous system;RERF-GC-1B,,cancer line,stomach;RERF-LC-Ad1,,cancer line,lung;RERF-LC-KJ,,cancer line,lung;RERF-LC-MA,,cancer line,lung;RERF-LC-Sq1,,cancer line,lung;RKN,,cancer line,ovary;RMG-I,,cancer line,ovary;RO82-W-1,,cancer line,thyroid;RPMI 2650,,cancer line,head &amp; neck;RPMI-7951,,cancer line,skin;RT-112,,cancer line,urinary bladder;RT112/84,,cancer line,urinary bladder;RT4,,cancer line,urinary bladder;RVH-421,,cancer line,skin;S-117,,cancer line,thyroid;Saos-2,,cancer line,bone;SAS,,cancer line,head &amp; neck;SAT,,cancer line,head &amp; neck;SBC-3,,cancer line,lung;SBC-5,,cancer line,lung;SCaBER,,cancer line,urinary bladder;SCC-15,,cancer line,head &amp; neck;SCC-25,,cancer line,head &amp; neck;SCC-4,,cancer line,head &amp; neck;SCC-9,,cancer line,head &amp; neck;SCCH-196,,cancer line,miscellaneous;SCCH-26,,cancer line,nervous system;SCH,,cancer line,stomach;SCLC-21H,,cancer line,lung;SHP-77,,cancer line,lung;SH-SY5Y,,cancer line,nervous system;SiHa,,cancer line,cervix;SISO,,cancer line,cervix;SJCRH30,fibroblast,cancer line,muscle;SK-BR-3,epithelial,cancer line,breast;SK-CO-1,,cancer line,intestine;SK-ES-1,,cancer line,bone;SKG-IIIa,,cancer line,cervix;SKG-IIIb,,cancer line,cervix;SK-HEP-1,,cancer line,liver;SK-LU-1,,cancer line,lung;SK-MEL-2,,cancer line,skin;SK-MEL-30,,cancer line,skin;SK-MES,epithelial,cancer line,lung;SKN,,cancer line,uterus;SKN-3,,cancer line,head &amp; neck;SK-N-AS,,cancer line,nervous system;SK-N-DZ,,cancer line,nervous system;SK-NEP-1,,cancer line,kidney;SK-N-SH,,cancer line,nervous system;SK-OV-3,epithelial,cancer line,ovary;SNG-M,,cancer line,uterus;SNU-1,,cancer line,stomach;SNU-16,,cancer line,stomach;SNU-182,,cancer line,liver;SNU-387,,cancer line,liver;SNU-398,,cancer line,liver;SNU-423,,cancer line,liver;SNU-449,,cancer line,liver;SNU-475,,cancer line,liver;SNU-5,,cancer line,stomach;STC 1,,cancer line,lung;SU.86.86,,cancer line,pancreas;SUIT-2,,cancer line,pancreas;SW 1088,,cancer line,brain;SW 1116,,cancer line,intestine;SW 1271,,cancer line,lung;SW 13,,cancer line,adrenal gland;SW 1417,,cancer line,intestine;SW 1463,,cancer line,intestine;SW 156,,cancer line,kidney;SW 1573,,cancer line,lung;SW-1710,,cancer line,urinary bladder;SW 1783,,cancer line,brain;SW 48,,cancer line,intestine;SW527,epithelial,cancer line,breast;SW620,epithelial,cancer line,intestine;SW 626,,cancer line,ovary;SW756,,cancer line,cervix;SW 780,,cancer line,urinary bladder;SW837,,cancer line,intestine;SW 900,,cancer line,lung;SW-948,,cancer line,intestine;T24,epithelial,cancer line,urinary bladder;T47D,,cancer line,breast;T84,,cancer line,intestine;T98G,,cancer line,brain;TASK1,,cancer line,nervous system;TCCSUP,,cancer line,urinary bladder;TGW,,cancer line,adrenal gland;TOV-112D,,cancer line,ovary;TOV-21G,,cancer line,ovary;T.T,,cancer line,esophagus;TT2609-C02,,cancer line,thyroid;T.Tn,,cancer line,esophagus;TYK-nu,,cancer line,ovary;U-118 MG,,cancer line,brain;U-138 MG,,cancer line,brain;U-251 MG,,cancer line,brain;U-2 OS,,cancer line,bone;U373 MG,,cancer line,brain;UACC-812,,cancer line,breast;UACC-893,,cancer line,breast;UMC-11,,cancer line,lung;UM-UC-3,,cancer line,urinary bladder;VCaP,,cancer line,prostate;VM-CUB1,,cancer line,urinary bladder;VMRC-LCP,,cancer line,lung;VMRC-MELG,,cancer line,skin;VMRC-RCW,,cancer line,kidney;VMRC-RCZ,,cancer line,kidney;WiDr,epithelial,cancer line,intestine;WM-115,,cancer line,skin;WM1552C,,cancer line,skin;WM 266-4,,cancer line,skin;WM278,,cancer line,skin;WM35,,cancer line,skin;WM793B,,cancer line,skin;YAPC,,cancer line,pancreas;YKG-1,,cancer line,brain;ZR-75-1,,cancer line,breast;ZR-75-30,,cancer line,breast</t>
-  </si>
-  <si>
-    <t>MGH (CMT) Growth Inhibition Assay Protocol (3 compound doses) -- DNA Staining 20006</t>
-  </si>
-  <si>
-    <t>Sorafenib,small molecule;GW-5074,small molecule;SB590885,small molecule;PLX-4720,small molecule;AZ-628,small molecule;PLX4032,small molecule;HG-6-64-01,small molecule;Torin1,small molecule;Torin2,small molecule;XMD11-50,small molecule;XMD11-85h,small molecule;XMD16-144,small molecule;JWE-035,small molecule;XMD8-85,small molecule;XMD8-92,small molecule;XMD-12,small molecule;NVP-BHG712,small molecule;CH5424802,small molecule;NPK76-II-72-1,small molecule;QL-X-138,small molecule;PCI-32765,small molecule;BX795,small molecule;OTSSP167,small molecule;DCC-2036,small molecule</t>
-  </si>
-  <si>
-    <t>KiNativ</t>
-  </si>
-  <si>
-    <t>The KiNativ assay platform is based on the use of biotinylated acyl phosphates of ATP or ADP that act as probes by reacting with protein kinases on conserved lysine residues in the ATP binding pocket to covalently attach a biotin moiety.  Using these probes, cell lysates treated with a kinase inhibitor can be labeled with BHAcATP or BHAcADP, with kinases inhibited by the compound of interest exhibiting reduced or no labeling.  This is followed by digestion with trypsin, isolation of biotinylated peptides, and analysis by mass spectrometry to determine the extent of labeling of peptides from each kinase.</t>
-  </si>
-  <si>
-    <t>The KINOMEscan assay platform is based on a competition binding assay that is run for a compound of interest against each of a panel of 317 to 456 kinases. The assay has three components: a kinase-tagged phage, a test compound, and an immobilized ligand that the compound competes with to displace the kinase. The amount of kinase bound to the immobilized ligand is determined using quantitative PCR of the DNA tag.  Results for each kinase are reported as "Percent of control", where the control is DMSO and where a 100% result means no inhibition of kinase binding to the ligand in the presence of the compound, and where low percent results mean strong inhibition. The KINOMEscan data are presented graphically on TREEspot Kinase Dendrograms (http://www.kinomescan.com/Tools---Resources/Study-Reports---Data-Analysis).  For this study, HMS LINCS investigators have graphed results for kinases classified as 35 "percent of control" (in the presence of the compound, the kinase is 35% as active for binding ligand in the presence of DMSO), 5 "percent of control" and 1 "percent of control".</t>
-  </si>
-  <si>
-    <t>false\small molecules,4</t>
+    <t>DTOXS</t>
+  </si>
+  <si>
+    <t>HMS-LINCS</t>
+  </si>
+  <si>
+    <t>Broad-LINCS-Transcriptomics</t>
+  </si>
+  <si>
+    <t>Broad-LINCS-PCCSE</t>
+  </si>
+  <si>
+    <t>MEP-LINCS</t>
+  </si>
+  <si>
+    <t>NeuroLINCS</t>
+  </si>
+  <si>
+    <t>phase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1100,18 +898,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF121212"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
@@ -1125,24 +911,8 @@
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF121212"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri (Body)"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1177,19 +947,8 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1249,697 +1008,670 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="657">
+  <cellStyleXfs count="658">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,13 +1680,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="377" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="377" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,20 +1698,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="649" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="649" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="140" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1988,61 +1719,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="377" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="377" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="649" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="653" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="653" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="653" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="653" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="653" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="653" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="653" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="657">
+  <cellStyles count="658">
     <cellStyle name="Bad" xfId="43" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2369,9 +2065,11 @@
     <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2699,7 +2397,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="140"/>
     <cellStyle name="Normal 2 3" xfId="522"/>
-    <cellStyle name="Note" xfId="653" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3036,38 +2733,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y164"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="105.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
     <col min="4" max="4" width="142" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="36.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="28.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="50.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="50" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.1640625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="104.83203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="3"/>
+    <col min="20" max="20" width="41.125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="104.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="32">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3090,7 +2787,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>45</v>
@@ -3120,19 +2817,22 @@
         <v>1</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="V1" s="11"/>
+        <v>259</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="D2" s="2" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -3141,7 +2841,7 @@
         <v>174</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>46</v>
@@ -3168,19 +2868,19 @@
         <v>67</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="V2" s="11"/>
+        <v>260</v>
+      </c>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="K3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="V3" s="11"/>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="17" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
@@ -3189,10 +2889,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>29</v>
@@ -3216,26 +2916,26 @@
         <v>161</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>42124</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <v>42124</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>42124</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>42124</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="11"/>
       <c r="T4" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="17" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>24</v>
@@ -3244,10 +2944,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>29</v>
@@ -3271,26 +2971,26 @@
         <v>162</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>42124</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>42124</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>42124</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>42124</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="11"/>
       <c r="T5" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="17" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
@@ -3299,10 +2999,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>29</v>
@@ -3326,26 +3026,26 @@
         <v>163</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>42124</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <v>42124</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <v>42124</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <v>42124</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="11"/>
       <c r="T6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="17" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -3354,10 +3054,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>29</v>
@@ -3381,19 +3081,19 @@
         <v>161</v>
       </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>42216</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <v>42216</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>42216</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>42216</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="11"/>
       <c r="T7" s="3">
         <v>2</v>
       </c>
@@ -3401,7 +3101,7 @@
     </row>
     <row r="8" spans="1:22" ht="17" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -3410,10 +3110,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>29</v>
@@ -3437,19 +3137,19 @@
         <v>162</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>42216</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>42216</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <v>42216</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>42216</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="11"/>
       <c r="T8" s="3">
         <v>2</v>
       </c>
@@ -3457,7 +3157,7 @@
     </row>
     <row r="9" spans="1:22" ht="17" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -3466,7 +3166,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>29</v>
@@ -3490,27 +3190,27 @@
         <v>163</v>
       </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>42216</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>42216</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <v>42216</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <v>42216</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="S9" s="3">
-        <v>2</v>
-      </c>
-      <c r="T9" s="1"/>
+      <c r="Q9" s="11"/>
+      <c r="T9" s="3">
+        <v>2</v>
+      </c>
+      <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="17" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -3519,7 +3219,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
@@ -3543,27 +3243,27 @@
         <v>161</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>42292</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>42292</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>42292</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>42292</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="S10" s="3">
-        <v>2</v>
-      </c>
-      <c r="T10" s="1"/>
+      <c r="Q10" s="11"/>
+      <c r="T10" s="3">
+        <v>2</v>
+      </c>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="17" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -3572,7 +3272,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>29</v>
@@ -3596,27 +3296,27 @@
         <v>162</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>42292</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>42292</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>42292</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <v>42292</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="S11" s="3">
-        <v>2</v>
-      </c>
-      <c r="T11" s="1"/>
+      <c r="Q11" s="11"/>
+      <c r="T11" s="3">
+        <v>2</v>
+      </c>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="17" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -3625,7 +3325,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>29</v>
@@ -3649,27 +3349,27 @@
         <v>163</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>42292</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>42292</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>42292</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <v>42292</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="S12" s="3">
-        <v>2</v>
-      </c>
-      <c r="T12" s="1"/>
+      <c r="Q12" s="11"/>
+      <c r="T12" s="3">
+        <v>2</v>
+      </c>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="17" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -3678,7 +3378,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
@@ -3702,27 +3402,27 @@
         <v>161</v>
       </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>42292</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>42292</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>42292</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>42292</v>
       </c>
-      <c r="Q13" s="12"/>
-      <c r="S13" s="3">
-        <v>2</v>
-      </c>
-      <c r="T13" s="1"/>
+      <c r="Q13" s="11"/>
+      <c r="T13" s="3">
+        <v>2</v>
+      </c>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="17" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -3731,7 +3431,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>29</v>
@@ -3755,27 +3455,27 @@
         <v>162</v>
       </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>42292</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <v>42292</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <v>42292</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="11">
         <v>42292</v>
       </c>
-      <c r="Q14" s="12"/>
-      <c r="S14" s="3">
-        <v>2</v>
-      </c>
-      <c r="T14" s="1"/>
+      <c r="Q14" s="11"/>
+      <c r="T14" s="3">
+        <v>2</v>
+      </c>
+      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="17" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -3784,7 +3484,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>29</v>
@@ -3808,27 +3508,27 @@
         <v>163</v>
       </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>42292</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <v>42292</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <v>42292</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>42292</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="S15" s="3">
-        <v>2</v>
-      </c>
-      <c r="T15" s="1"/>
+      <c r="Q15" s="11"/>
+      <c r="T15" s="3">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="17" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -3837,7 +3537,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>29</v>
@@ -3861,27 +3561,27 @@
         <v>161</v>
       </c>
       <c r="L16" s="5"/>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>42400</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>42400</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>42400</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <v>42400</v>
       </c>
-      <c r="Q16" s="12"/>
-      <c r="S16" s="3">
-        <v>2</v>
-      </c>
-      <c r="T16" s="1"/>
+      <c r="Q16" s="11"/>
+      <c r="T16" s="3">
+        <v>2</v>
+      </c>
+      <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="17" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -3890,10 +3590,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>29</v>
@@ -3917,19 +3617,19 @@
         <v>162</v>
       </c>
       <c r="M17" s="5"/>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <v>42400</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <v>42400</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="11">
         <v>42400</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="11">
         <v>42400</v>
       </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="11"/>
       <c r="T17" s="3">
         <v>2</v>
       </c>
@@ -3937,7 +3637,7 @@
     </row>
     <row r="18" spans="1:21" ht="17" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -3946,10 +3646,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>29</v>
@@ -3973,19 +3673,19 @@
         <v>163</v>
       </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="12">
+      <c r="N18" s="11">
         <v>42400</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="11">
         <v>42400</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="11">
         <v>42400</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="11">
         <v>42400</v>
       </c>
-      <c r="R18" s="12"/>
+      <c r="R18" s="11"/>
       <c r="T18" s="3">
         <v>2</v>
       </c>
@@ -3994,7 +3694,7 @@
     <row r="19" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="20" spans="1:21" ht="17" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
@@ -4003,10 +3703,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
@@ -4027,22 +3727,22 @@
         <v>16</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M20" s="5"/>
-      <c r="N20" s="12">
+      <c r="N20" s="11">
         <v>42185</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="11">
         <v>42185</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="11">
         <v>42185</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="11">
         <v>42185</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="11"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <v>2</v>
@@ -4050,7 +3750,7 @@
     </row>
     <row r="21" spans="1:21" ht="17" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
@@ -4059,10 +3759,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -4083,22 +3783,22 @@
         <v>16</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M21" s="5"/>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <v>42185</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="11">
         <v>42185</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="11">
         <v>42185</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11">
         <v>42185</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="11"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1">
         <v>2</v>
@@ -4106,7 +3806,7 @@
     </row>
     <row r="22" spans="1:21" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
@@ -4115,10 +3815,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>60</v>
@@ -4139,22 +3839,22 @@
         <v>3</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <v>42185</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="11">
         <v>42185</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="11">
         <v>42185</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <v>42185</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="11"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <v>2</v>
@@ -4162,7 +3862,7 @@
     </row>
     <row r="23" spans="1:21" ht="17" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
@@ -4171,10 +3871,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>60</v>
@@ -4195,22 +3895,22 @@
         <v>3</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M23" s="5"/>
-      <c r="N23" s="12">
+      <c r="N23" s="11">
         <v>42185</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="11">
         <v>42185</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="11">
         <v>42185</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="11">
         <v>42185</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="11"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1">
         <v>2</v>
@@ -4219,7 +3919,7 @@
     <row r="24" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="25" spans="1:21" ht="17" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>199</v>
@@ -4228,10 +3928,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>59</v>
@@ -4251,22 +3951,22 @@
       <c r="K25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="12" t="s">
         <v>164</v>
       </c>
       <c r="M25" s="3">
         <v>1</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="11">
         <v>42004</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="11">
         <v>42004</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="14" t="s">
-        <v>258</v>
+      <c r="R25" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1">
@@ -4275,7 +3975,7 @@
     </row>
     <row r="26" spans="1:21" ht="17" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>200</v>
@@ -4284,10 +3984,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>59</v>
@@ -4307,20 +4007,20 @@
       <c r="K26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>236</v>
+      <c r="L26" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="M26" s="5">
         <v>1</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="12">
+      <c r="P26" s="11">
         <v>42004</v>
       </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="14" t="s">
-        <v>259</v>
+      <c r="R26" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1">
@@ -4329,7 +4029,7 @@
     </row>
     <row r="27" spans="1:21" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>201</v>
@@ -4338,10 +4038,10 @@
         <v>42</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>43</v>
@@ -4361,26 +4061,26 @@
       <c r="K27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="12" t="s">
         <v>165</v>
       </c>
       <c r="M27" s="3">
         <v>2</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="11">
         <v>42094</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="11">
         <v>42094</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="11">
         <v>42094</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q27" s="11">
         <v>42094</v>
       </c>
-      <c r="R27" s="14" t="s">
-        <v>260</v>
+      <c r="R27" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
@@ -4389,7 +4089,7 @@
     </row>
     <row r="28" spans="1:21" ht="17" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>202</v>
@@ -4398,10 +4098,10 @@
         <v>141</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>43</v>
@@ -4421,26 +4121,26 @@
       <c r="K28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>235</v>
+      <c r="L28" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="M28" s="3">
         <v>21</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="11">
         <v>42094</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="11">
         <v>42094</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="11">
         <v>42094</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="Q28" s="11">
         <v>42094</v>
       </c>
-      <c r="R28" s="14" t="s">
-        <v>261</v>
+      <c r="R28" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1">
@@ -4449,7 +4149,7 @@
     </row>
     <row r="29" spans="1:21" ht="17" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>203</v>
@@ -4458,10 +4158,10 @@
         <v>142</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>44</v>
@@ -4481,26 +4181,26 @@
       <c r="K29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="12" t="s">
         <v>166</v>
       </c>
       <c r="M29" s="3">
         <v>7</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="11">
         <v>42094</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="11">
         <v>42094</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="11">
         <v>42094</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="Q29" s="11">
         <v>42094</v>
       </c>
-      <c r="R29" s="14" t="s">
-        <v>262</v>
+      <c r="R29" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1">
@@ -4509,19 +4209,19 @@
     </row>
     <row r="30" spans="1:21" ht="17" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>59</v>
@@ -4541,16 +4241,16 @@
       <c r="K30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="12" t="s">
         <v>164</v>
       </c>
       <c r="M30" s="3">
         <v>1</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="11">
         <v>42185</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="11">
         <v>42185</v>
       </c>
       <c r="P30" s="1"/>
@@ -4563,7 +4263,7 @@
     </row>
     <row r="31" spans="1:21" ht="17" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>32</v>
@@ -4571,11 +4271,11 @@
       <c r="C31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>218</v>
+      <c r="D31" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>59</v>
@@ -4595,16 +4295,16 @@
       <c r="K31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="13" t="s">
-        <v>252</v>
+      <c r="L31" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="M31" s="3">
         <v>1</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="11">
         <v>42185</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="11">
         <v>42185</v>
       </c>
       <c r="P31" s="1"/>
@@ -4617,19 +4317,19 @@
     </row>
     <row r="32" spans="1:21" ht="17" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>69</v>
@@ -4649,23 +4349,23 @@
       <c r="K32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>252</v>
+      <c r="L32" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="M32" s="3">
         <v>1</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="11">
         <v>42185</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="11">
         <v>42185</v>
       </c>
       <c r="P32" s="1"/>
-      <c r="Q32" s="12">
+      <c r="Q32" s="11">
         <v>42369</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="11"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1">
         <v>2</v>
@@ -4673,19 +4373,19 @@
     </row>
     <row r="33" spans="1:21" ht="17" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>69</v>
@@ -4705,25 +4405,25 @@
       <c r="K33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="12" t="s">
         <v>164</v>
       </c>
       <c r="M33" s="3">
         <v>1</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="11">
         <v>42185</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="11">
         <v>42185</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="11">
         <v>42185</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="11">
         <v>42369</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="11"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1">
         <v>2</v>
@@ -4731,7 +4431,7 @@
     </row>
     <row r="34" spans="1:21" ht="17" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>38</v>
@@ -4763,19 +4463,19 @@
       <c r="K34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="12" t="s">
         <v>164</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="11">
         <v>42369</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="11">
         <v>42369</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="11">
         <v>42369</v>
       </c>
       <c r="Q34" s="1"/>
@@ -4787,25 +4487,25 @@
     </row>
     <row r="35" spans="1:21" ht="17" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>78</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>91</v>
@@ -4819,16 +4519,16 @@
       <c r="K35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>252</v>
+      <c r="L35" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="M35" s="3">
         <v>1</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="11">
         <v>42277</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="11">
         <v>42277</v>
       </c>
       <c r="P35" s="1"/>
@@ -4841,7 +4541,7 @@
     </row>
     <row r="36" spans="1:21" ht="17" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>79</v>
@@ -4850,10 +4550,10 @@
         <v>70</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>69</v>
@@ -4873,16 +4573,16 @@
       <c r="K36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="12" t="s">
         <v>167</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="N36" s="12">
+        <v>228</v>
+      </c>
+      <c r="N36" s="11">
         <v>42185</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="11">
         <v>42185</v>
       </c>
       <c r="P36" s="1"/>
@@ -4895,19 +4595,19 @@
     </row>
     <row r="37" spans="1:21" ht="17" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>69</v>
@@ -4927,16 +4627,16 @@
       <c r="K37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="12" t="s">
         <v>167</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="N37" s="12">
+        <v>228</v>
+      </c>
+      <c r="N37" s="11">
         <v>42277</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="11">
         <v>42277</v>
       </c>
       <c r="P37" s="1"/>
@@ -4949,7 +4649,7 @@
     </row>
     <row r="38" spans="1:21" ht="17" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>31</v>
@@ -4961,7 +4661,7 @@
         <v>55</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>56</v>
@@ -4981,25 +4681,25 @@
       <c r="K38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="12" t="s">
         <v>53</v>
       </c>
       <c r="M38" s="5">
         <v>51</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="11">
         <v>42185</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="11">
         <v>42185</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="11">
         <v>42277</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q38" s="11">
         <v>42369</v>
       </c>
-      <c r="R38" s="12"/>
+      <c r="R38" s="11"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1">
         <v>2</v>
@@ -5007,7 +4707,7 @@
     </row>
     <row r="39" spans="1:21" ht="17" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>33</v>
@@ -5019,7 +4719,7 @@
         <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>95</v>
@@ -5039,25 +4739,25 @@
       <c r="K39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="12" t="s">
         <v>53</v>
       </c>
       <c r="M39" s="3">
         <v>51</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="11">
         <v>42185</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O39" s="11">
         <v>42185</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="11">
         <v>42369</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="11">
         <v>42460</v>
       </c>
-      <c r="R39" s="12"/>
+      <c r="R39" s="11"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1">
         <v>2</v>
@@ -5065,7 +4765,7 @@
     </row>
     <row r="40" spans="1:21" ht="17" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>34</v>
@@ -5077,7 +4777,7 @@
         <v>84</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>96</v>
@@ -5097,25 +4797,25 @@
       <c r="K40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="12" t="s">
         <v>53</v>
       </c>
       <c r="M40" s="3">
         <v>51</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="11">
         <v>42277</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="11">
         <v>42369</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="11">
         <v>42460</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="Q40" s="11">
         <v>42551</v>
       </c>
-      <c r="R40" s="12"/>
+      <c r="R40" s="11"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1">
         <v>2</v>
@@ -5123,7 +4823,7 @@
     </row>
     <row r="41" spans="1:21" ht="17" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>35</v>
@@ -5132,10 +4832,10 @@
         <v>100</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>102</v>
@@ -5155,16 +4855,16 @@
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="13" t="s">
-        <v>237</v>
+      <c r="L41" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="11">
         <v>42369</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="11">
         <v>42369</v>
       </c>
       <c r="P41" s="1"/>
@@ -5177,7 +4877,7 @@
     </row>
     <row r="42" spans="1:21" ht="17" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>36</v>
@@ -5186,10 +4886,10 @@
         <v>144</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>102</v>
@@ -5209,16 +4909,16 @@
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="13" t="s">
+      <c r="L42" s="12" t="s">
         <v>165</v>
       </c>
       <c r="M42" s="3">
         <v>2</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <v>42369</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="11">
         <v>42369</v>
       </c>
       <c r="P42" s="1"/>
@@ -5231,7 +4931,7 @@
     </row>
     <row r="43" spans="1:21" ht="17" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>37</v>
@@ -5240,10 +4940,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>103</v>
@@ -5263,16 +4963,16 @@
       <c r="K43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="13" t="s">
-        <v>238</v>
+      <c r="L43" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="11">
         <v>42369</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O43" s="11">
         <v>42369</v>
       </c>
       <c r="P43" s="1"/>
@@ -5285,7 +4985,7 @@
     </row>
     <row r="44" spans="1:21" ht="17" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>39</v>
@@ -5294,16 +4994,16 @@
         <v>109</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="16" t="s">
-        <v>256</v>
+      <c r="G44" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>22</v>
@@ -5317,16 +5017,16 @@
       <c r="K44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="13" t="s">
+      <c r="L44" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="15">
         <v>1</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="11">
         <v>42369</v>
       </c>
-      <c r="O44" s="12">
+      <c r="O44" s="11">
         <v>42369</v>
       </c>
       <c r="P44" s="1"/>
@@ -5340,7 +5040,7 @@
     <row r="45" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="46" spans="1:21" ht="17" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>111</v>
@@ -5349,10 +5049,10 @@
         <v>113</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>116</v>
@@ -5372,25 +5072,25 @@
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L46" s="17" t="s">
+      <c r="L46" s="16" t="s">
         <v>171</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="11">
         <v>42185</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O46" s="11">
         <v>42185</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="11">
         <v>42185</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q46" s="11">
         <v>42185</v>
       </c>
-      <c r="R46" s="12"/>
+      <c r="R46" s="11"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1">
         <v>2</v>
@@ -5398,7 +5098,7 @@
     </row>
     <row r="47" spans="1:21" ht="17" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>112</v>
@@ -5407,10 +5107,10 @@
         <v>114</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>116</v>
@@ -5430,25 +5130,25 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="17" t="s">
+      <c r="L47" s="16" t="s">
         <v>204</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="11">
         <v>42185</v>
       </c>
-      <c r="O47" s="12">
+      <c r="O47" s="11">
         <v>42185</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P47" s="11">
         <v>42185</v>
       </c>
-      <c r="Q47" s="12">
+      <c r="Q47" s="11">
         <v>42185</v>
       </c>
-      <c r="R47" s="12"/>
+      <c r="R47" s="11"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1">
         <v>2</v>
@@ -5460,7 +5160,7 @@
     <row r="48" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="49" spans="1:25" ht="17" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>119</v>
@@ -5469,10 +5169,10 @@
         <v>125</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>129</v>
@@ -5498,13 +5198,13 @@
       <c r="M49" s="3">
         <v>3</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="11">
         <v>42185</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O49" s="11">
         <v>42277</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P49" s="11">
         <v>42369</v>
       </c>
       <c r="Q49" s="1"/>
@@ -5516,7 +5216,7 @@
     </row>
     <row r="50" spans="1:25" ht="17" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>120</v>
@@ -5525,10 +5225,10 @@
         <v>143</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>146</v>
@@ -5554,13 +5254,13 @@
       <c r="M50" s="3">
         <v>2</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N50" s="11">
         <v>42185</v>
       </c>
-      <c r="O50" s="12">
+      <c r="O50" s="11">
         <v>42277</v>
       </c>
-      <c r="P50" s="12">
+      <c r="P50" s="11">
         <v>42369</v>
       </c>
       <c r="Q50" s="1"/>
@@ -5572,7 +5272,7 @@
     </row>
     <row r="51" spans="1:25" ht="17" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>121</v>
@@ -5581,10 +5281,10 @@
         <v>145</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>147</v>
@@ -5610,13 +5310,13 @@
       <c r="M51" s="3">
         <v>3</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N51" s="11">
         <v>42185</v>
       </c>
-      <c r="O51" s="12">
+      <c r="O51" s="11">
         <v>42277</v>
       </c>
-      <c r="P51" s="12">
+      <c r="P51" s="11">
         <v>42369</v>
       </c>
       <c r="Q51" s="1"/>
@@ -5628,7 +5328,7 @@
     </row>
     <row r="52" spans="1:25" ht="17" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>122</v>
@@ -5640,7 +5340,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>129</v>
@@ -5666,13 +5366,13 @@
       <c r="M52" s="3">
         <v>1</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="11">
         <v>42185</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O52" s="11">
         <v>42277</v>
       </c>
-      <c r="P52" s="12">
+      <c r="P52" s="11">
         <v>42369</v>
       </c>
       <c r="Q52" s="1"/>
@@ -5684,7 +5384,7 @@
     </row>
     <row r="53" spans="1:25" ht="17" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>123</v>
@@ -5693,10 +5393,10 @@
         <v>127</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>129</v>
@@ -5722,13 +5422,13 @@
       <c r="M53" s="3">
         <v>1</v>
       </c>
-      <c r="N53" s="12">
+      <c r="N53" s="11">
         <v>42185</v>
       </c>
-      <c r="O53" s="12">
+      <c r="O53" s="11">
         <v>42277</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="11">
         <v>42369</v>
       </c>
       <c r="Q53" s="1"/>
@@ -5740,7 +5440,7 @@
     </row>
     <row r="54" spans="1:25" ht="17" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>124</v>
@@ -5749,7 +5449,7 @@
         <v>128</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>22</v>
@@ -5778,13 +5478,13 @@
       <c r="M54" s="3">
         <v>1</v>
       </c>
-      <c r="N54" s="12">
+      <c r="N54" s="11">
         <v>42185</v>
       </c>
-      <c r="O54" s="12">
+      <c r="O54" s="11">
         <v>42277</v>
       </c>
-      <c r="P54" s="12">
+      <c r="P54" s="11">
         <v>42369</v>
       </c>
       <c r="Q54" s="1"/>
@@ -5796,7 +5496,7 @@
     </row>
     <row r="55" spans="1:25" ht="17" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>149</v>
@@ -5805,10 +5505,10 @@
         <v>148</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>129</v>
@@ -5834,10 +5534,10 @@
       <c r="M55" s="3">
         <v>1</v>
       </c>
-      <c r="N55" s="12">
+      <c r="N55" s="11">
         <v>42185</v>
       </c>
-      <c r="O55" s="12">
+      <c r="O55" s="11">
         <v>42277</v>
       </c>
       <c r="P55" s="1"/>
@@ -5850,7 +5550,7 @@
     </row>
     <row r="56" spans="1:25" ht="17" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>153</v>
@@ -5859,10 +5559,10 @@
         <v>151</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>129</v>
@@ -5888,13 +5588,13 @@
       <c r="M56" s="3">
         <v>1</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N56" s="11">
         <v>42185</v>
       </c>
-      <c r="O56" s="12">
+      <c r="O56" s="11">
         <v>42277</v>
       </c>
-      <c r="P56" s="12">
+      <c r="P56" s="11">
         <v>42369</v>
       </c>
       <c r="Q56" s="1"/>
@@ -5906,7 +5606,7 @@
     </row>
     <row r="57" spans="1:25" ht="17" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>154</v>
@@ -5915,10 +5615,10 @@
         <v>150</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>129</v>
@@ -5944,13 +5644,13 @@
       <c r="M57" s="3">
         <v>1</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="11">
         <v>42185</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" s="11">
         <v>42277</v>
       </c>
-      <c r="P57" s="12">
+      <c r="P57" s="11">
         <v>42369</v>
       </c>
       <c r="Q57" s="1"/>
@@ -5962,7 +5662,7 @@
     </row>
     <row r="58" spans="1:25" ht="17" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>152</v>
@@ -5971,10 +5671,10 @@
         <v>155</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>159</v>
@@ -6000,13 +5700,13 @@
       <c r="M58" s="3">
         <v>1</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="11">
         <v>42185</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O58" s="11">
         <v>42277</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P58" s="11">
         <v>42369</v>
       </c>
       <c r="Q58" s="1"/>
@@ -6018,19 +5718,19 @@
     </row>
     <row r="59" spans="1:25" ht="17" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>129</v>
@@ -6056,13 +5756,13 @@
       <c r="M59" s="3">
         <v>3</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N59" s="11">
         <v>42185</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O59" s="11">
         <v>42277</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59" s="11">
         <v>42369</v>
       </c>
       <c r="Q59" s="1"/>
@@ -6074,19 +5774,19 @@
     </row>
     <row r="60" spans="1:25" ht="17" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>157</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>129</v>
@@ -6112,13 +5812,13 @@
       <c r="M60" s="3">
         <v>3</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N60" s="11">
         <v>42185</v>
       </c>
-      <c r="O60" s="12">
+      <c r="O60" s="11">
         <v>42277</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P60" s="11">
         <v>42369</v>
       </c>
       <c r="Q60" s="1"/>
@@ -6130,19 +5830,19 @@
     </row>
     <row r="61" spans="1:25" ht="17" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>158</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>129</v>
@@ -6168,13 +5868,13 @@
       <c r="M61" s="3">
         <v>3</v>
       </c>
-      <c r="N61" s="12">
+      <c r="N61" s="11">
         <v>42185</v>
       </c>
-      <c r="O61" s="12">
+      <c r="O61" s="11">
         <v>42277</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P61" s="11">
         <v>42369</v>
       </c>
       <c r="Q61" s="1"/>
@@ -6186,1194 +5886,171 @@
     </row>
     <row r="62" spans="1:25" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="63" spans="1:25" ht="17" customHeight="1">
-      <c r="A63" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="18" t="s">
+      <c r="A63" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F63" s="18" t="s">
+      <c r="D63" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="H63" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J63" s="18">
+      <c r="H63" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="17">
         <v>6</v>
       </c>
-      <c r="K63" s="18" t="s">
+      <c r="K63" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L63" s="18" t="s">
+      <c r="L63" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M63" s="17">
         <v>13</v>
       </c>
-      <c r="N63" s="20">
+      <c r="N63" s="19">
         <v>42277</v>
       </c>
-      <c r="O63" s="20">
+      <c r="O63" s="19">
         <v>42277</v>
       </c>
-      <c r="P63" s="20">
+      <c r="P63" s="19">
         <v>42277</v>
       </c>
-      <c r="Q63" s="20">
+      <c r="Q63" s="19">
         <v>42277</v>
       </c>
-      <c r="R63" s="20"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21">
-        <v>2</v>
-      </c>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="27"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20">
+        <v>2</v>
+      </c>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="22"/>
     </row>
     <row r="64" spans="1:25" ht="17" customHeight="1">
-      <c r="A64" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="18" t="s">
+      <c r="A64" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="F64" s="18" t="s">
+      <c r="D64" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F64" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="H64" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J64" s="18">
+      <c r="H64" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="17">
         <v>6</v>
       </c>
-      <c r="K64" s="18" t="s">
+      <c r="K64" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L64" s="18" t="s">
+      <c r="L64" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="M64" s="18">
+      <c r="M64" s="17">
         <v>13</v>
       </c>
-      <c r="N64" s="20">
+      <c r="N64" s="19">
         <v>42459</v>
       </c>
-      <c r="O64" s="20">
+      <c r="O64" s="19">
         <v>42459</v>
       </c>
-      <c r="P64" s="20">
+      <c r="P64" s="19">
         <v>42459</v>
       </c>
-      <c r="Q64" s="20">
+      <c r="Q64" s="19">
         <v>42459</v>
       </c>
-      <c r="R64" s="20"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21">
-        <v>2</v>
-      </c>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="27"/>
-    </row>
-    <row r="65" spans="1:25" s="22" customFormat="1" ht="28" customHeight="1">
-      <c r="A65" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="28"/>
-    </row>
-    <row r="66" spans="1:25" ht="17" customHeight="1">
-      <c r="A66" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J66" s="18"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="20">
-        <v>41677</v>
-      </c>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="27"/>
-    </row>
-    <row r="67" spans="1:25" ht="17" customHeight="1">
-      <c r="A67" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="J67" s="18"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="20">
-        <v>41677</v>
-      </c>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
-      <c r="Y67" s="27"/>
-    </row>
-    <row r="68" spans="1:25" ht="17" customHeight="1">
-      <c r="A68" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J68" s="18"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="20">
-        <v>41677</v>
-      </c>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18"/>
-      <c r="Y68" s="27"/>
-    </row>
-    <row r="69" spans="1:25" ht="17" customHeight="1">
-      <c r="A69" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J69" s="18"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="20">
-        <v>41677</v>
-      </c>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-      <c r="V69" s="18"/>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
-      <c r="Y69" s="27"/>
-    </row>
-    <row r="70" spans="1:25" s="26" customFormat="1" ht="17" customHeight="1">
-      <c r="A70" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="D70" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="29"/>
-    </row>
-    <row r="71" spans="1:25" s="26" customFormat="1" ht="17" customHeight="1">
-      <c r="A71" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="30"/>
-      <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
-      <c r="X71" s="30"/>
-      <c r="Y71" s="29"/>
-    </row>
-    <row r="72" spans="1:25" ht="17" customHeight="1">
-      <c r="A72" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K72" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="L72" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18"/>
-      <c r="Y72" s="27"/>
-    </row>
-    <row r="73" spans="1:25" ht="17" customHeight="1">
-      <c r="A73" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="35">
-        <v>41712</v>
-      </c>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="18"/>
-      <c r="W73" s="18"/>
-      <c r="X73" s="18"/>
-      <c r="Y73" s="27"/>
-    </row>
-    <row r="74" spans="1:25" ht="17" customHeight="1">
-      <c r="A74" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18"/>
-      <c r="Y74" s="27"/>
-    </row>
-    <row r="75" spans="1:25" ht="17" customHeight="1">
-      <c r="A75" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="27"/>
-    </row>
-    <row r="76" spans="1:25" ht="17" customHeight="1">
-      <c r="A76" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="27"/>
-    </row>
-    <row r="77" spans="1:25" ht="17" customHeight="1">
-      <c r="A77" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="18"/>
-      <c r="V77" s="18"/>
-      <c r="W77" s="18"/>
-      <c r="X77" s="18"/>
-      <c r="Y77" s="27"/>
-    </row>
-    <row r="78" spans="1:25" ht="17" customHeight="1">
-      <c r="A78" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18"/>
-      <c r="Y78" s="27"/>
-    </row>
-    <row r="79" spans="1:25" ht="17" customHeight="1">
-      <c r="A79" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="27"/>
-    </row>
-    <row r="80" spans="1:25" ht="17" customHeight="1">
-      <c r="A80" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="27"/>
-    </row>
-    <row r="81" spans="1:25" ht="17" customHeight="1">
-      <c r="A81" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="27"/>
-    </row>
-    <row r="82" spans="1:25" ht="17" customHeight="1">
-      <c r="A82" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="18"/>
-      <c r="V82" s="18"/>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18"/>
-      <c r="Y82" s="27"/>
-    </row>
-    <row r="83" spans="1:25" ht="17" customHeight="1">
-      <c r="A83" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-      <c r="V83" s="18"/>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18"/>
-      <c r="Y83" s="27"/>
-    </row>
-    <row r="84" spans="1:25" ht="17" customHeight="1">
-      <c r="A84" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
-      <c r="Y84" s="27"/>
-    </row>
-    <row r="85" spans="1:25" ht="17" customHeight="1">
-      <c r="A85" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="18"/>
-      <c r="V85" s="18"/>
-      <c r="W85" s="18"/>
-      <c r="X85" s="18"/>
-      <c r="Y85" s="27"/>
-    </row>
-    <row r="86" spans="1:25" ht="17" customHeight="1">
-      <c r="A86" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
-      <c r="U86" s="18"/>
-      <c r="V86" s="18"/>
-      <c r="W86" s="18"/>
-      <c r="X86" s="18"/>
-      <c r="Y86" s="27"/>
-    </row>
-    <row r="87" spans="1:25" ht="17" customHeight="1">
-      <c r="A87" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="18"/>
-      <c r="V87" s="18"/>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18"/>
-      <c r="Y87" s="27"/>
-    </row>
-    <row r="88" spans="1:25" ht="17" customHeight="1">
-      <c r="A88" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="18"/>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
-      <c r="Y88" s="27"/>
-    </row>
-    <row r="89" spans="1:25" ht="17" customHeight="1">
-      <c r="A89" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
-      <c r="U89" s="18"/>
-      <c r="V89" s="18"/>
-      <c r="W89" s="18"/>
-      <c r="X89" s="18"/>
-      <c r="Y89" s="27"/>
-    </row>
-    <row r="90" spans="1:25" ht="17" customHeight="1">
-      <c r="A90" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
-      <c r="U90" s="18"/>
-      <c r="V90" s="18"/>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18"/>
-      <c r="Y90" s="27"/>
-    </row>
-    <row r="91" spans="1:25" ht="17" customHeight="1">
-      <c r="A91" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
-      <c r="U91" s="18"/>
-      <c r="V91" s="18"/>
-      <c r="W91" s="18"/>
-      <c r="X91" s="18"/>
-      <c r="Y91" s="27"/>
-    </row>
-    <row r="92" spans="1:25" ht="17" customHeight="1">
-      <c r="A92" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="27"/>
-    </row>
-    <row r="154" spans="1:1" ht="17" customHeight="1">
-      <c r="A154" s="25"/>
-    </row>
-    <row r="155" spans="1:1" ht="17" customHeight="1">
-      <c r="A155" s="25"/>
-    </row>
-    <row r="156" spans="1:1" ht="17" customHeight="1">
-      <c r="A156" s="25"/>
-    </row>
-    <row r="157" spans="1:1" ht="17" customHeight="1">
-      <c r="A157" s="25"/>
-    </row>
-    <row r="158" spans="1:1" ht="17" customHeight="1">
-      <c r="A158" s="25"/>
-    </row>
-    <row r="159" spans="1:1" ht="17" customHeight="1">
-      <c r="A159" s="25"/>
-    </row>
-    <row r="160" spans="1:1" ht="17" customHeight="1">
-      <c r="A160" s="25"/>
-    </row>
-    <row r="161" spans="1:1" ht="17" customHeight="1">
-      <c r="A161" s="25"/>
-    </row>
-    <row r="162" spans="1:1" ht="17" customHeight="1">
-      <c r="A162" s="25"/>
-    </row>
-    <row r="163" spans="1:1" ht="17" customHeight="1">
-      <c r="A163" s="25"/>
-    </row>
-    <row r="164" spans="1:1" ht="17" customHeight="1">
-      <c r="A164" s="25"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20">
+        <v>2</v>
+      </c>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="22"/>
+    </row>
+    <row r="91" spans="1:1" ht="17" customHeight="1">
+      <c r="A91" s="21"/>
+    </row>
+    <row r="92" spans="1:1" ht="17" customHeight="1">
+      <c r="A92" s="21"/>
+    </row>
+    <row r="93" spans="1:1" ht="17" customHeight="1">
+      <c r="A93" s="21"/>
+    </row>
+    <row r="94" spans="1:1" ht="17" customHeight="1">
+      <c r="A94" s="21"/>
+    </row>
+    <row r="95" spans="1:1" ht="17" customHeight="1">
+      <c r="A95" s="21"/>
+    </row>
+    <row r="96" spans="1:1" ht="17" customHeight="1">
+      <c r="A96" s="21"/>
+    </row>
+    <row r="97" spans="1:1" ht="17" customHeight="1">
+      <c r="A97" s="21"/>
+    </row>
+    <row r="98" spans="1:1" ht="17" customHeight="1">
+      <c r="A98" s="21"/>
+    </row>
+    <row r="99" spans="1:1" ht="17" customHeight="1">
+      <c r="A99" s="21"/>
+    </row>
+    <row r="100" spans="1:1" ht="17" customHeight="1">
+      <c r="A100" s="21"/>
+    </row>
+    <row r="101" spans="1:1" ht="17" customHeight="1">
+      <c r="A101" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A65:X65"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="R28" r:id="rId1"/>
     <hyperlink ref="R29" r:id="rId2"/>
     <hyperlink ref="R27" r:id="rId3"/>
     <hyperlink ref="R25" r:id="rId4"/>
     <hyperlink ref="R26" r:id="rId5"/>
-    <hyperlink ref="Q72" r:id="rId6"/>
-    <hyperlink ref="Q71" r:id="rId7"/>
-    <hyperlink ref="Q70" r:id="rId8"/>
-    <hyperlink ref="Q66" r:id="rId9"/>
-    <hyperlink ref="Q67" r:id="rId10"/>
-    <hyperlink ref="Q68" r:id="rId11"/>
-    <hyperlink ref="Q69" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -267,9 +267,6 @@
     <t>Human fibroblast-like synoviocytes lot #2586,Human fibroblast-like synoviocytes lot #2645,Human fibroblast-like synoviocytes lot #2759,Human fibroblast-like synoviocytes-RA lot #1869,Human fibroblast-like synoviocytes-RA lot 1931,Human fibroblast-like synoviocytes-RA lot #2159,Human fibroblast-like synoviocytes-RA lot #2708</t>
   </si>
   <si>
-    <t xml:space="preserve">Bead-based sandwich immunoassays--To generate measures of the secretion response landscape of seven primary human synovial fibroblast donors samples to stimulation with three stimuli in the presence or absence ot targeted inhibitors, with a key goal of evaluating variability of secretion response across patient samples. Supernatant levels of 51 cytokines, chemokines, growth factors, proteases, etc, are quantified. Indepedent experimental replicates are collected on separate days. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bead-based sandwich immunoassays--To generate measures of (1) composition of synovial fluids from three RA patients, (2) to quantify secretion response of one primary human synovial fibroblast donor sample following individual exposure to synovial fluids from three RA patients, and (3) to quantify how this secretion response is altered by inhibition of MAP3K7/TAK1 by 5z-7-oxozeaenol. </t>
   </si>
   <si>
@@ -399,15 +396,9 @@
     <t>Imaging assay--monitoring cell survival in control, ALS, and SMA iMNs. iMNs will be transfected with a fluorescence reporter and imaged daily for 10 days. Images will be run through a custom analysis software package that tracks individual cells over time. The time of death (if it occurs) for each neuron will be determined. Neurite arborization will be determined using custom software analysis on these images. .</t>
   </si>
   <si>
-    <t>Baseline gene expression dataset for QC and pipeline development -- 11 total control iPSC cell lines 3 in triplicate and 1 in duplicate and 28 diseased iPSC, 4 ALS and 4 SMA with replicates and with no additional perturbagen. Determine cell line variability and assay reproducibility. RNAseq QC statistics and expression correlation statistics will guide the development of QC statndards and appropriate analysis pipeline.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baseline gene expression dataset for iMN and diseased state signature -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN with replicates and with no additional perturbagen. Generate gene expression signatures and analyze disease/control contrast for statistically significant differentially expressed genes. Generate disease signatures for future systems analysis: pathway, network, and category enrichment analysis, as well as for integration with other omics and machine learning analyses. </t>
   </si>
   <si>
-    <t xml:space="preserve">Gene expression dataset for iMN and disease signature reponse to perturbagens -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN with replicates plus additional perturbagen. Generate gene expression signatures and for both disease and control and analyze perturb/disease &amp; perturb/control contrasts for statistically significant differentially expressed genes. Using a GLM setup multi-factor design matrix to analyze disease vs control with each perturbagen as an additional factor. Generate signatures for future systems analysis: pathway, network, and category enrichment analysis, as well as for integration with other omics and machine learning analyses. </t>
-  </si>
-  <si>
     <t>spinal muscular atrophy,disease;amyotrophic lateral sclerosis,disease</t>
   </si>
   <si>
@@ -435,9 +426,6 @@
     <t>spinal muscular atrophy,disease;amyotrophic lateral sclerosis,disease;TBD,small molecule</t>
   </si>
   <si>
-    <t>Use microenvironment microarray (MEMA) based platform to assess the impacts of ~3000 different pairwise combinations of ME perturbagens (MEPs) on 10 biological response endopoints.</t>
-  </si>
-  <si>
     <t>High-throughput MEMA array</t>
   </si>
   <si>
@@ -465,39 +453,18 @@
     <t>spinal muscular atrophy,disease;amyotrophic lateral sclerosis,disease;tunicamycin,small molecule</t>
   </si>
   <si>
-    <t>MS analysis on the QE and or Triple TOF MS instrument  of trypsin digested  iPSC dervied from 4 control, 4 ALS and 4 SMA lines for 3 different wells at  multiple cell passages.</t>
-  </si>
-  <si>
     <t>QC and SOP development for proteomic analysis  iPSC to  motor neuron differentiation</t>
   </si>
   <si>
-    <t>Build MS SWATH data library: using  the 6600 MS instrument analyzing either fractionated individuals and  pools of iPSC dervied from  4 controls and SMA and ALS lines into soluble, insoluble and acid soluble enriched for phosphorylation.</t>
-  </si>
-  <si>
-    <t>Build MS SWATH data library: using  the QE and 6600 MS instrument analyzing either fractionated individuals and pools of iPSC dervied from  4 controls and SMA and ALS lines into soluble, insoluble and acid soluble.</t>
-  </si>
-  <si>
     <t>Quantitative discovery proteomics (SWATH), add perturbagens</t>
   </si>
   <si>
-    <t>Quantitative discovery proteomics (SWATH), compare iPSC and mature differentitated neurons</t>
-  </si>
-  <si>
-    <t>Quantitative discovery proteomics (SWATH), compare iPSC, neural rosettes and differentated neurons</t>
-  </si>
-  <si>
     <t>Various perturbations on IPSC and potentially neurons. Analyze total protein and phosphorylation initially</t>
   </si>
   <si>
     <t>Baseline ATAC-seq experiments for protocol assay optimization, QC and development of analysis methods -- 4 control, 4 ALS and 4 SMA iPSC cell lines with replicates, without additional perturbagens. Determine optimal conditions for purification of high quality nuclei to preserve chromatin structure and for transposase reaction (number of nuclei, enzyme concentration and incubation time) to avoid over- or under-digestion. Set up analysis pipelines and perform correlation and clustering tests to determine cell line variability and assay reproducibility  between either technical or biological replicates and Identify potential problematic samples.</t>
   </si>
   <si>
-    <t>Baseline ATAC-seq experiments for iMN and disease state signatures -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN lines with replicates without additional perturbagens. Annotate open chromatin regions and map transcription factor binding events in regulatory elements genome-wide. Generate chromatin accessibility signatures  for each sample individually by calculating the enrichment of genomic regions relative to a set of control reads from Tn5-treated naked genomic DNA. Detect differential peaks between disease and control state. Generate disease signatures for future systems analysis and integration with other omics by 1) identifying genes mapping near differential peaks and detecting significantly enriched GO terms for these gene lists; 2) performing DNA foorprinting, motif scoring and applying regression methods to infer transcription factors responsible for gene expression signatures.</t>
-  </si>
-  <si>
-    <t>ATAC-seq dataset for iMN and disease signature reponse to perturbagens -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN lines with replicates plus additional perturbagens. Generate chromatin accessibility signatures  for each sample individually by calculating the enrichment of genomic regions relative to a set of control reads from Tn5-treated naked genomic DNA. Analyze perturb/disease &amp; perturb/control datasets to detecte differentially enriched peaks reflecting changes in chromatin structures as a consequence of perturbation. Generate disease signatures for future systems analysis and integration with other omics and machine learning analyses.</t>
-  </si>
-  <si>
     <t>spinal muscular atrophy,disease;amyotrophic lateral sclerosis,disease;stimulation A-N,stimulation</t>
   </si>
   <si>
@@ -832,6 +799,39 @@
   </si>
   <si>
     <t>phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bead-based sandwich immunoassays--To generate measures of the secretion response landscape of seven primary human synovial fibroblast donors samples to stimulation with three stimuli in the presence or absence ot targeted inhibitors, with a key goal of evaluating variability of secretion response across patient samples. Supernatant levels of 51 cytokines, chemokines, growth factors, proteases, etc, are quantified. Independent experimental replicates are collected on separate days. </t>
+  </si>
+  <si>
+    <t>Baseline gene expression dataset for QC and pipeline development -- 11 total control iPSC cell lines 3 in triplicate and 1 in duplicate and 28 diseased iPSC, 4 ALS and 4 SMA with replicates and with no additional perturbagen. Determine cell line variability and assay reproducibility. RNAseq QC statistics and expression correlation statistics will guide the development of QC standards and appropriate analysis pipeline.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene expression dataset for iMN and disease signature response to perturbagens -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN with replicates plus additional perturbagen. Generate gene expression signatures and for both disease and control and analyze perturb/disease &amp; perturb/control contrasts for statistically significant differentially expressed genes. Using a GLM setup multi-factor design matrix to analyze disease vs control with each perturbagen as an additional factor. Generate signatures for future systems analysis: pathway, network, and category enrichment analysis, as well as for integration with other omics and machine learning analyses. </t>
+  </si>
+  <si>
+    <t>MS analysis on the QE and or Triple TOF MS instrument  of trypsin digested  iPSC derived from 4 control, 4 ALS and 4 SMA lines for 3 different wells at  multiple cell passages.</t>
+  </si>
+  <si>
+    <t>Quantitative discovery proteomics (SWATH), compare iPSC and mature differentiated neurons</t>
+  </si>
+  <si>
+    <t>Build MS SWATH data library: using  the QE and 6600 MS instrument analyzing either fractionated individuals and pools of iPSC derived from  4 controls and SMA and ALS lines into soluble, insoluble and acid soluble.</t>
+  </si>
+  <si>
+    <t>Quantitative discovery proteomics (SWATH), compare iPSC, neural rosettes and differentiated neurons</t>
+  </si>
+  <si>
+    <t>Build MS SWATH data library: using  the 6600 MS instrument analyzing either fractionated individuals and  pools of iPSC derived from  4 controls and SMA and ALS lines into soluble, insoluble and acid soluble enriched for phosphorylation.</t>
+  </si>
+  <si>
+    <t>Baseline ATAC-seq experiments for iMN and disease state signatures -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN lines with replicates without additional perturbagens. Annotate open chromatin regions and map transcription factor binding events in regulatory elements genome-wide. Generate chromatin accessibility signatures  for each sample individually by calculating the enrichment of genomic regions relative to a set of control reads from Tn5-treated naked genomic DNA. Detect differential peaks between disease and control state. Generate disease signatures for future systems analysis and integration with other omics by 1) identifying genes mapping near differential peaks and detecting significantly enriched GO terms for these gene lists; 2) performing DNA foo printing, motif scoring and applying regression methods to infer transcription factors responsible for gene expression signatures.</t>
+  </si>
+  <si>
+    <t>ATAC-seq dataset for iMN and disease signature response to perturbagens -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN lines with replicates plus additional perturbagens. Generate chromatin accessibility signatures  for each sample individually by calculating the enrichment of genomic regions relative to a set of control reads from Tn5-treated naked genomic DNA. Analyze perturb/disease &amp; perturb/control datasets to detected differentially enriched peaks reflecting changes in chromatin structures as a consequence of perturbation. Generate disease signatures for future systems analysis and integration with other omics and machine learning analyses.</t>
+  </si>
+  <si>
+    <t>Use microenvironment microarray (MEMA) based platform to assess the impacts of ~3000 different pairwise combinations of ME perturbagens (MEPs) on 10 biological response endpoints.</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1009,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="658">
+  <cellStyleXfs count="659">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1660,6 +1660,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1738,7 +1739,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="658">
+  <cellStyles count="659">
     <cellStyle name="Bad" xfId="43" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2070,6 +2071,7 @@
     <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2735,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -2787,7 +2789,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>45</v>
@@ -2817,31 +2819,31 @@
         <v>1</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>46</v>
@@ -2853,7 +2855,7 @@
         <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>64</v>
@@ -2868,19 +2870,19 @@
         <v>67</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="K3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="17" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
@@ -2889,19 +2891,19 @@
         <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>47</v>
@@ -2913,7 +2915,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="11">
@@ -2935,7 +2937,7 @@
     </row>
     <row r="5" spans="1:22" ht="17" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>24</v>
@@ -2944,19 +2946,19 @@
         <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>47</v>
@@ -2968,7 +2970,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="11">
@@ -2990,7 +2992,7 @@
     </row>
     <row r="6" spans="1:22" ht="17" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
@@ -2999,19 +3001,19 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>47</v>
@@ -3023,7 +3025,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="11">
@@ -3045,7 +3047,7 @@
     </row>
     <row r="7" spans="1:22" ht="17" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -3054,19 +3056,19 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>47</v>
@@ -3078,7 +3080,7 @@
         <v>16</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="11">
@@ -3101,7 +3103,7 @@
     </row>
     <row r="8" spans="1:22" ht="17" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -3110,19 +3112,19 @@
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>47</v>
@@ -3134,7 +3136,7 @@
         <v>16</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="11">
@@ -3157,7 +3159,7 @@
     </row>
     <row r="9" spans="1:22" ht="17" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -3166,16 +3168,16 @@
         <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>47</v>
@@ -3187,7 +3189,7 @@
         <v>16</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="11">
@@ -3210,7 +3212,7 @@
     </row>
     <row r="10" spans="1:22" ht="17" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -3219,16 +3221,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>47</v>
@@ -3240,7 +3242,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="11">
@@ -3263,7 +3265,7 @@
     </row>
     <row r="11" spans="1:22" ht="17" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -3272,16 +3274,16 @@
         <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>47</v>
@@ -3293,7 +3295,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="11">
@@ -3316,7 +3318,7 @@
     </row>
     <row r="12" spans="1:22" ht="17" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -3325,16 +3327,16 @@
         <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>47</v>
@@ -3346,7 +3348,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="11">
@@ -3369,7 +3371,7 @@
     </row>
     <row r="13" spans="1:22" ht="17" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -3378,16 +3380,16 @@
         <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>47</v>
@@ -3399,7 +3401,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="11">
@@ -3422,7 +3424,7 @@
     </row>
     <row r="14" spans="1:22" ht="17" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -3431,16 +3433,16 @@
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>47</v>
@@ -3452,7 +3454,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="11">
@@ -3475,7 +3477,7 @@
     </row>
     <row r="15" spans="1:22" ht="17" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -3484,16 +3486,16 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>47</v>
@@ -3505,7 +3507,7 @@
         <v>16</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="11">
@@ -3528,7 +3530,7 @@
     </row>
     <row r="16" spans="1:22" ht="17" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -3537,16 +3539,16 @@
         <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>47</v>
@@ -3558,7 +3560,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="11">
@@ -3581,7 +3583,7 @@
     </row>
     <row r="17" spans="1:21" ht="17" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -3590,19 +3592,19 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>47</v>
@@ -3614,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="11">
@@ -3637,7 +3639,7 @@
     </row>
     <row r="18" spans="1:21" ht="17" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -3646,19 +3648,19 @@
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>47</v>
@@ -3670,7 +3672,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="11">
@@ -3694,7 +3696,7 @@
     <row r="19" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="20" spans="1:21" ht="17" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
@@ -3703,19 +3705,19 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>48</v>
@@ -3727,7 +3729,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="11">
@@ -3750,7 +3752,7 @@
     </row>
     <row r="21" spans="1:21" ht="17" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
@@ -3759,19 +3761,19 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>48</v>
@@ -3783,7 +3785,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="11">
@@ -3806,7 +3808,7 @@
     </row>
     <row r="22" spans="1:21" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
@@ -3815,19 +3817,19 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>48</v>
@@ -3839,7 +3841,7 @@
         <v>3</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="11">
@@ -3862,7 +3864,7 @@
     </row>
     <row r="23" spans="1:21" ht="17" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
@@ -3871,19 +3873,19 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>48</v>
@@ -3895,7 +3897,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="11">
@@ -3919,28 +3921,28 @@
     <row r="24" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="25" spans="1:21" ht="17" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>49</v>
@@ -3952,7 +3954,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M25" s="3">
         <v>1</v>
@@ -3966,7 +3968,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="13" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1">
@@ -3975,28 +3977,28 @@
     </row>
     <row r="26" spans="1:21" ht="17" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>49</v>
@@ -4008,7 +4010,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="M26" s="5">
         <v>1</v>
@@ -4020,7 +4022,7 @@
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="13" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1">
@@ -4029,28 +4031,28 @@
     </row>
     <row r="27" spans="1:21" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>50</v>
@@ -4062,7 +4064,7 @@
         <v>16</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M27" s="3">
         <v>2</v>
@@ -4080,7 +4082,7 @@
         <v>42094</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
@@ -4089,28 +4091,28 @@
     </row>
     <row r="28" spans="1:21" ht="17" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>51</v>
@@ -4122,7 +4124,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M28" s="3">
         <v>21</v>
@@ -4140,7 +4142,7 @@
         <v>42094</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1">
@@ -4149,28 +4151,28 @@
     </row>
     <row r="29" spans="1:21" ht="17" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>52</v>
@@ -4182,7 +4184,7 @@
         <v>16</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M29" s="3">
         <v>7</v>
@@ -4200,7 +4202,7 @@
         <v>42094</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1">
@@ -4209,28 +4211,28 @@
     </row>
     <row r="30" spans="1:21" ht="17" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>49</v>
@@ -4242,7 +4244,7 @@
         <v>16</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M30" s="3">
         <v>1</v>
@@ -4263,7 +4265,7 @@
     </row>
     <row r="31" spans="1:21" ht="17" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>32</v>
@@ -4272,19 +4274,19 @@
         <v>61</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>63</v>
@@ -4296,7 +4298,7 @@
         <v>16</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M31" s="3">
         <v>1</v>
@@ -4317,28 +4319,28 @@
     </row>
     <row r="32" spans="1:21" ht="17" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>63</v>
@@ -4350,7 +4352,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M32" s="3">
         <v>1</v>
@@ -4373,28 +4375,28 @@
     </row>
     <row r="33" spans="1:21" ht="17" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>63</v>
@@ -4406,7 +4408,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M33" s="3">
         <v>1</v>
@@ -4431,7 +4433,7 @@
     </row>
     <row r="34" spans="1:21" ht="17" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>38</v>
@@ -4449,10 +4451,10 @@
         <v>75</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>76</v>
@@ -4464,7 +4466,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>3</v>
@@ -4487,28 +4489,28 @@
     </row>
     <row r="35" spans="1:21" ht="17" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>78</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>63</v>
@@ -4520,7 +4522,7 @@
         <v>16</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M35" s="3">
         <v>1</v>
@@ -4541,7 +4543,7 @@
     </row>
     <row r="36" spans="1:21" ht="17" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>79</v>
@@ -4550,19 +4552,19 @@
         <v>70</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>52</v>
@@ -4574,10 +4576,10 @@
         <v>16</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="N36" s="11">
         <v>42185</v>
@@ -4595,28 +4597,28 @@
     </row>
     <row r="37" spans="1:21" ht="17" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>52</v>
@@ -4628,10 +4630,10 @@
         <v>16</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="N37" s="11">
         <v>42277</v>
@@ -4649,7 +4651,7 @@
     </row>
     <row r="38" spans="1:21" ht="17" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>31</v>
@@ -4661,16 +4663,16 @@
         <v>55</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>57</v>
@@ -4707,28 +4709,28 @@
     </row>
     <row r="39" spans="1:21" ht="17" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>57</v>
@@ -4765,31 +4767,31 @@
     </row>
     <row r="40" spans="1:21" ht="17" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H40" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>22</v>
@@ -4823,31 +4825,31 @@
     </row>
     <row r="41" spans="1:21" ht="17" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>22</v>
@@ -4856,7 +4858,7 @@
         <v>16</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>72</v>
@@ -4877,31 +4879,31 @@
     </row>
     <row r="42" spans="1:21" ht="17" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>22</v>
@@ -4910,7 +4912,7 @@
         <v>16</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M42" s="3">
         <v>2</v>
@@ -4931,28 +4933,28 @@
     </row>
     <row r="43" spans="1:21" ht="17" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>47</v>
@@ -4964,7 +4966,7 @@
         <v>16</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>72</v>
@@ -4985,25 +4987,25 @@
     </row>
     <row r="44" spans="1:21" ht="17" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>22</v>
@@ -5018,7 +5020,7 @@
         <v>16</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M44" s="15">
         <v>1</v>
@@ -5040,31 +5042,31 @@
     <row r="45" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="46" spans="1:21" ht="17" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="J46" s="3">
         <v>3</v>
@@ -5073,7 +5075,7 @@
         <v>16</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -5098,28 +5100,28 @@
     </row>
     <row r="47" spans="1:21" ht="17" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>52</v>
@@ -5131,7 +5133,7 @@
         <v>16</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -5154,46 +5156,46 @@
         <v>2</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="49" spans="1:25" ht="17" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J49" s="3">
         <v>2</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="M49" s="3">
         <v>3</v>
@@ -5216,40 +5218,40 @@
     </row>
     <row r="50" spans="1:25" ht="17" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50" s="3">
+        <v>2</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J50" s="3">
-        <v>2</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="M50" s="3">
         <v>2</v>
@@ -5272,28 +5274,28 @@
     </row>
     <row r="51" spans="1:25" ht="17" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>52</v>
@@ -5302,10 +5304,10 @@
         <v>2</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="M51" s="3">
         <v>3</v>
@@ -5328,25 +5330,25 @@
     </row>
     <row r="52" spans="1:25" ht="17" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>22</v>
@@ -5361,7 +5363,7 @@
         <v>22</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M52" s="3">
         <v>1</v>
@@ -5384,25 +5386,25 @@
     </row>
     <row r="53" spans="1:25" ht="17" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>22</v>
@@ -5417,7 +5419,7 @@
         <v>22</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M53" s="3">
         <v>1</v>
@@ -5440,25 +5442,25 @@
     </row>
     <row r="54" spans="1:25" ht="17" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>22</v>
@@ -5473,7 +5475,7 @@
         <v>22</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M54" s="3">
         <v>1</v>
@@ -5496,25 +5498,25 @@
     </row>
     <row r="55" spans="1:25" ht="17" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>22</v>
@@ -5529,7 +5531,7 @@
         <v>22</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M55" s="3">
         <v>1</v>
@@ -5550,25 +5552,25 @@
     </row>
     <row r="56" spans="1:25" ht="17" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>22</v>
@@ -5583,7 +5585,7 @@
         <v>22</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M56" s="3">
         <v>1</v>
@@ -5606,25 +5608,25 @@
     </row>
     <row r="57" spans="1:25" ht="17" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>22</v>
@@ -5639,7 +5641,7 @@
         <v>22</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M57" s="3">
         <v>1</v>
@@ -5662,25 +5664,25 @@
     </row>
     <row r="58" spans="1:25" ht="17" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>22</v>
@@ -5695,7 +5697,7 @@
         <v>22</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M58" s="3">
         <v>1</v>
@@ -5718,25 +5720,25 @@
     </row>
     <row r="59" spans="1:25" ht="17" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>22</v>
@@ -5751,7 +5753,7 @@
         <v>22</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M59" s="3">
         <v>3</v>
@@ -5774,25 +5776,25 @@
     </row>
     <row r="60" spans="1:25" ht="17" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>22</v>
@@ -5807,7 +5809,7 @@
         <v>22</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M60" s="3">
         <v>3</v>
@@ -5830,25 +5832,25 @@
     </row>
     <row r="61" spans="1:25" ht="17" customHeight="1">
       <c r="A61" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>22</v>
@@ -5863,7 +5865,7 @@
         <v>22</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M61" s="3">
         <v>3</v>
@@ -5887,25 +5889,25 @@
     <row r="62" spans="1:25" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="63" spans="1:25" ht="17" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>22</v>
@@ -5920,7 +5922,7 @@
         <v>16</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M63" s="17">
         <v>13</v>
@@ -5950,25 +5952,25 @@
     </row>
     <row r="64" spans="1:25" ht="17" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>22</v>
@@ -5983,7 +5985,7 @@
         <v>16</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M64" s="17">
         <v>13</v>

--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="-16000" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-1860" yWindow="-15998" windowWidth="25523" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>purturbagens</t>
-  </si>
-  <si>
     <t>cell-lines</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>perturbagens-meta</t>
   </si>
   <si>
-    <t>name1,type1,perturbagens1;name2,type2, purturbagens2</t>
-  </si>
-  <si>
     <t>evaluating CRISPRs (vs shRNAs)</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>BRAF6: Phosphorylation state and levels of ~24 transcription factors measured in BRAF(V600E/D) melanoma cell lines monitored by imaging</t>
   </si>
   <si>
-    <t>LJP 5&amp;6-growth inhibition/drug combinations: Sensitivity measures of 6 breast cancer cell lines to combination treatment of kinase inhibitors based on results of  dataset LJP5&amp;6-growth inhibition/single drugs</t>
-  </si>
-  <si>
     <t>MassSpecPhos1: Basal profiling of phosphoproteins measured by mass spec</t>
   </si>
   <si>
@@ -258,9 +249,6 @@
     <t>177 compounds,small molecules</t>
   </si>
   <si>
-    <t>Breast Cancer HCI1: High content images of 4 breast cancer cell lines treated with 106 kinase inhibitors (plates LJP5-6);collaboration with the David Andrews lab (University of Toronto)</t>
-  </si>
-  <si>
     <t>Imaging assay--2 cell lines treated with 3 different doses of the LJP5&amp;6 plates of kinase inhibitors. Cells will be  stained with TMRE (mitochondria) and DRAQ5 (DNA/nuclei). Intensity, mophology and texture features will be extracted at the well and single cell levels.</t>
   </si>
   <si>
@@ -486,9 +474,6 @@
     <t>Nuclei/cell count\image;Apoptotic cells\image</t>
   </si>
   <si>
-    <t>p27 Kip1--Alexa488\image;p-Histone H3(S10)--Alexa488\image;Ki-67--Alexa488\image;p-Rb(S807/S811)--Alexa568\image;p-ERK(T202/Y204)--Alexa647\image;p-S6(S235/S236--Alexa647\image;p-cJun(S73)--Alexa647\image</t>
-  </si>
-  <si>
     <t>Intensity, mophology and texture features (300+ features total)\image</t>
   </si>
   <si>
@@ -675,9 +660,6 @@
     <t>&gt;300</t>
   </si>
   <si>
-    <t>LJP 5&amp;6-L1000/single drugs: L1000 response of 6 breast cancer cell lines to treatment plates LJP5&amp;6 (106 kinase inhibitors)</t>
-  </si>
-  <si>
     <t>pMEK(S217/221)\phosphorylation level;pERK(T202/Y204)\phosphorylation level;p-p90RSK(S380)\phosphorylation level;p-p90RSK(T573)\phosphorylation level;p-AKT(T308)\phosphorylation level;p-AKT(S473)\phosphorylation level;p-mTOR(S2448)\phosphorylation level;p-p70S6K(T421/S424)\phosphorylation level;p-p70S6K(T389)\phosphorylation level;p-S6(S235/236)\phosphorylation level;p-AMPK(T172)\phosphorylation level;p-JNK(T183/Y185)\phosphorylation level;Total c-Jun\phosphorylation level;p-cJun(S63)\phosphorylation level;p-P38(T180/Y182)\phosphorylation level;p-HSP27(S82)\phosphorylation level;p-NFKB(S536)\phosphorylation level;Bim\phosphorylation level;cPARP\phosphorylation level;p-Histone H3(S10)\phosphorylation level;p27 Kip1\phosphorylation level</t>
   </si>
   <si>
@@ -732,12 +714,6 @@
     <t>L1000 gene expression\number</t>
   </si>
   <si>
-    <t>LJP 5&amp;6-growth inhibition/single drugs: Sensitivity measures of 6 breast cancer cell lines to treatment plates LJP5&amp;6 (106 kinase inhibitors); complement to dataset LJP5&amp;6-L1000/single drugs</t>
-  </si>
-  <si>
-    <t>LJP 5&amp;6-L1000/drug combinations: L1000 response of 6 breast cancer cell lines to treatment plates LJP7-9 (177 targeted drugs). Complement  to dataset LJP5&amp;6-L1000/single drugs</t>
-  </si>
-  <si>
     <t>Breast Cancer HCI2: High content images of 2 breast cancer cell lines treated with 106 kinase inhibitors (plates LJP5-6); complement to dataset Breast cancer HCI1</t>
   </si>
   <si>
@@ -780,21 +756,6 @@
     <t>name1,type1(cell line or iPSC differentiated),class1(cell line,cancer line,…)\control-or-disease,tissue1;name2,type2,class2,tissue2</t>
   </si>
   <si>
-    <t>DTOXS</t>
-  </si>
-  <si>
-    <t>HMS-LINCS</t>
-  </si>
-  <si>
-    <t>Broad-LINCS-Transcriptomics</t>
-  </si>
-  <si>
-    <t>Broad-LINCS-PCCSE</t>
-  </si>
-  <si>
-    <t>MEP-LINCS</t>
-  </si>
-  <si>
     <t>NeuroLINCS</t>
   </si>
   <si>
@@ -832,13 +793,52 @@
   </si>
   <si>
     <t>Use microenvironment microarray (MEMA) based platform to assess the impacts of ~3000 different pairwise combinations of ME perturbagens (MEPs) on 10 biological response endpoints.</t>
+  </si>
+  <si>
+    <t>p27 Kip1--Alexa488\image;p-Histone H3(S10)--Alexa488\image;Ki-67--Alexa488\image;p-Rb(S807/S811)--Alexa568\image;p-ERK(T202/Y204)--Alexa647\image;p-S6(S235/S236)--Alexa647\image;p-cJun(S73)--Alexa647\image</t>
+  </si>
+  <si>
+    <t>name1,type1,perturbagens1;name2,type2, perturbagens2</t>
+  </si>
+  <si>
+    <t>perturbagens</t>
+  </si>
+  <si>
+    <t>LJP5&amp;6-L1000/single drugs: L1000 response of 6 breast cancer cell lines to treatment plates LJP5&amp;6 (106 kinase inhibitors)</t>
+  </si>
+  <si>
+    <t>LJP5&amp;6-growth inhibition/single drugs: Sensitivity measures of 6 breast cancer cell lines to treatment plates LJP5&amp;6 (106 kinase inhibitors); complement to dataset LJP5&amp;6-L1000/single drugs</t>
+  </si>
+  <si>
+    <t>LJP5&amp;6-growth inhibition/drug combinations: Sensitivity measures of 6 breast cancer cell lines to combination treatment of kinase inhibitors based on results of  dataset LJP5&amp;6-growth inhibition/single drugs</t>
+  </si>
+  <si>
+    <t>LJP5&amp;6-L1000/drug combinations: L1000 response of 6 breast cancer cell lines to treatment plates LJP7-9 (177 targeted drugs). Complement  to dataset LJP5&amp;6-L1000/single drugs</t>
+  </si>
+  <si>
+    <t>LINCS Proteomic Characterization Center</t>
+  </si>
+  <si>
+    <t>HMS LINCS</t>
+  </si>
+  <si>
+    <t>DToxS</t>
+  </si>
+  <si>
+    <t>LINCS Center for Transcriptomics</t>
+  </si>
+  <si>
+    <t>MEP LINCS</t>
+  </si>
+  <si>
+    <t>Breast Cancer HCI1: High content images of 4 breast cancer cell lines treated with 106 kinase inhibitors (plates LJP5-6); collaboration with the David Andrews lab (University of Toronto)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2737,14 +2737,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="46" style="3" customWidth="1"/>
+    <col min="2" max="2" width="145.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
     <col min="4" max="4" width="142" style="3" customWidth="1"/>
     <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
@@ -2766,45 +2766,45 @@
     <col min="23" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="32">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="31.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>1</v>
@@ -2819,103 +2819,103 @@
         <v>1</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="S2" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="K3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="17" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="11">
@@ -2937,40 +2937,40 @@
     </row>
     <row r="5" spans="1:22" ht="17" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5" s="3">
         <v>3</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="11">
@@ -2992,40 +2992,40 @@
     </row>
     <row r="6" spans="1:22" ht="17" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J6" s="3">
         <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="11">
@@ -3047,40 +3047,40 @@
     </row>
     <row r="7" spans="1:22" ht="17" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J7" s="3">
         <v>3</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="11">
@@ -3103,40 +3103,40 @@
     </row>
     <row r="8" spans="1:22" ht="17" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="11">
@@ -3159,37 +3159,37 @@
     </row>
     <row r="9" spans="1:22" ht="17" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I9" s="3">
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="11">
@@ -3212,50 +3212,50 @@
     </row>
     <row r="10" spans="1:22" ht="17" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I10" s="3">
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="N10" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="O10" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="P10" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="T10" s="3">
@@ -3265,50 +3265,50 @@
     </row>
     <row r="11" spans="1:22" ht="17" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3">
         <v>3</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="N11" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="O11" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="P11" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="T11" s="3">
@@ -3318,50 +3318,50 @@
     </row>
     <row r="12" spans="1:22" ht="17" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3">
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="N12" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="O12" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="P12" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="T12" s="3">
@@ -3371,50 +3371,50 @@
     </row>
     <row r="13" spans="1:22" ht="17" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="N13" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="O13" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="P13" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="T13" s="3">
@@ -3424,50 +3424,50 @@
     </row>
     <row r="14" spans="1:22" ht="17" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="N14" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="O14" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="P14" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="T14" s="3">
@@ -3477,50 +3477,50 @@
     </row>
     <row r="15" spans="1:22" ht="17" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="N15" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="O15" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="P15" s="11">
-        <v>42292</v>
+        <v>42308</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="T15" s="3">
@@ -3530,37 +3530,37 @@
     </row>
     <row r="16" spans="1:22" ht="17" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I16" s="3">
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="11">
@@ -3583,40 +3583,40 @@
     </row>
     <row r="17" spans="1:21" ht="17" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J17" s="3">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="11">
@@ -3639,40 +3639,40 @@
     </row>
     <row r="18" spans="1:21" ht="17" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J18" s="3">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="11">
@@ -3696,40 +3696,40 @@
     <row r="19" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="20" spans="1:21" ht="17" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J20" s="3">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="11">
@@ -3752,40 +3752,40 @@
     </row>
     <row r="21" spans="1:21" ht="17" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J21" s="3">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="11">
@@ -3808,31 +3808,31 @@
     </row>
     <row r="22" spans="1:21" ht="17" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J22" s="3">
         <v>3</v>
@@ -3841,7 +3841,7 @@
         <v>3</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="11">
@@ -3864,31 +3864,31 @@
     </row>
     <row r="23" spans="1:21" ht="17" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J23" s="3">
         <v>3</v>
@@ -3897,7 +3897,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="11">
@@ -3921,40 +3921,40 @@
     <row r="24" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="25" spans="1:21" ht="17" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M25" s="3">
         <v>1</v>
@@ -3968,7 +3968,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="13" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1">
@@ -3977,40 +3977,40 @@
     </row>
     <row r="26" spans="1:21" ht="17" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M26" s="5">
         <v>1</v>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1">
@@ -4031,40 +4031,40 @@
     </row>
     <row r="27" spans="1:21" ht="17" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M27" s="3">
         <v>2</v>
@@ -4082,7 +4082,7 @@
         <v>42094</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
@@ -4091,40 +4091,40 @@
     </row>
     <row r="28" spans="1:21" ht="17" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M28" s="3">
         <v>21</v>
@@ -4142,7 +4142,7 @@
         <v>42094</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1">
@@ -4151,40 +4151,40 @@
     </row>
     <row r="29" spans="1:21" ht="17" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="M29" s="3">
         <v>7</v>
@@ -4202,7 +4202,7 @@
         <v>42094</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1">
@@ -4211,40 +4211,40 @@
     </row>
     <row r="30" spans="1:21" ht="17" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M30" s="3">
         <v>1</v>
@@ -4265,40 +4265,40 @@
     </row>
     <row r="31" spans="1:21" ht="17" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M31" s="3">
         <v>1</v>
@@ -4319,40 +4319,40 @@
     </row>
     <row r="32" spans="1:21" ht="17" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M32" s="3">
         <v>1</v>
@@ -4375,40 +4375,40 @@
     </row>
     <row r="33" spans="1:21" ht="17" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M33" s="3">
         <v>1</v>
@@ -4433,40 +4433,40 @@
     </row>
     <row r="34" spans="1:21" ht="17" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>3</v>
@@ -4489,40 +4489,40 @@
     </row>
     <row r="35" spans="1:21" ht="17" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M35" s="3">
         <v>1</v>
@@ -4543,43 +4543,43 @@
     </row>
     <row r="36" spans="1:21" ht="17" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N36" s="11">
         <v>42185</v>
@@ -4597,43 +4597,43 @@
     </row>
     <row r="37" spans="1:21" ht="17" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N37" s="11">
         <v>42277</v>
@@ -4651,40 +4651,40 @@
     </row>
     <row r="38" spans="1:21" ht="17" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M38" s="5">
         <v>51</v>
@@ -4709,40 +4709,40 @@
     </row>
     <row r="39" spans="1:21" ht="17" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M39" s="3">
         <v>51</v>
@@ -4767,40 +4767,40 @@
     </row>
     <row r="40" spans="1:21" ht="17" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M40" s="3">
         <v>51</v>
@@ -4825,43 +4825,43 @@
     </row>
     <row r="41" spans="1:21" ht="17" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="J41" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N41" s="11">
         <v>42369</v>
@@ -4879,40 +4879,40 @@
     </row>
     <row r="42" spans="1:21" ht="17" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M42" s="3">
         <v>2</v>
@@ -4933,43 +4933,43 @@
     </row>
     <row r="43" spans="1:21" ht="17" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N43" s="11">
         <v>42369</v>
@@ -4987,40 +4987,40 @@
     </row>
     <row r="44" spans="1:21" ht="17" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M44" s="15">
         <v>1</v>
@@ -5042,40 +5042,40 @@
     <row r="45" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="46" spans="1:21" ht="17" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="J46" s="3">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -5100,40 +5100,40 @@
     </row>
     <row r="47" spans="1:21" ht="17" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="G47" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J47" s="3">
         <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -5156,46 +5156,46 @@
         <v>2</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="49" spans="1:25" ht="17" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J49" s="3">
-        <v>2</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="L49" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M49" s="3">
         <v>3</v>
@@ -5218,40 +5218,40 @@
     </row>
     <row r="50" spans="1:25" ht="17" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J50" s="3">
+        <v>2</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J50" s="3">
-        <v>2</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M50" s="3">
         <v>2</v>
@@ -5274,40 +5274,40 @@
     </row>
     <row r="51" spans="1:25" ht="17" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J51" s="3">
         <v>2</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M51" s="3">
         <v>3</v>
@@ -5330,40 +5330,40 @@
     </row>
     <row r="52" spans="1:25" ht="17" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M52" s="3">
         <v>1</v>
@@ -5386,40 +5386,40 @@
     </row>
     <row r="53" spans="1:25" ht="17" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="G53" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M53" s="3">
         <v>1</v>
@@ -5442,40 +5442,40 @@
     </row>
     <row r="54" spans="1:25" ht="17" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M54" s="3">
         <v>1</v>
@@ -5498,40 +5498,40 @@
     </row>
     <row r="55" spans="1:25" ht="17" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M55" s="3">
         <v>1</v>
@@ -5552,40 +5552,40 @@
     </row>
     <row r="56" spans="1:25" ht="17" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M56" s="3">
         <v>1</v>
@@ -5608,40 +5608,40 @@
     </row>
     <row r="57" spans="1:25" ht="17" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M57" s="3">
         <v>1</v>
@@ -5664,40 +5664,40 @@
     </row>
     <row r="58" spans="1:25" ht="17" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M58" s="3">
         <v>1</v>
@@ -5720,40 +5720,40 @@
     </row>
     <row r="59" spans="1:25" ht="17" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J59" s="3">
         <v>3</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M59" s="3">
         <v>3</v>
@@ -5776,40 +5776,40 @@
     </row>
     <row r="60" spans="1:25" ht="17" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J60" s="3">
         <v>3</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M60" s="3">
         <v>3</v>
@@ -5832,40 +5832,40 @@
     </row>
     <row r="61" spans="1:25" ht="17" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J61" s="3">
         <v>3</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M61" s="3">
         <v>3</v>
@@ -5889,40 +5889,40 @@
     <row r="62" spans="1:25" s="7" customFormat="1" ht="17" customHeight="1"/>
     <row r="63" spans="1:25" ht="17" customHeight="1">
       <c r="A63" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>270</v>
-      </c>
       <c r="D63" s="17" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J63" s="17">
         <v>6</v>
       </c>
       <c r="K63" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M63" s="17">
         <v>13</v>
@@ -5952,40 +5952,40 @@
     </row>
     <row r="64" spans="1:25" ht="17" customHeight="1">
       <c r="A64" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" s="17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J64" s="17">
         <v>6</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M64" s="17">
         <v>13</v>
